--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.439</v>
+        <v>16.461</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-5955269999.764</v>
+        <v>-0.179</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2189826.596</v>
+        <v>30.811</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.98</v>
+        <v>7.625</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-4139702.910223923</v>
+        <v>21.3504632963865</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-3327024.317102605</v>
+        <v>21.35774167326037</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1752138.912046531</v>
+        <v>21.37407997886596</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4705288.722687646</v>
+        <v>21.32576847993473</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-2599095.168675575</v>
+        <v>21.35667323861645</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1811066.016678917</v>
+        <v>21.36324013734703</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-4335482.217441199</v>
+        <v>21.34017239619646</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-617145.1107445549</v>
+        <v>21.38747452554719</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>155283.0045405256</v>
+        <v>21.39709815197438</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-1084844.292561283</v>
+        <v>21.36789975990988</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-592333.7088672915</v>
+        <v>21.38045437654566</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>161213.003240414</v>
+        <v>21.39500527011892</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-3344813.841452927</v>
+        <v>21.33324495176846</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-2500801.174102399</v>
+        <v>21.35158473103958</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-882399.0113115798</v>
+        <v>21.38167408473771</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1935947.483239305</v>
+        <v>21.36057621580637</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-166445.7260723414</v>
+        <v>21.39452236453041</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1300308.675140492</v>
+        <v>21.41971255595904</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2979359.088630554</v>
+        <v>21.32047872369439</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1819736.886389341</v>
+        <v>21.35831282003325</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-498721.3228699905</v>
+        <v>21.38269511398329</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-3347999.451068457</v>
+        <v>21.32934523079336</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-951322.7588865544</v>
+        <v>21.40517670746635</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1768641.18596744</v>
+        <v>21.44320361837331</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-274358.8214990465</v>
+        <v>21.40938152649391</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1208643.148742104</v>
+        <v>21.45519134189561</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2592079.999036599</v>
+        <v>21.48553668581573</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-1904671.469468306</v>
+        <v>21.3246411478557</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>248358.8282986113</v>
+        <v>21.40916710598475</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1433396.423114209</v>
+        <v>21.44812924143693</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-1517200.365504054</v>
+        <v>21.36784175646599</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>164239.7391379364</v>
+        <v>21.40563131438407</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1157831.592160465</v>
+        <v>21.43443565977076</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-2302974.300808323</v>
+        <v>21.31142069032</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-783000.9063917481</v>
+        <v>21.36861476482579</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>43340.68698002594</v>
+        <v>21.39363093141709</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-2316235.66018919</v>
+        <v>21.32656683425122</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>626860.936428089</v>
+        <v>21.42835071690749</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1818553.821673101</v>
+        <v>21.47503059288314</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>789582.0838768432</v>
+        <v>21.46575277946817</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1593914.732467864</v>
+        <v>21.51256456879872</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2477279.069111752</v>
+        <v>21.55134911288804</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-1253952.304733098</v>
+        <v>21.33809753489415</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>725127.622152078</v>
+        <v>21.44982826574656</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1240031.883527894</v>
+        <v>21.49926953979202</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-4010805.801435728</v>
+        <v>21.34825322115071</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>490895.1742616424</v>
+        <v>21.40326279251092</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1658360.620887774</v>
+        <v>21.42170973008206</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-2980370.759479064</v>
+        <v>21.33637169041254</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1367590.50187601</v>
+        <v>21.41512917746641</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1879074.261395359</v>
+        <v>21.42773319309504</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-2561117.224433421</v>
+        <v>21.35282602593979</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5438056.82466369</v>
+        <v>21.46966663108993</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6186615.172277354</v>
+        <v>21.47959042246523</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2865605.529038087</v>
+        <v>21.45492130217707</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3861314.649526376</v>
+        <v>21.47534179226603</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3277583.813560564</v>
+        <v>21.48687099886331</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-2410338.715868406</v>
+        <v>21.33949620407594</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>844106.681836092</v>
+        <v>21.43229430462575</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2497218.223347867</v>
+        <v>21.46026183567158</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-1960683.854374522</v>
+        <v>21.33795461604942</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>469881.8419468685</v>
+        <v>21.41270029356713</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1072956.180502851</v>
+        <v>21.43444205193467</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-2027398.824585475</v>
+        <v>21.30919938499099</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-591854.1128718589</v>
+        <v>21.38867341112473</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>283297.3042557723</v>
+        <v>21.41862285585049</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-2153300.18883278</v>
+        <v>21.31678713442183</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1008268.258302135</v>
+        <v>21.45865253712344</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2202729.994631553</v>
+        <v>21.48956666805395</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>957267.3406381918</v>
+        <v>21.46496363717521</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1702831.624806671</v>
+        <v>21.51723782871835</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2188333.711094649</v>
+        <v>21.54530103004638</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-1539277.913208374</v>
+        <v>21.30674913153142</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1007333.195424434</v>
+        <v>21.46848668390667</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1520887.942720604</v>
+        <v>21.49886880969797</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-1603912.240141805</v>
+        <v>21.33679441937368</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>643191.9136079267</v>
+        <v>21.42710221309654</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1243152.798604879</v>
+        <v>21.46017011973834</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-1693942.04416482</v>
+        <v>21.29115813442502</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>132771.2400329003</v>
+        <v>21.40196740864807</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>700233.4683113343</v>
+        <v>21.436148819453</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1540413.101026275</v>
+        <v>21.3094470288861</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1918809.296454126</v>
+        <v>21.49362984404513</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>3270700.091530675</v>
+        <v>21.54510397037729</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1370867.106639543</v>
+        <v>21.52572727358577</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2033852.926034596</v>
+        <v>21.58871206208434</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2490696.074036282</v>
+        <v>21.62690117683011</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-1347860.357755495</v>
+        <v>21.30222867207631</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1281121.302754266</v>
+        <v>21.51736214587736</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1751724.608262701</v>
+        <v>21.55720527517417</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-1723506.961482821</v>
+        <v>21.36954291048358</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-169567.6943355094</v>
+        <v>21.40234252041213</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1457516.574516725</v>
+        <v>21.41688749392041</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-3398802.186770522</v>
+        <v>21.34012979789186</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>188972.4848297295</v>
+        <v>21.40270185183296</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>614327.12722931</v>
+        <v>21.41008292380793</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-2956735.353767208</v>
+        <v>21.35865980080371</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4087864.844387381</v>
+        <v>21.45901514779061</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4386553.627432151</v>
+        <v>21.46204555751253</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1464860.320696413</v>
+        <v>21.44146812529768</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2298359.145503016</v>
+        <v>21.4677191920312</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2178286.654146507</v>
+        <v>21.47131686347948</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1651127.041304063</v>
+        <v>21.37001705754166</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24232.21052548167</v>
+        <v>21.41370906857006</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>782773.9538654949</v>
+        <v>21.44113158870245</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-947060.667940235</v>
+        <v>21.37844191975066</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>955224.0969717229</v>
+        <v>21.43295738640414</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1327968.108874635</v>
+        <v>21.44939681223508</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-1804240.742639479</v>
+        <v>21.32678506129414</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>-161532.2408136348</v>
+        <v>21.39918898548842</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>433175.5766282899</v>
+        <v>21.42099498413774</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-1881703.516482139</v>
+        <v>21.33881888322318</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1614259.994505442</v>
+        <v>21.47055245192406</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2594129.455279432</v>
+        <v>21.49350834404414</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1202060.59895483</v>
+        <v>21.48090397563003</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1893940.48912817</v>
+        <v>21.53186676958254</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2166284.045727889</v>
+        <v>21.5492630259081</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>-573637.7023770199</v>
+        <v>21.36566642123863</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1041179.183457981</v>
+        <v>21.47180379278619</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1429091.158303533</v>
+        <v>21.50412223694821</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-349152.1240364444</v>
+        <v>21.37551658962497</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>851019.1255916781</v>
+        <v>21.4408730602134</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1499182.925005825</v>
+        <v>21.4678067314461</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-1581674.90981746</v>
+        <v>21.30640815120154</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>176526.8299459411</v>
+        <v>21.40820342265808</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>599910.7729131005</v>
+        <v>21.43207350581603</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-1497733.673686732</v>
+        <v>21.32738575751201</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1816463.149640472</v>
+        <v>21.49790043561579</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3139913.972867783</v>
+        <v>21.53992271539475</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1468603.525529861</v>
+        <v>21.53651011345764</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2012736.958879579</v>
+        <v>21.59777097452244</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2438836.751193062</v>
+        <v>21.62514483557439</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>-411267.7460998449</v>
+        <v>21.36665376145211</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1206281.591013956</v>
+        <v>21.51798648958628</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1689132.662071464</v>
+        <v>21.55999783293384</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-3767529.876298505</v>
+        <v>21.35300915873594</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>-3004370.389269406</v>
+        <v>21.36059469778117</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>-1495422.889672212</v>
+        <v>21.3757116761847</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-4459774.844427323</v>
+        <v>21.32896968400207</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>-2413185.787452952</v>
+        <v>21.35709863488036</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-2172184.478816875</v>
+        <v>21.36611131638894</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-4069339.149682065</v>
+        <v>21.34521440910149</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>-388187.1025957999</v>
+        <v>21.3882120123686</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>264108.6101953802</v>
+        <v>21.39879221685526</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-960258.1810296035</v>
+        <v>21.37398878940138</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-676333.5713512659</v>
+        <v>21.3834978622648</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>157575.186103977</v>
+        <v>21.4048130670154</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3548010.396221465</v>
+        <v>21.37158832343916</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3943942.562178613</v>
+        <v>21.38984180076157</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4094198.856834031</v>
+        <v>21.41469454770512</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-2178160.945206001</v>
+        <v>21.357478356189</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>-309447.4483446985</v>
+        <v>21.38973597639566</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1136733.060652108</v>
+        <v>21.41296514728092</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-3186635.824560599</v>
+        <v>21.31859810654784</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-2244077.894918793</v>
+        <v>21.35337472550484</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-842324.1755069974</v>
+        <v>21.37848947378767</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-2992637.117261673</v>
+        <v>21.32541055430447</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-991885.9353571585</v>
+        <v>21.39172557759546</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1307176.175169806</v>
+        <v>21.43070745835878</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-492278.7593193889</v>
+        <v>21.39294241091691</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>983044.3513622239</v>
+        <v>21.43566878180716</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1937630.474586772</v>
+        <v>21.4757927634367</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-1870332.150630177</v>
+        <v>21.33989474322453</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-50360.56238540597</v>
+        <v>21.42106972533634</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>835528.5550059211</v>
+        <v>21.45202041083972</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-1145090.488777928</v>
+        <v>21.37273664570519</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>73045.30665168204</v>
+        <v>21.40644126371016</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1050525.812128767</v>
+        <v>21.4326170251895</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-2513580.05238824</v>
+        <v>21.31247952366617</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-1209932.387802348</v>
+        <v>21.36418699834558</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-425373.1146577233</v>
+        <v>21.38901538118034</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-2093489.034552072</v>
+        <v>21.3293674825123</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>320699.9247224712</v>
+        <v>21.42008126190249</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1813291.372438742</v>
+        <v>21.46810195735259</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>10419.91682688805</v>
+        <v>21.45006526626591</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>973188.6564363142</v>
+        <v>21.49044844391508</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1969617.878740268</v>
+        <v>21.54402977274792</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-1003066.209184813</v>
+        <v>21.36064509647901</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>735456.1438013971</v>
+        <v>21.46579763643128</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1183886.759143404</v>
+        <v>21.50401890658071</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-4174513.268574606</v>
+        <v>21.36274453861283</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-1834794.041958041</v>
+        <v>21.38845220925228</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>151097.5268805906</v>
+        <v>21.40055281734949</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-4208382.312862956</v>
+        <v>21.34036515873135</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>194514.5250425967</v>
+        <v>21.39391328142062</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1251706.5820319</v>
+        <v>21.40067718091541</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-3604024.084864711</v>
+        <v>21.36076359617977</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>6985085.534754715</v>
+        <v>21.44051090710616</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>6370770.374462159</v>
+        <v>21.44565756481979</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1733333.788645891</v>
+        <v>21.41270929818329</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2879320.68062861</v>
+        <v>21.42888441218579</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>3093520.561837404</v>
+        <v>21.43978175099793</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-2374243.681286464</v>
+        <v>21.36660945319276</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-2535483.321793638</v>
+        <v>21.39178694400143</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-1531969.419304295</v>
+        <v>21.41360612030434</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-343153.2192830716</v>
+        <v>21.38509385737142</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1596843.164997194</v>
+        <v>21.43377134117711</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2057828.252532127</v>
+        <v>21.44516300543287</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-2278003.43076447</v>
+        <v>21.34246014737118</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-49962.64570181858</v>
+        <v>21.40465374984065</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>806920.8198481414</v>
+        <v>21.4209879523284</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-2244278.589732275</v>
+        <v>21.35849941777117</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>2301716.647542522</v>
+        <v>21.46575161388076</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3204394.554243073</v>
+        <v>21.4885549539574</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1698063.348020936</v>
+        <v>21.47724703452109</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2604783.95870619</v>
+        <v>21.52081224501347</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3162160.840843962</v>
+        <v>21.5414593123136</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-1820.712415971849</v>
+        <v>21.39335814143882</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>1499108.1033528</v>
+        <v>21.47752106050086</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>2225262.300360193</v>
+        <v>21.49951988240262</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-271063.353401868</v>
+        <v>21.38079400945327</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1139539.979631182</v>
+        <v>21.43332602069552</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1798095.554331839</v>
+        <v>21.45035304888035</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-2003009.436181928</v>
+        <v>21.31744053776529</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-134941.9298859556</v>
+        <v>21.39711173029749</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>648956.9495903529</v>
+        <v>21.41498287997329</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>-1726489.380166515</v>
+        <v>21.34064716816766</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1886524.122831829</v>
+        <v>21.47539235728535</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>3459558.970466431</v>
+        <v>21.51080428004859</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1512515.732386881</v>
+        <v>21.51025567808853</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>2342403.129933081</v>
+        <v>21.55496319546976</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2842398.063755449</v>
+        <v>21.58652699556362</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-8512.883895873007</v>
+        <v>21.38185702669572</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1522736.022705356</v>
+        <v>21.49611442018722</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2135171.927605404</v>
+        <v>21.53057964939316</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-2233396.330670084</v>
+        <v>21.34310493710431</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-943496.1898273228</v>
+        <v>21.39186461931883</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>302637.4455299687</v>
+        <v>21.41416150581806</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-1838556.023674674</v>
+        <v>21.3252287290319</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>470320.7555304636</v>
+        <v>21.41462922274717</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>840249.0065784785</v>
+        <v>21.42768358150859</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-1494958.166204155</v>
+        <v>21.34355854669301</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>3372886.245679014</v>
+        <v>21.48579030201659</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>3508083.40052401</v>
+        <v>21.49298868685447</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1039953.237877683</v>
+        <v>21.42626894937979</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1698358.564966165</v>
+        <v>21.45277686346118</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1756667.663950703</v>
+        <v>21.46708713728124</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-1367824.137275939</v>
+        <v>21.32036491707131</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-1356557.68066842</v>
+        <v>21.37910704079314</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-1035785.291729828</v>
+        <v>21.40502679177024</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-515171.1146285256</v>
+        <v>21.37253349458777</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>890987.8400119027</v>
+        <v>21.4659461521304</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>1027554.878227502</v>
+        <v>21.48235204036111</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-1017859.904771112</v>
+        <v>21.31451767198635</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>373950.5043509232</v>
+        <v>21.43196541799282</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>688238.7120821103</v>
+        <v>21.4560039115277</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-1089302.521931944</v>
+        <v>21.32865401115376</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1669984.636783894</v>
+        <v>21.53206705056996</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1880335.203930311</v>
+        <v>21.55391796164971</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>946630.1638107317</v>
+        <v>21.52548801265127</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1396125.080078408</v>
+        <v>21.59149406473717</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1585001.61194557</v>
+        <v>21.62185996748711</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-343721.5814971503</v>
+        <v>21.35802945869159</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1142746.401786631</v>
+        <v>21.54189752524481</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1332987.387663514</v>
+        <v>21.56876460601547</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-272325.6942638998</v>
+        <v>21.37317144744316</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>743009.3650572803</v>
+        <v>21.46985405412045</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1046013.639752211</v>
+        <v>21.49934850129965</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-856987.1485484103</v>
+        <v>21.28078027117465</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>193589.1700990199</v>
+        <v>21.41911129423504</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>444505.5308589173</v>
+        <v>21.44759741571603</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-730433.4756785657</v>
+        <v>21.31078021277492</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1297800.687515198</v>
+        <v>21.54863481263067</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1953857.418588511</v>
+        <v>21.59575158755298</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>985951.9748036932</v>
+        <v>21.57489389532311</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1395459.482726241</v>
+        <v>21.65333073327952</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1586128.524479917</v>
+        <v>21.68722857024049</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-394324.7359437979</v>
+        <v>21.33697645644185</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>976733.2710240019</v>
+        <v>21.56865093508204</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1208304.884866743</v>
+        <v>21.60977819177852</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-2280499.672657889</v>
+        <v>21.33001140130455</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-2131105.356373061</v>
+        <v>21.33232384320936</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-1506041.511978967</v>
+        <v>21.35069486816034</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-2312474.768572789</v>
+        <v>21.31006235843264</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-1429646.918824978</v>
+        <v>21.3404973746989</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-1230543.578953998</v>
+        <v>21.34854954813776</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-2250731.088545509</v>
+        <v>21.31977173456305</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-711683.4942601294</v>
+        <v>21.37818081949634</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-389185.4346891207</v>
+        <v>21.38347869484171</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-447876.1522127843</v>
+        <v>21.36516777963735</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-120468.8499447264</v>
+        <v>21.38987265300667</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>6945.444404178272</v>
+        <v>21.39382308641019</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-1489511.82552998</v>
+        <v>21.31140843165208</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-1410401.876618276</v>
+        <v>21.33006012957021</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-1051169.955912093</v>
+        <v>21.35726089377733</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-1010962.810397744</v>
+        <v>21.33847876003693</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-159911.2105419881</v>
+        <v>21.38645677047835</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>302503.4866710965</v>
+        <v>21.41959544401553</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-1235997.139818938</v>
+        <v>21.30173215879008</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-641361.2818781671</v>
+        <v>21.35544952040529</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-117237.3558923933</v>
+        <v>21.39346746366949</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-1296001.338304034</v>
+        <v>21.30605567965153</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-159951.989439978</v>
+        <v>21.42001046174524</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>803791.2832789745</v>
+        <v>21.46286463036996</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>90784.19030862565</v>
+        <v>21.41895127929367</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>558494.7707853236</v>
+        <v>21.48537667100816</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>844250.3485468396</v>
+        <v>21.50998792339508</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-738906.6592918846</v>
+        <v>21.29429410378321</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>136608.68888457</v>
+        <v>21.41873930167959</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>479669.243403323</v>
+        <v>21.46379274632591</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-837743.0098453313</v>
+        <v>21.34196683438435</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>2276.532151914793</v>
+        <v>21.39668003351135</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>425814.3898419105</v>
+        <v>21.4391217866201</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-1082811.86367634</v>
+        <v>21.28027730397163</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-226932.2120388696</v>
+        <v>21.36485898421087</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>101456.6913737407</v>
+        <v>21.40356204788736</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-1018657.838070273</v>
+        <v>21.30258149609025</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>450016.8150550149</v>
+        <v>21.45487201815775</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1045283.674989203</v>
+        <v>21.51280987477749</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>606401.581591515</v>
+        <v>21.50578799781927</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>997545.3062312411</v>
+        <v>21.58344762656375</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1158714.667973384</v>
+        <v>21.6098664943354</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-569670.3604290937</v>
+        <v>21.33171305398536</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>474259.9887249497</v>
+        <v>21.49122866535198</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>840884.2518534261</v>
+        <v>21.54746633288287</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-4089532.953404112</v>
+        <v>21.33863074539333</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-3381020.460333743</v>
+        <v>21.33783927601936</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-2453093.855410132</v>
+        <v>21.36101397422591</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-3679753.593884873</v>
+        <v>21.3256841343639</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-2246656.010999377</v>
+        <v>21.34591420991644</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-2003500.779600077</v>
+        <v>21.36116263593774</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-3702432.141480401</v>
+        <v>21.33315787558693</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>-1311206.993758605</v>
+        <v>21.37292390411058</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-1455680.725916548</v>
+        <v>21.39003921766238</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>-1395374.708953978</v>
+        <v>21.33905959845181</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>-1216876.276790188</v>
+        <v>21.35860350668564</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-1108444.520961251</v>
+        <v>21.38565091224186</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-2285028.858373439</v>
+        <v>21.32026126247409</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-1667061.661085713</v>
+        <v>21.32324838959171</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-1267990.761889975</v>
+        <v>21.3431314620703</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-1986338.011754622</v>
+        <v>21.31667107949517</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-1438144.282934257</v>
+        <v>21.32751968614588</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-630747.3446571642</v>
+        <v>21.3634866332905</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-2006401.796071314</v>
+        <v>21.29704648003355</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-1897497.375451904</v>
+        <v>21.30795442628901</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-1092885.206441173</v>
+        <v>21.34546175219758</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-2112933.872489386</v>
+        <v>21.2934943616534</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-1984303.09863951</v>
+        <v>21.34254261621544</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-227964.5234905786</v>
+        <v>21.3951080868667</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-1318711.605113377</v>
+        <v>21.32650015114752</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-181775.6150260789</v>
+        <v>21.38607263001448</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>891828.6166281508</v>
+        <v>21.44187570341963</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-1586621.76671506</v>
+        <v>21.27203731809485</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-1178599.123177695</v>
+        <v>21.32455780335127</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-883468.0822855204</v>
+        <v>21.34931213978288</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-2005109.915825774</v>
+        <v>21.31969986022687</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-1385905.389769895</v>
+        <v>21.33293009868925</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-389975.5197489279</v>
+        <v>21.38288696794081</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1806101.368101276</v>
+        <v>21.28332013644885</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-1390158.481752416</v>
+        <v>21.310586127978</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-663880.368402236</v>
+        <v>21.35793162338642</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-1928033.761706153</v>
+        <v>21.28618974139934</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-1419458.911535706</v>
+        <v>21.36208739075733</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>593461.9419979589</v>
+        <v>21.43618820113109</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-808187.6137773867</v>
+        <v>21.37664929092249</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>770018.4440490438</v>
+        <v>21.44111550744439</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1451281.284055876</v>
+        <v>21.51517086010396</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-1464184.411434517</v>
+        <v>21.26755800083112</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-1013484.944920938</v>
+        <v>21.35370717857689</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-489964.0050156856</v>
+        <v>21.39560364489798</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-2547741.125528532</v>
+        <v>21.354208026644</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-1713405.37695961</v>
+        <v>21.39217297817051</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>834879.3141880489</v>
+        <v>21.42470201005372</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2342141.267206809</v>
+        <v>21.33735392773679</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1085430.485849773</v>
+        <v>21.43375487126366</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1634785.940996251</v>
+        <v>21.44675248153595</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-2027087.749208839</v>
+        <v>21.36219305923308</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>3687879.232381739</v>
+        <v>21.49370646908079</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>4418783.541925195</v>
+        <v>21.50679986318723</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1484522.063747812</v>
+        <v>21.47298274187413</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>1911252.112742833</v>
+        <v>21.49500414033212</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>1819982.308988575</v>
+        <v>21.4983192552775</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-532750.2731396779</v>
+        <v>21.38949353542238</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>292943.9349819359</v>
+        <v>21.44055192611253</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>2652275.90015107</v>
+        <v>21.49898963074406</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-1161374.294160618</v>
+        <v>21.34260477932489</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>281453.7663067341</v>
+        <v>21.40249826884772</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>558121.0384390047</v>
+        <v>21.43023693757798</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1376710.788078277</v>
+        <v>21.28569609658498</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-113360.6138984434</v>
+        <v>21.3861199173298</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>156484.2279990428</v>
+        <v>21.40732265155906</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1422047.271815071</v>
+        <v>21.30238974728744</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>941417.0688350794</v>
+        <v>21.46671562890738</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1415506.931392211</v>
+        <v>21.49560790548698</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>603989.5949078988</v>
+        <v>21.46532962239075</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1035245.264264007</v>
+        <v>21.51556180534907</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>1214638.669627402</v>
+        <v>21.52849053372718</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-393114.1469621274</v>
+        <v>21.33507293050017</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>651106.3930172913</v>
+        <v>21.46646539722873</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>939810.691387162</v>
+        <v>21.50823516329311</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>-743210.4863918207</v>
+        <v>21.34846911564211</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>200841.7833474895</v>
+        <v>21.4161631499135</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>770562.0917967869</v>
+        <v>21.46088501214367</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-1041504.529890338</v>
+        <v>21.28005781464264</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>224786.29954011</v>
+        <v>21.41078573167474</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>503214.6978040144</v>
+        <v>21.43792819305915</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>-878843.7047222261</v>
+        <v>21.30722662878232</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1242087.827816163</v>
+        <v>21.51185333893342</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>2182949.785780318</v>
+        <v>21.56753238326895</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>1002704.337682438</v>
+        <v>21.5458788709945</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1327573.022519325</v>
+        <v>21.60423667971816</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1609893.598218926</v>
+        <v>21.62628537646024</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-288281.2109525516</v>
+        <v>21.3509243960418</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>858919.2235155336</v>
+        <v>21.53002549374603</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1372522.207796861</v>
+        <v>21.59314014698057</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-2695192.481341812</v>
+        <v>21.33726797570232</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-2509123.094642602</v>
+        <v>21.3362748195733</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1626195.366660883</v>
+        <v>21.35713578683358</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-3044499.178327539</v>
+        <v>21.31425527272601</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2443948.226147786</v>
+        <v>21.32403341513131</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-2135386.06943972</v>
+        <v>21.33906486170252</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-2764863.152688735</v>
+        <v>21.32778509331861</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-1555780.069674913</v>
+        <v>21.36225593447076</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-906758.3716561066</v>
+        <v>21.37374302652146</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-985479.8935622252</v>
+        <v>21.3440315521482</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>-805044.7005825324</v>
+        <v>21.35461439958519</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-428751.3127360252</v>
+        <v>21.37444487339565</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-1887513.565128061</v>
+        <v>21.29796492007026</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-2030560.572908922</v>
+        <v>21.31876296150908</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-1502095.187424201</v>
+        <v>21.33522338735425</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-1812950.488755456</v>
+        <v>21.32160130411717</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-1038044.062077455</v>
+        <v>21.34797329759595</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-166554.8990915585</v>
+        <v>21.3867803585242</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-1918602.620807489</v>
+        <v>21.29665337238681</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1604906.392262197</v>
+        <v>21.31179972360398</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-703622.6821624301</v>
+        <v>21.35971714020445</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-2080012.425249753</v>
+        <v>21.29941889169457</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-1523548.635690621</v>
+        <v>21.36329135452273</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>120324.0247912783</v>
+        <v>21.4111461607091</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-820265.4693785026</v>
+        <v>21.34565069438267</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-313986.3193754897</v>
+        <v>21.39160531069751</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>328503.2313916315</v>
+        <v>21.44046140899329</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1359232.067980543</v>
+        <v>21.26100228715142</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-604862.1442751096</v>
+        <v>21.34638086347389</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-104079.3558609212</v>
+        <v>21.38451285381143</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-1233996.31621149</v>
+        <v>21.33609723126994</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-585521.7949544593</v>
+        <v>21.36528818297101</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>291508.3773324221</v>
+        <v>21.41248697154608</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-1499974.899679265</v>
+        <v>21.28989645859785</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-1035732.778445212</v>
+        <v>21.32367663469872</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-387547.6706434045</v>
+        <v>21.37401967099577</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-1371376.756518682</v>
+        <v>21.3077812308733</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-633792.6211605745</v>
+        <v>21.39892979705756</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>709308.048216083</v>
+        <v>21.4618995086105</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-337979.8458451695</v>
+        <v>21.421161926788</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>55046.42908620328</v>
+        <v>21.4711162582155</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>900162.72837962</v>
+        <v>21.53800233011095</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-679178.9154977775</v>
+        <v>21.29546190751262</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-140298.9147095919</v>
+        <v>21.40904476682535</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>364030.6634786959</v>
+        <v>21.45720409865431</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-4177827.212540876</v>
+        <v>21.31472822260537</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-4213046.602832971</v>
+        <v>21.32962358503756</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-2912547.865830334</v>
+        <v>21.34411545792326</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-3462681.546053763</v>
+        <v>21.29027921299032</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-3097503.130478596</v>
+        <v>21.32431846146899</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-2850827.262448694</v>
+        <v>21.33349181323721</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-3016458.490550416</v>
+        <v>21.29897185492146</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-2238796.77049825</v>
+        <v>21.37139675220702</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-1732390.774803851</v>
+        <v>21.37625608240219</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-2085548.332546273</v>
+        <v>21.33463064623304</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-2106344.896800259</v>
+        <v>21.34897440529792</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-1264022.112593438</v>
+        <v>21.36067979159255</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-2467318.177112315</v>
+        <v>21.28078191489437</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-2813445.999790645</v>
+        <v>21.30117032948199</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-2637773.51902918</v>
+        <v>21.31489347983503</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-986573.8598859035</v>
+        <v>21.36592669614221</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>467328.2791424445</v>
+        <v>21.41071214772035</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>823269.4737414324</v>
+        <v>21.42837860255219</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-1477166.609102435</v>
+        <v>21.32616880063025</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>-347298.509945291</v>
+        <v>21.37919585379763</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>215888.0639065842</v>
+        <v>21.40560349375684</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-1412929.413398432</v>
+        <v>21.33235565574783</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1232559.198708053</v>
+        <v>21.44551336425473</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>1866848.773899892</v>
+        <v>21.47147747870471</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>716113.9283708811</v>
+        <v>21.45012986492004</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1185472.744290939</v>
+        <v>21.49350440386191</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1484044.880456511</v>
+        <v>21.51951131187457</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>-665763.3502280647</v>
+        <v>21.3471517318893</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>715935.0712324444</v>
+        <v>21.44400229533972</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>991605.3119497347</v>
+        <v>21.47094675702041</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-561889.9220412725</v>
+        <v>21.37652374670042</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>526806.2501634732</v>
+        <v>21.43187475758312</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>1283631.15929128</v>
+        <v>21.45992484720186</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-1437471.345423493</v>
+        <v>21.3123387045634</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-3600.716240081908</v>
+        <v>21.39381339902245</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>474663.4724262826</v>
+        <v>21.42195719173466</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-1301104.736272993</v>
+        <v>21.32914801824369</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1381089.653481252</v>
+        <v>21.48031530843781</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>2338151.994378037</v>
+        <v>21.52494718606086</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1125127.394006914</v>
+        <v>21.51383570994648</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1524635.348306888</v>
+        <v>21.56956319783413</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1939507.28286122</v>
+        <v>21.60420857624517</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-713165.5737330929</v>
+        <v>21.3531029760384</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>951613.7647715006</v>
+        <v>21.49945311896631</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1290567.025347321</v>
+        <v>21.53207093565499</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-2551238.767347097</v>
+        <v>21.3583926518046</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-2152252.221570179</v>
+        <v>21.35737893029794</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1383400.674092179</v>
+        <v>21.37365998512455</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-3185651.843284582</v>
+        <v>21.3385945471423</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-2003871.727228117</v>
+        <v>21.3538138748694</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-1819943.925756178</v>
+        <v>21.36731250846363</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>-2062813.587651785</v>
+        <v>21.35258419729262</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-95711.50320021606</v>
+        <v>21.38729709040263</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-308076.3304468695</v>
+        <v>21.39793138079348</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-480953.3354095356</v>
+        <v>21.36719890154297</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>-217568.2643515737</v>
+        <v>21.38167379972752</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>217213.3941339553</v>
+        <v>21.39830145062114</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>-1582471.184584165</v>
+        <v>21.34597420181129</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>-1752407.006699129</v>
+        <v>21.34698959611489</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-896738.7000317528</v>
+        <v>21.3705977671281</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-2153157.43774296</v>
+        <v>21.32962159142962</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>-1446131.604519923</v>
+        <v>21.34055435354654</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-729892.0740893538</v>
+        <v>21.36884584759736</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-2293286.06713896</v>
+        <v>21.30414239123181</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-2141884.674740084</v>
+        <v>21.31081735520614</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-1259392.237212808</v>
+        <v>21.35018940683614</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-2501999.096686145</v>
+        <v>21.30207250741762</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>-1964247.142497757</v>
+        <v>21.34816386044386</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-411634.5625313094</v>
+        <v>21.39150432600512</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>-1084776.249280043</v>
+        <v>21.33022251120226</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>-601347.9440237003</v>
+        <v>21.36415812759544</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>182510.0755080447</v>
+        <v>21.40741477638649</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-1597624.702863833</v>
+        <v>21.27991816081178</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>-996035.3398734926</v>
+        <v>21.32268442296049</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-454576.2867839398</v>
+        <v>21.36332725448704</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-910713.8951205398</v>
+        <v>21.36298420272844</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-192841.136525443</v>
+        <v>21.38280690300169</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>367059.5173298108</v>
+        <v>21.41606346379559</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1806827.373868325</v>
+        <v>21.30616045297628</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-985553.5943648649</v>
+        <v>21.3391690944702</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-485248.1891288827</v>
+        <v>21.37779679443794</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-1522197.416450294</v>
+        <v>21.3241109492584</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>91198.53134545281</v>
+        <v>21.40507049446625</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1158665.70341955</v>
+        <v>21.46051532281621</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>7757.396801500333</v>
+        <v>21.41588430479009</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>512897.4754202931</v>
+        <v>21.4556595148575</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1122415.727828023</v>
+        <v>21.50775652506844</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-728103.7974559019</v>
+        <v>21.32326744466803</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>44284.72339142552</v>
+        <v>21.4000620542864</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>343648.9710602071</v>
+        <v>21.4414104425124</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-3590207.598316194</v>
+        <v>21.34247346596079</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-3468206.040554658</v>
+        <v>21.33398161714922</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-2968692.930916538</v>
+        <v>21.33997319945207</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-3232776.65554639</v>
+        <v>21.32964742166016</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-2970872.486580444</v>
+        <v>21.32819075454899</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-2856283.950652991</v>
+        <v>21.33270173139913</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-2612529.898558545</v>
+        <v>21.33503906865463</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-2319370.449797174</v>
+        <v>21.35217080263406</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-2143398.622048455</v>
+        <v>21.35281088960394</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1802790.511545028</v>
+        <v>21.32295666029254</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-1999310.280144314</v>
+        <v>21.31935757609476</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-1473602.660805564</v>
+        <v>21.33654780534454</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1802762.071811837</v>
+        <v>21.31501091641258</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-2334126.497426815</v>
+        <v>21.3043323121382</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1977134.64433393</v>
+        <v>21.31277283254777</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-2176380.868748116</v>
+        <v>21.31859435859001</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-1839863.165755195</v>
+        <v>21.31860443987243</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-1667214.827184414</v>
+        <v>21.33048617313197</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-2003505.945906917</v>
+        <v>21.30283547908461</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-2233485.403711995</v>
+        <v>21.29066433705438</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-1769436.511433559</v>
+        <v>21.31279467584443</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-2169391.728951085</v>
+        <v>21.28948883298507</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-2380044.561116923</v>
+        <v>21.31266902296979</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1771830.165097238</v>
+        <v>21.33676429597708</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-1392559.746262876</v>
+        <v>21.28633623439152</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-1190014.613519316</v>
+        <v>21.30202431605482</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1086847.954114574</v>
+        <v>21.33791488090828</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-1528520.683296656</v>
+        <v>21.25500167189694</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-1428112.638435026</v>
+        <v>21.27823965814191</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-1282039.83144132</v>
+        <v>21.29582379703529</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-769606.4376526795</v>
+        <v>21.36319745392993</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-450149.2111476836</v>
+        <v>21.36909735856812</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-93665.68521868921</v>
+        <v>21.38600469215252</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>-1513016.341307731</v>
+        <v>21.30991840421294</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-1115624.188297434</v>
+        <v>21.32108072119309</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-811553.9003213684</v>
+        <v>21.34385095713634</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-1137266.825206684</v>
+        <v>21.31863051502151</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-396582.046213617</v>
+        <v>21.37298100797275</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>183014.6770215549</v>
+        <v>21.40924855319169</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-224374.7947031383</v>
+        <v>21.3774200545029</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-50835.49648674594</v>
+        <v>21.39729025930486</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>294751.9744067431</v>
+        <v>21.44579656009596</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-480008.8681587745</v>
+        <v>21.30609786247704</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-396888.2416297062</v>
+        <v>21.35917906704559</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-94816.89587316873</v>
+        <v>21.37882195161365</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-1892053.265909543</v>
+        <v>21.38108172774909</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>163005.1290323486</v>
+        <v>21.39372596851958</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>1310661.836847979</v>
+        <v>21.41376599694122</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-3028860.844600773</v>
+        <v>21.34332444892615</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1096999.353727304</v>
+        <v>21.3824775067687</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-222078.5574546735</v>
+        <v>21.38901117769378</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-2155223.284537468</v>
+        <v>21.36943764945866</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>2571310.640381832</v>
+        <v>21.4286125087103</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>2907288.487405452</v>
+        <v>21.43976691126692</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>1070071.120013917</v>
+        <v>21.42261885601705</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1604061.543029787</v>
+        <v>21.43834522170271</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1902811.678240596</v>
+        <v>21.44785837872806</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-460092.564135891</v>
+        <v>21.39710817486171</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>1427998.112681877</v>
+        <v>21.42051694512739</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>2223148.449681407</v>
+        <v>21.44573981897348</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-1245413.294566427</v>
+        <v>21.35103512382831</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-261413.5897155188</v>
+        <v>21.37802379736404</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>325438.2372597241</v>
+        <v>21.40097826144088</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-2119608.294653258</v>
+        <v>21.2921636672801</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-1740978.911126068</v>
+        <v>21.32261137126857</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-1240181.740426344</v>
+        <v>21.34068777284306</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-1913727.891603377</v>
+        <v>21.30724279620514</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-777274.499446519</v>
+        <v>21.3789058801983</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36848.75162774554</v>
+        <v>21.41369258661696</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-478606.5647596334</v>
+        <v>21.37890762725372</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24389.32865057739</v>
+        <v>21.41852717422536</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>433842.6474332536</v>
+        <v>21.43407421240515</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-878892.2124935838</v>
+        <v>21.32173437040352</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-297838.2536054999</v>
+        <v>21.3889742260588</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>183538.0544397824</v>
+        <v>21.41196864499885</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-690369.6321307215</v>
+        <v>21.3811479172738</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>224979.653702821</v>
+        <v>21.41168616147323</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>1065393.9422834</v>
+        <v>21.44269465627312</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1534965.12963722</v>
+        <v>21.30243009709991</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-642869.2655534478</v>
+        <v>21.35473532335412</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-285636.5712991926</v>
+        <v>21.37597937745731</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-1336726.065214293</v>
+        <v>21.3280806762288</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>473705.6304171603</v>
+        <v>21.42955039929641</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1373613.180550582</v>
+        <v>21.4779602541844</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>710811.0884597569</v>
+        <v>21.47436567023757</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>1110171.820479464</v>
+        <v>21.51432299780873</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>1369606.743345502</v>
+        <v>21.5416879834004</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-340194.5244229691</v>
+        <v>21.36566677225018</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>509203.3704979445</v>
+        <v>21.46064767784021</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>814216.0436562848</v>
+        <v>21.49794942486689</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-2465296.396354909</v>
+        <v>21.3693207466743</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>293720.0107169701</v>
+        <v>21.40633165094393</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>1617203.446285814</v>
+        <v>21.42497142585642</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-2712344.47336094</v>
+        <v>21.3480968792716</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>713305.5467948891</v>
+        <v>21.40695783266803</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1170136.894151077</v>
+        <v>21.41933579919733</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-1875674.787877395</v>
+        <v>21.3681392609498</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>4631321.301325335</v>
+        <v>21.45511361158116</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>5427236.034942032</v>
+        <v>21.4688189565078</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>2798531.962521441</v>
+        <v>21.46047589531641</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>2905859.486161374</v>
+        <v>21.47274252258516</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>3609461.025140319</v>
+        <v>21.48473300669751</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-1403842.720256157</v>
+        <v>21.36143021357502</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>1044970.064733214</v>
+        <v>21.4275990685922</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>2197480.084521489</v>
+        <v>21.45800052622246</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-1581240.571789133</v>
+        <v>21.34657191667072</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>137818.4284784811</v>
+        <v>21.39820024994323</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>732727.8312751101</v>
+        <v>21.42104738037372</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-1924666.149685546</v>
+        <v>21.31237092233251</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-776504.1058531053</v>
+        <v>21.36832534938648</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-48461.82870604045</v>
+        <v>21.39668578982174</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-2074361.854377311</v>
+        <v>21.31884800130506</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>517450.3723870937</v>
+        <v>21.42378121168916</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1648445.042924344</v>
+        <v>21.45822231210477</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>615632.0298797897</v>
+        <v>21.4370265554928</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1115103.963150698</v>
+        <v>21.475296772529</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1540986.281226502</v>
+        <v>21.50113933483294</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-1204004.448491321</v>
+        <v>21.30786203808501</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>420045.0492999239</v>
+        <v>21.42145388268124</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>987835.7488202315</v>
+        <v>21.46014520858618</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-1338802.640377845</v>
+        <v>21.34113664643877</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>167300.9681702336</v>
+        <v>21.40575972362132</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>992864.732694202</v>
+        <v>21.4399533027884</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-1750017.436133172</v>
+        <v>21.29268341715648</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>-277803.9664715452</v>
+        <v>21.37744005266344</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>326804.5108759167</v>
+        <v>21.41102846027933</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-1771580.659083014</v>
+        <v>21.30659948826055</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>823015.4594716376</v>
+        <v>21.4485637971247</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>2349342.393254303</v>
+        <v>21.50410057029977</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>860595.6861600096</v>
+        <v>21.49127844937475</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1426247.457515015</v>
+        <v>21.5382701775599</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>2180593.036473595</v>
+        <v>21.57830381139042</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-1127429.056118091</v>
+        <v>21.30115996436549</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>691275.8115721971</v>
+        <v>21.4628932229645</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1349463.30097788</v>
+        <v>21.5120415080162</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-4179828.143688592</v>
+        <v>21.36707483562855</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-944917.1654492657</v>
+        <v>21.39186982833498</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>1988586.540285288</v>
+        <v>21.41088479289582</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>-4022532.073901986</v>
+        <v>21.35017153456104</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>2216506.506458821</v>
+        <v>21.40860727910141</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>3526244.533970474</v>
+        <v>21.41563834278155</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>-3451438.299074176</v>
+        <v>21.36676624177909</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>8231793.955426937</v>
+        <v>21.44474370366109</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>8465978.825129755</v>
+        <v>21.45513469710678</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>3290982.185444816</v>
+        <v>21.42637760728617</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>3055542.630748128</v>
+        <v>21.43750479901027</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>3579339.979789809</v>
+        <v>21.44764087234389</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>-3060064.916744781</v>
+        <v>21.36905229891407</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-84406.01301917358</v>
+        <v>21.40858995162873</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>5269353.630403239</v>
+        <v>21.4448692243827</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>-1257193.234992075</v>
+        <v>21.35533930151876</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>832790.9194762465</v>
+        <v>21.40066091031206</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1550753.776541634</v>
+        <v>21.42014754887708</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-2699158.310464447</v>
+        <v>21.31547920443734</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-750314.2613336657</v>
+        <v>21.37640969724006</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>-187536.3639220819</v>
+        <v>21.3927028593052</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-2925887.752061505</v>
+        <v>21.3257715128827</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1064769.06446735</v>
+        <v>21.42761413750047</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>2146154.075977348</v>
+        <v>21.45664131268675</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>553841.7006416273</v>
+        <v>21.43072927305786</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1623888.293307667</v>
+        <v>21.47044233146704</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>2165361.228505732</v>
+        <v>21.49030566434796</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-1474201.310107723</v>
+        <v>21.32905602947311</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>389592.6035015461</v>
+        <v>21.42963666908146</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1466734.813349058</v>
+        <v>21.46237792986286</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-1382767.881158051</v>
+        <v>21.35742331420013</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>448073.0714628628</v>
+        <v>21.40797103643651</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1429182.177131507</v>
+        <v>21.43414876143923</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-2103227.102062707</v>
+        <v>21.30573602338328</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>11036.21538973924</v>
+        <v>21.3872184338361</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>668363.6588471154</v>
+        <v>21.40596154582199</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-2119650.495512629</v>
+        <v>21.3203467683119</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1723336.280826377</v>
+        <v>21.45016772852278</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>3305348.027511695</v>
+        <v>21.49201450866939</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1501877.476130502</v>
+        <v>21.48211175165817</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2170065.467949628</v>
+        <v>21.52426503225389</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>2940183.786362591</v>
+        <v>21.55405269436046</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-1483390.902386644</v>
+        <v>21.33001175385534</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>740067.4070839749</v>
+        <v>21.46463349505134</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>1704228.792676003</v>
+        <v>21.51104381087628</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-3994505.528866843</v>
+        <v>21.38564527789594</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-201677.9633606026</v>
+        <v>21.39487975236086</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>4518974.043428152</v>
+        <v>21.40819306959076</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-4490782.582326137</v>
+        <v>21.38593036745887</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>8014274.863337051</v>
+        <v>21.42069466010858</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>8520309.75024502</v>
+        <v>21.42549396956305</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-2839007.953551768</v>
+        <v>21.38501236036739</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>14794013.511572</v>
+        <v>21.43009164886185</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16498291.10926699</v>
+        <v>21.4387642194327</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>4481072.087364895</v>
+        <v>21.41904459999822</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>4587383.196071956</v>
+        <v>21.42825220271319</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>4881263.685916254</v>
+        <v>21.4375107475848</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-3065474.61482169</v>
+        <v>21.39351368748992</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-1395687.119018072</v>
+        <v>21.40426221977988</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>5009473.839147812</v>
+        <v>21.43035957396458</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-164194.4976651126</v>
+        <v>21.38500132204973</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>2186743.248729698</v>
+        <v>21.40626857723738</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>3753851.414475418</v>
+        <v>21.42152392873247</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>1896264.872251902</v>
+        <v>21.38664859046094</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>3754099.680981531</v>
+        <v>21.41905008626584</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>4561612.411170088</v>
+        <v>21.43133086398826</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-2403411.831578864</v>
+        <v>21.36487433013756</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>2797485.262023015</v>
+        <v>21.42347134827425</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>5195657.280959547</v>
+        <v>21.44832544057946</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>1621491.762623934</v>
+        <v>21.4275874226807</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2963976.523956196</v>
+        <v>21.45531275276794</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>3980131.035815422</v>
+        <v>21.47233810000652</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-860740.3590161467</v>
+        <v>21.37322050271143</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1021956.703435798</v>
+        <v>21.42141405799864</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>2773628.405185995</v>
+        <v>21.447724038673</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-1043097.448897301</v>
+        <v>21.38645475257112</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>1452171.642547068</v>
+        <v>21.40944672175827</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>2889323.752308015</v>
+        <v>21.42756995070658</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1484886.358490222</v>
+        <v>21.3822778266724</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>4518478.032458554</v>
+        <v>21.42820085974369</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>4335039.029984658</v>
+        <v>21.43957519064907</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-2056978.038153988</v>
+        <v>21.3628319364888</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>4062930.891720165</v>
+        <v>21.44085393199085</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>6386759.417193954</v>
+        <v>21.47259252878422</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>2947703.254969464</v>
+        <v>21.46971516653253</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>4141479.472364928</v>
+        <v>21.49622283166072</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>5327483.99881807</v>
+        <v>21.51994935015911</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-968539.5537651362</v>
+        <v>21.37703214830822</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1592941.933996495</v>
+        <v>21.44572622736179</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>3199391.299053129</v>
+        <v>21.48379305190127</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-4052454.437815162</v>
+        <v>21.35614982397665</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-1063128.409552443</v>
+        <v>21.39067124855156</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1395973.985443522</v>
+        <v>21.40764097327928</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-4523351.419791777</v>
+        <v>21.33937742388782</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-625189.0998066763</v>
+        <v>21.39411022025763</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-322962.3696343463</v>
+        <v>21.3997180837376</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-4334282.613363554</v>
+        <v>21.35613194435482</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>3419796.68268662</v>
+        <v>21.43990799736711</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>4681598.375674032</v>
+        <v>21.44939115881811</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2618459.633318489</v>
+        <v>21.44166268841226</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>2433701.850552206</v>
+        <v>21.45450214382356</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>2932875.335426542</v>
+        <v>21.45987624157092</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-3805211.358234813</v>
+        <v>21.34050938314261</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>304281.3512093579</v>
+        <v>21.40998158230583</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1381285.55357161</v>
+        <v>21.43103216596375</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>-1980198.466839991</v>
+        <v>21.34128683243165</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>97059.06326963648</v>
+        <v>21.39126166861804</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>682130.5128235673</v>
+        <v>21.40851229613884</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-2464770.317512779</v>
+        <v>21.31359330711871</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-808639.7103187967</v>
+        <v>21.36899400618389</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-354599.5004665056</v>
+        <v>21.38462696695993</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-2691030.362088425</v>
+        <v>21.31770406069964</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>499901.0922150239</v>
+        <v>21.41920387855607</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1732928.514769771</v>
+        <v>21.44479487918725</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>595831.8259308778</v>
+        <v>21.43229769268991</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1163772.90284159</v>
+        <v>21.4639425307887</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>1638921.381853272</v>
+        <v>21.47926600609209</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-1738301.299011175</v>
+        <v>21.29786206046967</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>404794.3569245573</v>
+        <v>21.41536201323936</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>927321.4041167127</v>
+        <v>21.44167544155589</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-1662102.819506757</v>
+        <v>21.34165654932731</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>113006.8967243645</v>
+        <v>21.3984832384016</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>1046830.974916979</v>
+        <v>21.42528041881481</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-2169428.331048865</v>
+        <v>21.30307820808726</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-280295.2103733762</v>
+        <v>21.37839052955916</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>86716.46745511288</v>
+        <v>21.39672309624948</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-2234191.254402219</v>
+        <v>21.31029190534968</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>983037.6875268277</v>
+        <v>21.44151199360128</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2488141.352931475</v>
+        <v>21.4828877983075</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1261643.81177431</v>
+        <v>21.48817957325845</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1887625.648151532</v>
+        <v>21.52798267161424</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>2413901.206464599</v>
+        <v>21.55370152940115</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-1644754.403366514</v>
+        <v>21.29553238458774</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>797450.3524325471</v>
+        <v>21.45257052654783</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1439393.891680027</v>
+        <v>21.49089777274936</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-3778075.177861589</v>
+        <v>21.35572977186217</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-2957751.330370341</v>
+        <v>21.35895782339797</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-1571677.376485795</v>
+        <v>21.37294783637333</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-4275513.784246522</v>
+        <v>21.3319876535451</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-2413082.624824001</v>
+        <v>21.35797725790518</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-1913945.095921354</v>
+        <v>21.36123448992387</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-3428648.345311714</v>
+        <v>21.34513987666412</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-281039.3985809665</v>
+        <v>21.38302142629034</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>263777.5568342904</v>
+        <v>21.39211340034019</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-962294.9251081807</v>
+        <v>21.36906072571641</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-597482.2713575512</v>
+        <v>21.3781962996614</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-202280.7416372586</v>
+        <v>21.3874122756096</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-2833556.373946637</v>
+        <v>21.33526913812298</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-2255023.762581956</v>
+        <v>21.34804476233608</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-860695.1696995458</v>
+        <v>21.36455610949577</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>-2357164.493529206</v>
+        <v>21.34336258243938</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-823153.9947236206</v>
+        <v>21.37359354347731</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>188776.2432392382</v>
+        <v>21.39782569628899</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-2834525.481424672</v>
+        <v>21.31445916870909</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-1807260.793300045</v>
+        <v>21.35045756271923</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-830279.7513920629</v>
+        <v>21.37186355071535</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-3226416.067621109</v>
+        <v>21.31976805227578</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-1242728.286958283</v>
+        <v>21.38657314128968</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>685545.2149838617</v>
+        <v>21.42475277907457</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>-280832.412869368</v>
+        <v>21.38608793866217</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>377237.0201775886</v>
+        <v>21.42445791466158</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>1083872.203350058</v>
+        <v>21.44458414807873</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-2074931.674960004</v>
+        <v>21.30018135892925</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-380384.7385856648</v>
+        <v>21.38027893835871</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>390764.2371373875</v>
+        <v>21.41182397065253</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-1722744.514154671</v>
+        <v>21.35519451113272</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-279977.9817664138</v>
+        <v>21.3875434636412</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>548538.5162364218</v>
+        <v>21.41496421437052</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-2324017.297569451</v>
+        <v>21.30877763126162</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>-757328.7419513714</v>
+        <v>21.36367319413898</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>-275811.597581248</v>
+        <v>21.38249976546786</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>-2220878.853291994</v>
+        <v>21.32444158783726</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>210156.1417411004</v>
+        <v>21.41350594453213</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1352437.894627751</v>
+        <v>21.4593858475358</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>480469.7773083344</v>
+        <v>21.44364747217069</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>999683.5081511637</v>
+        <v>21.48138756253389</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>1350643.154125048</v>
+        <v>21.50460971020701</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-1699286.527834101</v>
+        <v>21.31565893099587</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>175536.0442070467</v>
+        <v>21.42010523720331</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>983189.430869917</v>
+        <v>21.45706426628284</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-5126834.051859347</v>
+        <v>21.36484121040357</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-3109434.02847768</v>
+        <v>21.36979613105699</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-228482.939411998</v>
+        <v>21.38443314551805</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-6725908.073935598</v>
+        <v>21.3532307385976</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-1357838.872139532</v>
+        <v>21.38041937567228</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-1360780.875260378</v>
+        <v>21.38755182804579</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-3409566.948287893</v>
+        <v>21.36205818695781</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>6877502.676513099</v>
+        <v>21.39871144284024</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>6848923.395976159</v>
+        <v>21.4095738604627</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>80791.93323327147</v>
+        <v>21.38720864001759</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>1123753.933210191</v>
+        <v>21.39685016004798</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>3113299.530752861</v>
+        <v>21.40834701313199</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-4998486.325142586</v>
+        <v>21.35983341157884</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-606904.3513993494</v>
+        <v>21.37005566031144</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>2355093.859239734</v>
+        <v>21.39672130303113</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-3536611.82906781</v>
+        <v>21.35775568721203</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-1275534.811895435</v>
+        <v>21.37503126165392</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>1995372.986408827</v>
+        <v>21.39560288292408</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-4221489.510731091</v>
+        <v>21.34318660938461</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-3512641.153578924</v>
+        <v>21.36755532869006</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>683893.4733006932</v>
+        <v>21.38712943098948</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-4629345.828602384</v>
+        <v>21.33681200034766</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-1517926.834880412</v>
+        <v>21.38597104385018</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>2584910.573773133</v>
+        <v>21.41751021170164</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-1337748.266337095</v>
+        <v>21.38663856999951</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1069554.950908634</v>
+        <v>21.41591726901939</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>2790775.371700842</v>
+        <v>21.43769422630605</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-3430817.022676862</v>
+        <v>21.32895055134518</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>-1021314.311430318</v>
+        <v>21.37672971870016</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>1034694.834265601</v>
+        <v>21.40792554983418</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-2872124.023673177</v>
+        <v>21.35543683130639</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-883003.1136624535</v>
+        <v>21.37359434903198</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>773933.6280220503</v>
+        <v>21.39673826854585</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-3448704.850845655</v>
+        <v>21.33175172026171</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-1390366.881046919</v>
+        <v>21.36876375487257</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>4987.168553968541</v>
+        <v>21.38717694089197</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-3700850.393176477</v>
+        <v>21.32936485683837</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>555243.1378610065</v>
+        <v>21.39653673465987</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>2378697.414947984</v>
+        <v>21.43453795731103</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1026696.066693456</v>
+        <v>21.4236782786896</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>2085485.061872883</v>
+        <v>21.44971275054321</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>3363111.724061668</v>
+        <v>21.47845476863402</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-3048091.357791267</v>
+        <v>21.32795736488096</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>-778877.9352686026</v>
+        <v>21.39373786755552</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>1090994.249258078</v>
+        <v>21.43741059104727</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-2181200.734933772</v>
+        <v>21.37795872637188</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>-316930.4877565564</v>
+        <v>21.39544606661791</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>1820185.394883818</v>
+        <v>21.41691858058824</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-3186092.640256955</v>
+        <v>21.35042604613836</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>1622706.469632955</v>
+        <v>21.41606065864949</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>2640575.12800324</v>
+        <v>21.42562093835291</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-1770544.191542616</v>
+        <v>21.37477141063516</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>5878059.940739687</v>
+        <v>21.45972569028057</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>6406814.461070036</v>
+        <v>21.46963520354766</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>2599208.108268407</v>
+        <v>21.44030512107648</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>2263096.227196247</v>
+        <v>21.45840117680613</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>2714514.790658078</v>
+        <v>21.46674144910941</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-1554023.083094381</v>
+        <v>21.40341132251629</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-1276514.830035142</v>
+        <v>21.42301870054521</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>3927257.913632366</v>
+        <v>21.47063549312968</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-423897.3338841159</v>
+        <v>21.38386885803401</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>909378.0624830731</v>
+        <v>21.41301948454863</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>1310488.444526142</v>
+        <v>21.43291588938942</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-1760715.316760109</v>
+        <v>21.33043022754133</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>-158365.88509774</v>
+        <v>21.39099918233303</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>354052.6778817385</v>
+        <v>21.40799025504396</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-1730956.497122816</v>
+        <v>21.34005454208774</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1341500.760409532</v>
+        <v>21.44488131663512</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>2127612.038739414</v>
+        <v>21.47254701563813</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>1004024.187570473</v>
+        <v>21.44904426000187</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1388715.855848373</v>
+        <v>21.47910047948276</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>1844602.257111759</v>
+        <v>21.49798943570929</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>-596184.6859114968</v>
+        <v>21.36678109349799</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>623722.5243022406</v>
+        <v>21.44277782570499</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>1393642.248495595</v>
+        <v>21.47669982790075</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-558650.515867147</v>
+        <v>21.38277114071369</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>610237.3777695555</v>
+        <v>21.41554159101939</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>1263667.97027229</v>
+        <v>21.44553738700668</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-1584842.338244945</v>
+        <v>21.31460614038861</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>144103.5108957613</v>
+        <v>21.39708858973064</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>582568.3325039364</v>
+        <v>21.41843956102246</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-1468964.104046561</v>
+        <v>21.336579678795</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>1729065.35197595</v>
+        <v>21.47247073226601</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>2827695.361012714</v>
+        <v>21.51584168091495</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1359878.240334598</v>
+        <v>21.50267139939789</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1827195.912653442</v>
+        <v>21.54470199196007</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>2386308.223175997</v>
+        <v>21.5682369823305</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>-607292.9373763689</v>
+        <v>21.36810491407173</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>905990.4654256068</v>
+        <v>21.47915648522651</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1667117.857547303</v>
+        <v>21.53262799487093</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-4233103.490268209</v>
+        <v>21.35236853265265</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>-1731767.431817636</v>
+        <v>21.38701607907606</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>536987.9097895351</v>
+        <v>21.40394362387189</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-4324005.733175079</v>
+        <v>21.33533494640839</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>-760876.1777313841</v>
+        <v>21.39258998510302</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>-498464.9951264415</v>
+        <v>21.3936509809139</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>-4342005.063338092</v>
+        <v>21.3501099757661</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>2491129.932798333</v>
+        <v>21.43518681446713</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>3887960.749817374</v>
+        <v>21.44531684884336</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>1987183.183463448</v>
+        <v>21.43436743135537</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>2454970.886837647</v>
+        <v>21.44971954678316</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>2497082.704077478</v>
+        <v>21.45103577004254</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-3912573.515316431</v>
+        <v>21.33085132719246</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-112582.5321197564</v>
+        <v>21.40097875297387</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>876116.3138438381</v>
+        <v>21.4256307789748</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>-1848827.780409164</v>
+        <v>21.34620339859127</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>142495.9531441302</v>
+        <v>21.39788385080272</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>636409.0392052127</v>
+        <v>21.41577657785108</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-2222504.925479616</v>
+        <v>21.31780338749314</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-722116.7223706333</v>
+        <v>21.37637909504991</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>-184616.0621659155</v>
+        <v>21.38782006247635</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-2224801.365205366</v>
+        <v>21.32151220189476</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>878283.6669300494</v>
+        <v>21.42678661832998</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>2135089.809567827</v>
+        <v>21.45551789586753</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>727209.435889428</v>
+        <v>21.44098973399726</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1321301.377078549</v>
+        <v>21.47522276854635</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1721305.601930093</v>
+        <v>21.4860278159464</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-1595280.972322308</v>
+        <v>21.30024672547674</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>469480.3836740261</v>
+        <v>21.42169097392907</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>1073644.977043728</v>
+        <v>21.45391734275866</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-1696844.689021179</v>
+        <v>21.34467730388935</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-924.3610338186859</v>
+        <v>21.40238794164173</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>870069.1443549891</v>
+        <v>21.42966326057178</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-2075523.625544556</v>
+        <v>21.30286723157829</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>-256439.3849449698</v>
+        <v>21.38165064551838</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>-35298.99646350549</v>
+        <v>21.3941193413902</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-2161219.862796806</v>
+        <v>21.30865133020341</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>855998.0545949059</v>
+        <v>21.44311207758849</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>2270184.839018766</v>
+        <v>21.48636189676411</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>1060518.049893317</v>
+        <v>21.4856387676517</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1676661.463534567</v>
+        <v>21.52621156880194</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>2217820.866975267</v>
+        <v>21.54978137082133</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-1525706.439850831</v>
+        <v>21.28763486795537</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>641045.7832912098</v>
+        <v>21.44819715787717</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>1348063.109580531</v>
+        <v>21.49344131321205</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.549</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.461</v>
+        <v>16.439</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.179</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.811</v>
+        <v>15.382</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.92</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.625</v>
+        <v>3.98</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>21.3504632963865</v>
+        <v>6.336024520148911</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>21.35774167326037</v>
+        <v>9.994230004922469</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.37407997886596</v>
+        <v>17.08344642507902</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>21.32576847993473</v>
+        <v>0.2668058037693228</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.35667323861645</v>
+        <v>11.32475371843864</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.36324013734703</v>
+        <v>15.46206830731947</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>21.34017239619646</v>
+        <v>4.17600647098768</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.38747452554719</v>
+        <v>22.0104962899686</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21.39709815197438</v>
+        <v>25.71534094569794</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21.36789975990988</v>
+        <v>17.28732396930524</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>21.38045437654566</v>
+        <v>20.77541973675991</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>21.39500527011892</v>
+        <v>26.1122453484412</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.33324495176846</v>
+        <v>0.8834328905737685</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>21.35158473103958</v>
+        <v>6.961433076876069</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>21.38167408473771</v>
+        <v>18.61605513110788</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>21.36057621580637</v>
+        <v>9.911162233520947</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.39452236453041</v>
+        <v>23.67572822206515</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>21.41971255595904</v>
+        <v>35.08528894316048</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21.32047872369439</v>
+        <v>-2.060512343070751</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.35831282003325</v>
+        <v>8.460439433656454</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.38269511398329</v>
+        <v>20.44567135939128</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21.32934523079336</v>
+        <v>-2.779320407300922</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21.40517670746635</v>
+        <v>17.08545363726384</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21.44320361837331</v>
+        <v>39.62978318748645</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.40938152649391</v>
+        <v>21.61256795355229</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21.45519134189561</v>
+        <v>39.76257542240923</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>21.48553668581573</v>
+        <v>56.69403584484796</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.3246411478557</v>
+        <v>1.267861258563528</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21.40916710598475</v>
+        <v>28.06103332129809</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>21.44812924143693</v>
+        <v>42.80811617082212</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21.36784175646599</v>
+        <v>10.39857747015218</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>21.40563131438407</v>
+        <v>26.54785706953842</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>21.43443565977076</v>
+        <v>36.09074390674154</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>21.31142069032</v>
+        <v>-0.8277187697656743</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>21.36861476482579</v>
+        <v>16.19914739514096</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21.39363093141709</v>
+        <v>25.45589344643497</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>21.32656683425122</v>
+        <v>1.266656757386919</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>21.42835071690749</v>
+        <v>31.38554393531101</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.47503059288314</v>
+        <v>43.58101981696711</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>21.46575277946817</v>
+        <v>36.90172255279508</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>21.51256456879872</v>
+        <v>49.05605204881479</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>21.55134911288804</v>
+        <v>62.40463516478155</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>21.33809753489415</v>
+        <v>5.703232981969499</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>21.44982826574656</v>
+        <v>36.11191195579075</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>21.49926953979202</v>
+        <v>44.02344608522459</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>21.34825322115071</v>
+        <v>1.796079529010324</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>21.40326279251092</v>
+        <v>27.80691620990512</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.42170973008206</v>
+        <v>34.55253375018962</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>21.33637169041254</v>
+        <v>4.885354654653462</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>21.41512917746641</v>
+        <v>34.18688673507948</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>21.42773319309504</v>
+        <v>37.63384885992193</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>21.35282602593979</v>
+        <v>9.202761229138419</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>21.46966663108993</v>
+        <v>58.4504074218823</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>21.47959042246523</v>
+        <v>63.05897531047142</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>21.45492130217707</v>
+        <v>51.02103488833598</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>21.47534179226603</v>
+        <v>60.07280925598975</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>21.48687099886331</v>
+        <v>54.76623958631221</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21.33949620407594</v>
+        <v>2.690280659417592</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>21.43229430462575</v>
+        <v>32.77300303578689</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>21.46026183567158</v>
+        <v>48.05366978027944</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>21.33795461604942</v>
+        <v>5.393356722753332</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>21.41270029356713</v>
+        <v>29.66210014502872</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>21.43444205193467</v>
+        <v>35.68368450669596</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>21.30919938499099</v>
+        <v>1.359826633499686</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.38867341112473</v>
+        <v>18.0778001867415</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>21.41862285585049</v>
+        <v>28.26958183397214</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.31678713442183</v>
+        <v>2.061347499914852</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>21.45865253712344</v>
+        <v>35.6974113134639</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>21.48956666805395</v>
+        <v>48.40534152526369</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>21.46496363717521</v>
+        <v>40.00850502816062</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.51723782871835</v>
+        <v>51.72097734247954</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>21.54530103004638</v>
+        <v>59.3479920277847</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>21.30674913153142</v>
+        <v>0.3824819840122764</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>21.46848668390667</v>
+        <v>41.06099067954381</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>21.49886880969797</v>
+        <v>49.26430102508545</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>21.33679441937368</v>
+        <v>5.196986551977517</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>21.42710221309654</v>
+        <v>32.89976677208367</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>21.46017011973834</v>
+        <v>40.29621277570847</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>21.29115813442502</v>
+        <v>0.6132022220193249</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>21.40196740864807</v>
+        <v>26.87941906783242</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>21.436148819453</v>
+        <v>35.03892941283781</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>21.3094470288861</v>
+        <v>4.735488238954709</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>21.49362984404513</v>
+        <v>50.17579885462395</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>21.54510397037729</v>
+        <v>67.9342227395659</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>21.52572727358577</v>
+        <v>51.56022752365216</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>21.58871206208434</v>
+        <v>64.41984201965418</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>21.62690117683011</v>
+        <v>73.28100706508768</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>21.30222867207631</v>
+        <v>-1.613041360555883</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>21.51736214587736</v>
+        <v>50.23712789294386</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>21.55720527517417</v>
+        <v>59.51861562958221</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>21.36954291048358</v>
+        <v>15.01209651627783</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>21.40234252041213</v>
+        <v>23.99076051639764</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>21.41688749392041</v>
+        <v>33.3920564735579</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>21.34012979789186</v>
+        <v>2.065485489945569</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>21.40270185183296</v>
+        <v>26.24401154343467</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>21.41008292380793</v>
+        <v>29.11053724379142</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>21.35865980080371</v>
+        <v>6.767102054668388</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>21.45901514779061</v>
+        <v>50.13782708186164</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>21.46204555751253</v>
+        <v>51.97673187613736</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.44146812529768</v>
+        <v>38.28716581795626</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>21.4677191920312</v>
+        <v>45.864321779081</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>21.47131686347948</v>
+        <v>44.77276895792338</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21.37001705754166</v>
+        <v>9.708113574029255</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>21.41370906857006</v>
+        <v>25.19442878122826</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>21.44113158870245</v>
+        <v>32.20606913379953</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>21.37844191975066</v>
+        <v>15.5141944666882</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>21.43295738640414</v>
+        <v>34.50815169467966</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>21.44939681223508</v>
+        <v>38.22993086763199</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>21.32678506129414</v>
+        <v>3.958666559364421</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>21.39918898548842</v>
+        <v>23.08921475136572</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>21.42099498413774</v>
+        <v>30.01502450342289</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>21.33881888322318</v>
+        <v>4.950876275106253</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>21.47055245192406</v>
+        <v>42.14458367435</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>21.49350834404414</v>
+        <v>52.56945736051353</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>21.48090397563003</v>
+        <v>43.85409463276898</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>21.53186676958254</v>
+        <v>54.72320978563195</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>21.5492630259081</v>
+        <v>59.001601916788</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.36566642123863</v>
+        <v>15.80721785353671</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>21.47180379278619</v>
+        <v>41.60163244218431</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>21.50412223694821</v>
+        <v>47.79797729765278</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.37551658962497</v>
+        <v>20.66593740920296</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.4408730602134</v>
+        <v>35.46190505469777</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>21.4678067314461</v>
+        <v>43.45260688836045</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>21.30640815120154</v>
+        <v>2.227485602413509</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>21.40820342265808</v>
+        <v>27.50857845634428</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>21.43207350581603</v>
+        <v>33.59639450893036</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>21.32738575751201</v>
+        <v>5.296124767158378</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>21.49790043561579</v>
+        <v>48.83138089961864</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>21.53992271539475</v>
+        <v>66.2162176004377</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>21.53651011345764</v>
+        <v>53.45597345423026</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>21.59777097452244</v>
+        <v>64.01026584263793</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>21.62514483557439</v>
+        <v>72.27511692343107</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>21.36665376145211</v>
+        <v>16.85893437262835</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>21.51798648958628</v>
+        <v>48.76109944477831</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>21.55999783293384</v>
+        <v>58.28414410295605</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>21.35300915873594</v>
+        <v>7.605061413617449</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.36059469778117</v>
+        <v>11.1226550207565</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>21.3757116761847</v>
+        <v>18.07777274949554</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>21.32896968400207</v>
+        <v>0.9948894366211896</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21.35709863488036</v>
+        <v>11.99730356855204</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>21.36611131638894</v>
+        <v>13.29292087624598</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>21.34521440910149</v>
+        <v>4.984958204957088</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>21.3882120123686</v>
+        <v>23.06405646168279</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>21.39879221685526</v>
+        <v>26.26765091612227</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.37398878940138</v>
+        <v>18.00675610688391</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>21.3834978622648</v>
+        <v>20.06575896501469</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>21.4048130670154</v>
+        <v>26.11321119878049</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>21.37158832343916</v>
+        <v>51.13289071957278</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>21.38984180076157</v>
+        <v>54.05242520492446</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>21.41469454770512</v>
+        <v>55.16038881992076</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>21.357478356189</v>
+        <v>7.621143854498314</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>21.38973597639566</v>
+        <v>22.50568070802399</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>21.41296514728092</v>
+        <v>34.0246894373813</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>21.31859810654784</v>
+        <v>-4.633675587053535</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.35337472550484</v>
+        <v>4.122765681307943</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>21.37848947378767</v>
+        <v>17.14517388639476</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>21.32541055430447</v>
+        <v>-0.4281175504523915</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>21.39172557759546</v>
+        <v>16.55229895535837</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>21.43070745835878</v>
+        <v>36.06448645901191</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>21.39294241091691</v>
+        <v>18.8011769521707</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>21.43566878180716</v>
+        <v>37.28974623843796</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>21.4757927634367</v>
+        <v>49.25250310923148</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.33989474322453</v>
+        <v>1.137618094548305</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>21.42106972533634</v>
+        <v>24.32862896379654</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>21.45202041083972</v>
+        <v>35.61708219189561</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>21.37273664570519</v>
+        <v>13.70901508801815</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>21.40644126371016</v>
+        <v>25.68878665125274</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>21.4326170251895</v>
+        <v>35.301830785631</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21.31247952366617</v>
+        <v>-3.86147096657886</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>21.36418699834558</v>
+        <v>11.0919323366615</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>21.38901538118034</v>
+        <v>20.09116698059893</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21.3293674825123</v>
+        <v>3.03295401629498</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>21.42008126190249</v>
+        <v>28.33098639411922</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>21.46810195735259</v>
+        <v>43.97169530637283</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>21.45006526626591</v>
+        <v>25.13150894441489</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>21.49044844391508</v>
+        <v>40.0284935240857</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>21.54402977274792</v>
+        <v>55.44630898558172</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>21.36064509647901</v>
+        <v>9.188897209311678</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>21.46579763643128</v>
+        <v>36.54130598481106</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>21.50401890658071</v>
+        <v>43.59652588302817</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>21.36274453861283</v>
+        <v>6.179328570577788</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>21.38845220925228</v>
+        <v>16.71138119271515</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>21.40055281734949</v>
+        <v>25.65070787214458</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>21.34036515873135</v>
+        <v>2.875666317960885</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.39391328142062</v>
+        <v>25.99177728244436</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.40067718091541</v>
+        <v>31.54225229919768</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>21.36076359617977</v>
+        <v>7.684344269341778</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>21.44051090710616</v>
+        <v>58.4735444639815</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>21.44565756481979</v>
+        <v>55.52706673549555</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>21.41270929818329</v>
+        <v>37.24643827556744</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>21.42888441218579</v>
+        <v>45.36263345964269</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21.43978175099793</v>
+        <v>46.87965608569433</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.36660945319276</v>
+        <v>7.872813314008894</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>21.39178694400143</v>
+        <v>6.711676043263544</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.41360612030434</v>
+        <v>13.9382946974997</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>21.38509385737142</v>
+        <v>22.30115939718662</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>21.43377134117711</v>
+        <v>37.3919656881708</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>21.44516300543287</v>
+        <v>40.97786755654107</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.34246014737118</v>
+        <v>4.302705815810977</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>21.40465374984065</v>
+        <v>24.51714256160647</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>21.4209879523284</v>
+        <v>32.29142422153125</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>21.35849941777117</v>
+        <v>6.368832779249715</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>21.46575161388076</v>
+        <v>44.04816119710053</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>21.4885549539574</v>
+        <v>51.52997662515551</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.47724703452109</v>
+        <v>45.7524395295187</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>21.52081224501347</v>
+        <v>56.84951572114898</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>21.5414593123136</v>
+        <v>63.67108088206614</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.39335814143882</v>
+        <v>24.94769883274317</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.47752106050086</v>
+        <v>43.62585866008937</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>21.49951988240262</v>
+        <v>52.66241256491643</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>21.38079400945327</v>
+        <v>22.36701748298676</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>21.43332602069552</v>
+        <v>35.91506333135631</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>21.45035304888035</v>
+        <v>42.24011652725338</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>21.31744053776529</v>
+        <v>2.532512154623973</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>21.39711173029749</v>
+        <v>23.45875700440416</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>21.41498287997329</v>
+        <v>32.24005630654558</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>21.34064716816766</v>
+        <v>7.301967216452155</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>21.47539235728535</v>
+        <v>44.27661024862402</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>21.51080428004859</v>
+        <v>60.37464085941133</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>21.51025567808853</v>
+        <v>47.82602580362403</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>21.55496319546976</v>
+        <v>60.36651498063316</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>21.58652699556362</v>
+        <v>67.9219750041236</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>21.38185702669572</v>
+        <v>24.83948261751954</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>21.49611442018722</v>
+        <v>48.36721173917051</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>21.53057964939316</v>
+        <v>57.77732528292125</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>21.34310493710431</v>
+        <v>4.56652527849231</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>21.39186461931883</v>
+        <v>16.35082481515567</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>21.41416150581806</v>
+        <v>27.73528129887019</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>21.3252287290319</v>
+        <v>5.3796298614281</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>21.41462922274717</v>
+        <v>29.98191360788157</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>21.42768358150859</v>
+        <v>33.9236916534148</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>21.34355854669301</v>
+        <v>10.41786493877159</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>21.48579030201659</v>
+        <v>57.80353483346217</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>21.49298868685447</v>
+        <v>59.11960149626402</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>21.42626894937979</v>
+        <v>39.91837583286039</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>21.45277686346118</v>
+        <v>49.38215450601114</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>21.46708713728124</v>
+        <v>50.22027714068156</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>21.32036491707131</v>
+        <v>4.979030955692881</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>21.37910704079314</v>
+        <v>5.14369451510689</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>21.40502679177024</v>
+        <v>9.831905295518771</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>21.37253349458777</v>
+        <v>16.83707335565077</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>21.4659461521304</v>
+        <v>39.03663235543544</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>21.48235204036111</v>
+        <v>41.19266742692445</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>21.31451767198635</v>
+        <v>6.227819568253171</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>21.43196541799282</v>
+        <v>31.85595407885018</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>21.4560039115277</v>
+        <v>37.64310756616342</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>21.32865401115376</v>
+        <v>6.646213047780797</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>21.53206705056996</v>
+        <v>53.06240241424095</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>21.55391796164971</v>
+        <v>56.60087854825598</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>21.52548801265127</v>
+        <v>48.48336002249886</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.59149406473717</v>
+        <v>59.64834828187639</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>21.62185996748711</v>
+        <v>64.33984574814133</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>21.35802945869159</v>
+        <v>16.28884782133782</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.54189752524481</v>
+        <v>53.83176000580548</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>21.56876460601547</v>
+        <v>58.63657296308446</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>21.37317144744316</v>
+        <v>19.66183994511736</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>21.46985405412045</v>
+        <v>39.45337778037177</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>21.49934850129965</v>
+        <v>45.35972417490856</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>21.28078027117465</v>
+        <v>5.486398735631337</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>21.41911129423504</v>
+        <v>29.37137145820035</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>21.44759741571603</v>
+        <v>35.07598360871258</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>21.31078021277492</v>
+        <v>9.799174053361746</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>21.54863481263067</v>
+        <v>51.92524018051546</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>21.59575158755298</v>
+        <v>65.55142286587153</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>21.57489389532311</v>
+        <v>55.20765169312558</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>21.65333073327952</v>
+        <v>67.76666680608332</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>21.68722857024049</v>
+        <v>73.61421619316413</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>21.33697645644185</v>
+        <v>12.6732432239963</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.56865093508204</v>
+        <v>55.42839530654436</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>21.60977819177852</v>
+        <v>62.64973788835397</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>21.33001140130455</v>
+        <v>4.136197477458307</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.33232384320936</v>
+        <v>5.501037527033848</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>21.35069486816034</v>
+        <v>11.21151025174105</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.31006235843264</v>
+        <v>0.3297789816593308</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>21.3404973746989</v>
+        <v>9.736769191957578</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>21.34854954813776</v>
+        <v>11.8583189024009</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>21.31977173456305</v>
+        <v>3.060849557181463</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.37818081949634</v>
+        <v>18.04259405932568</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.38347869484171</v>
+        <v>21.18192746842247</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>21.36516777963735</v>
+        <v>18.53263141081861</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>21.38987265300667</v>
+        <v>23.23871460479896</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>21.39382308641019</v>
+        <v>25.07014067610069</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>21.31140843165208</v>
+        <v>3.200518990234261</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.33006012957021</v>
+        <v>4.356741059573924</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>21.35726089377733</v>
+        <v>9.607052562056088</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>21.33847876003693</v>
+        <v>9.009823836305683</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>21.38645677047835</v>
+        <v>22.44569475296899</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>21.41959544401553</v>
+        <v>29.74600907324755</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>21.30173215879008</v>
+        <v>2.211144333655735</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>21.35544952040529</v>
+        <v>13.16048603440035</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>21.39346746366949</v>
+        <v>22.81145457677444</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>21.30605567965153</v>
+        <v>3.169165951669459</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>21.42001046174524</v>
+        <v>22.27956609250105</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>21.46286463036996</v>
+        <v>38.49146709232086</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>21.41895127929367</v>
+        <v>27.22503228582645</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>21.48537667100816</v>
+        <v>38.84247878148202</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>21.50998792339508</v>
+        <v>45.94035142763022</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>21.29429410378321</v>
+        <v>6.307873566188164</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.41873930167959</v>
+        <v>28.42028782763072</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>21.46379274632591</v>
+        <v>37.08478139028387</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>21.34196683438435</v>
+        <v>8.64037654610943</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>21.39668003351135</v>
+        <v>25.01455607942206</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>21.4391217866201</v>
+        <v>33.27041749007634</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>21.28027730397163</v>
+        <v>0.3522480174265432</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>21.36485898421087</v>
+        <v>19.81076975479263</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>21.40356204788736</v>
+        <v>27.2767290203725</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>21.30258149609025</v>
+        <v>3.812804841213772</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>21.45487201815775</v>
+        <v>34.31691855725904</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>21.51280987477749</v>
+        <v>46.68050633225452</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>21.50578799781927</v>
+        <v>43.56737884767081</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>21.58344762656375</v>
+        <v>55.56320274357346</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>21.6098664943354</v>
+        <v>60.50603873731082</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>21.33171305398536</v>
+        <v>7.205255141961608</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>21.49122866535198</v>
+        <v>39.75923944812439</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>21.54746633288287</v>
+        <v>51.1920716459952</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>21.33863074539333</v>
+        <v>0.8778267811483218</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>21.33783927601936</v>
+        <v>5.051891260658373</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>21.36101397422591</v>
+        <v>10.51859159281407</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>21.3256841343639</v>
+        <v>-0.3141786158927289</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>21.34591420991644</v>
+        <v>9.53305834755364</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>21.36116263593774</v>
+        <v>11.20384979335929</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>21.33315787558693</v>
+        <v>1.729157783728624</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>21.37292390411058</v>
+        <v>16.73964412569869</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.39003921766238</v>
+        <v>15.83273622311333</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>21.33905959845181</v>
+        <v>12.03663867473928</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>21.35860350668564</v>
+        <v>13.69114946220363</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>21.38565091224186</v>
+        <v>14.69620876467438</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>21.32026126247409</v>
+        <v>3.434394434431081</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>21.32324838959171</v>
+        <v>9.258638040640761</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>21.3431314620703</v>
+        <v>13.019818477508</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>21.31667107949517</v>
+        <v>4.748276319852785</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>21.32751968614588</v>
+        <v>10.32922400632084</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>21.3634866332905</v>
+        <v>18.54901901279671</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>21.29704648003355</v>
+        <v>1.146145814233172</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>21.30795442628901</v>
+        <v>2.439288303568475</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>21.34546175219758</v>
+        <v>11.99333741623211</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>21.2934943616534</v>
+        <v>2.049982943257202</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>21.34254261621544</v>
+        <v>3.445327376710395</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>21.3951080868667</v>
+        <v>22.49751201919045</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>21.32650015114752</v>
+        <v>3.847672241637692</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>21.38607263001448</v>
+        <v>22.05865818664087</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>21.44187570341963</v>
+        <v>39.25522135608525</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>21.27203731809485</v>
+        <v>-0.8707661209041007</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>21.32455780335127</v>
+        <v>5.774626145402543</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>21.34931213978288</v>
+        <v>10.58137294672913</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>21.31969986022687</v>
+        <v>-0.2338108906737304</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.33293009868925</v>
+        <v>7.549569194370893</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>21.38288696794081</v>
+        <v>20.06837419374299</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>21.28332013644885</v>
+        <v>-1.508799009344727</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>21.310586127978</v>
+        <v>4.589304644684052</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>21.35793162338642</v>
+        <v>15.23720694622118</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>21.28618974139934</v>
+        <v>-0.8529471994159401</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>21.36208739075733</v>
+        <v>5.958692213022115</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>21.43618820113109</v>
+        <v>32.91891451943979</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>21.37664929092249</v>
+        <v>8.986747840903748</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>21.44111550744439</v>
+        <v>40.19873207535667</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>21.51517086010396</v>
+        <v>53.67198223579334</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>21.26755800083112</v>
+        <v>-4.473533479820411</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>21.35370717857689</v>
+        <v>4.589709608468535</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>21.39560364489798</v>
+        <v>15.11734030853248</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>21.354208026644</v>
+        <v>4.990714623241402</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.39217297817051</v>
+        <v>11.53369702594415</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>21.42470201005372</v>
+        <v>31.51771655268099</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.33735392773679</v>
+        <v>3.547701140926975</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>21.43375487126366</v>
+        <v>34.89848757299049</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.44675248153595</v>
+        <v>39.92324760441161</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>21.36219305923308</v>
+        <v>8.0321476082682</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>21.49370646908079</v>
+        <v>55.78631516725439</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>21.50679986318723</v>
+        <v>61.89373923111292</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>21.47298274187413</v>
+        <v>43.28696976934769</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>21.49500414033212</v>
+        <v>48.55213108673713</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.4983192552775</v>
+        <v>47.42600874943197</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>21.38949353542238</v>
+        <v>18.28659086518812</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>21.44055192611253</v>
+        <v>28.64556160210627</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>21.49898963074406</v>
+        <v>58.24520096673474</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>21.34260477932489</v>
+        <v>9.231610751268752</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>21.40249826884772</v>
+        <v>28.78453544608084</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>21.43023693757798</v>
+        <v>32.53387640065665</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>21.28569609658498</v>
+        <v>3.20987390617546</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>21.3861199173298</v>
+        <v>23.1784858131446</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.40732265155906</v>
+        <v>27.44367454155608</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>21.30238974728744</v>
+        <v>4.436293603220694</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.46671562890738</v>
+        <v>38.56413776521124</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>21.49560790548698</v>
+        <v>45.40987885376869</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>21.46532962239075</v>
+        <v>37.84818643373327</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>21.51556180534907</v>
+        <v>47.04326662733293</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>21.52849053372718</v>
+        <v>50.86822909329216</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>21.33507293050017</v>
+        <v>16.44740455663004</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>21.46646539722873</v>
+        <v>39.08612346285492</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>21.50823516329311</v>
+        <v>45.34523751738512</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>21.34846911564211</v>
+        <v>12.53457898670786</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>21.4161631499135</v>
+        <v>28.33080781680577</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>21.46088501214367</v>
+        <v>37.86357697576785</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>21.28005781464264</v>
+        <v>4.644479374548883</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>21.41078573167474</v>
+        <v>29.35704420715046</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>21.43792819305915</v>
+        <v>34.79077213395621</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>21.30722662878232</v>
+        <v>9.301568612819391</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>21.51185333893342</v>
+        <v>47.11505124423459</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>21.56753238326895</v>
+        <v>63.88941041624297</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>21.5458788709945</v>
+        <v>51.36696448663176</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>21.60423667971816</v>
+        <v>59.91937979405303</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>21.62628537646024</v>
+        <v>67.35168375534626</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.3509243960418</v>
+        <v>17.25321772590278</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>21.53002549374603</v>
+        <v>47.96175612968924</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>21.59314014698057</v>
+        <v>61.71000490403306</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>21.33726797570232</v>
+        <v>6.032542906380019</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>21.3362748195733</v>
+        <v>7.33997180409585</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.35713578683358</v>
+        <v>13.54392209724052</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>21.31425527272601</v>
+        <v>0.01957504756779826</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>21.32403341513131</v>
+        <v>4.941330122746102</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.33906486170252</v>
+        <v>7.470120319937219</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.32778509331861</v>
+        <v>4.270046457286771</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>21.36225593447076</v>
+        <v>13.32240926372183</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>21.37374302652146</v>
+        <v>18.18161204494883</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>21.3440315521482</v>
+        <v>14.07571121921413</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.35461439958519</v>
+        <v>16.07045885140865</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>21.37444487339565</v>
+        <v>20.23045852786669</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>21.29796492007026</v>
+        <v>3.752813659208201</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>21.31876296150908</v>
+        <v>2.14481975044972</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>21.33522338735425</v>
+        <v>8.085308363471835</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>21.32160130411717</v>
+        <v>2.956750155133093</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>21.34797329759595</v>
+        <v>12.3659927054012</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>21.3867803585242</v>
+        <v>22.94798381059544</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>21.29665337238681</v>
+        <v>-2.201424417082741</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>21.31179972360398</v>
+        <v>2.241221313868575</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.35971714020445</v>
+        <v>15.00543032466514</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>21.29941889169457</v>
+        <v>-1.940912809731977</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>21.36329135452273</v>
+        <v>5.258630743693853</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>21.4111461607091</v>
+        <v>26.52709966743432</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>21.34565069438267</v>
+        <v>9.299670975657191</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.39160531069751</v>
+        <v>18.97173136744301</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>21.44046140899329</v>
+        <v>31.24598310400739</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.26100228715142</v>
+        <v>-1.433316664727158</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>21.34638086347389</v>
+        <v>13.22054994555831</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>21.38451285381143</v>
+        <v>22.94840885342973</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>21.33609723126994</v>
+        <v>6.469962153720154</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>21.36528818297101</v>
+        <v>16.19202773691029</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>21.41248697154608</v>
+        <v>29.34064741880841</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>21.28989645859785</v>
+        <v>-1.258459689007015</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>21.32367663469872</v>
+        <v>6.859318032400775</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>21.37401967099577</v>
+        <v>18.19353866165965</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>21.3077812308733</v>
+        <v>3.063159479366991</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>21.39892979705756</v>
+        <v>14.84572461593441</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.4618995086105</v>
+        <v>36.30113609141891</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>21.421161926788</v>
+        <v>16.99784514110608</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>21.4711162582155</v>
+        <v>26.26850763523468</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>21.53800233011095</v>
+        <v>46.20302214168669</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.29546190751262</v>
+        <v>8.680398128387555</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.40904476682535</v>
+        <v>21.60508895753741</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>21.45720409865431</v>
+        <v>33.70111008384629</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>21.31472822260537</v>
+        <v>-1.397749983842132</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.32962358503756</v>
+        <v>-1.620036349495724</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>21.34411545792326</v>
+        <v>6.588031291319528</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>21.29027921299032</v>
+        <v>-0.5195572489450484</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>21.32431846146899</v>
+        <v>2.168652032228191</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>21.33349181323721</v>
+        <v>3.984521562290286</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>21.29897185492146</v>
+        <v>4.684752617280957</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.37139675220702</v>
+        <v>9.914544018813867</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.37625608240219</v>
+        <v>13.32013497652437</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>21.33463064623304</v>
+        <v>4.26067163449585</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>21.34897440529792</v>
+        <v>4.054159231449173</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>21.36067979159255</v>
+        <v>12.4185265463258</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>21.28078191489437</v>
+        <v>0.05784018822403425</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>21.30117032948199</v>
+        <v>-3.43702131752466</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>21.31489347983503</v>
+        <v>-1.66325177226868</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>21.36592669614221</v>
+        <v>14.21013296305908</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.41071214772035</v>
+        <v>30.06740274339171</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>21.42837860255219</v>
+        <v>33.94954542492192</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>21.32616880063025</v>
+        <v>6.179357687449187</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>21.37919585379763</v>
+        <v>20.55237572392089</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>21.40560349375684</v>
+        <v>27.71665515610439</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>21.33235565574783</v>
+        <v>8.550255850927805</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>21.44551336425473</v>
+        <v>39.29435619827392</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>21.47147747870471</v>
+        <v>46.66564566810308</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>21.45012986492004</v>
+        <v>37.25873996093974</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>21.49350440386191</v>
+        <v>45.31292819293704</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>21.51951131187457</v>
+        <v>50.43642029309745</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>21.3471517318893</v>
+        <v>13.35372368035322</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>21.44400229533972</v>
+        <v>37.46215588408378</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>21.47094675702041</v>
+        <v>42.27216160291054</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>21.37652374670042</v>
+        <v>17.40366244225662</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>21.43187475758312</v>
+        <v>32.06454664245793</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>21.45992484720186</v>
+        <v>42.25629952616698</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>21.3123387045634</v>
+        <v>2.392577655414872</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>21.39381339902245</v>
+        <v>24.91372026599313</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>21.42195719173466</v>
+        <v>32.42559461453311</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>21.32914801824369</v>
+        <v>6.300994168273665</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>21.48031530843781</v>
+        <v>44.78731274123528</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>21.52494718606086</v>
+        <v>58.52002588337017</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>21.51383570994648</v>
+        <v>48.80862709080208</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>21.56956319783413</v>
+        <v>57.27314940626299</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>21.60420857624517</v>
+        <v>66.06319403565391</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>21.3531029760384</v>
+        <v>9.606058283068998</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>21.49945311896631</v>
+        <v>45.47120506320708</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>21.53207093565499</v>
+        <v>52.77343915573098</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>21.3583926518046</v>
+        <v>10.22946058951403</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>21.35737893029794</v>
+        <v>12.53480559934546</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>21.37365998512455</v>
+        <v>16.9772312827187</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>21.3385945471423</v>
+        <v>3.501936104885129</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.3538138748694</v>
+        <v>11.46612113349006</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.36731250846363</v>
+        <v>12.70563686312952</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>21.35258419729262</v>
+        <v>12.27061311611527</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>21.38729709040263</v>
+        <v>24.38125690077138</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>21.39793138079348</v>
+        <v>23.07381343075385</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.36719890154297</v>
+        <v>20.59819841356718</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>21.38167379972752</v>
+        <v>22.99257462843592</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>21.39830145062114</v>
+        <v>26.9450798238039</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>21.34597420181129</v>
+        <v>10.34273939343119</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>21.34698959611489</v>
+        <v>8.771924236387413</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>21.3705977671281</v>
+        <v>16.68136162743709</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>21.32962159142962</v>
+        <v>3.471544028118394</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>21.34055435354654</v>
+        <v>10.53106460202413</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>21.36884584759736</v>
+        <v>17.68258221753975</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>21.30414239123181</v>
+        <v>-1.736625781310433</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>21.31081735520614</v>
+        <v>0.02655474061618435</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>21.35018940683614</v>
+        <v>10.30382796738022</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>21.30207250741762</v>
+        <v>-1.648475302403249</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>21.34816386044386</v>
+        <v>4.072691058341736</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>21.39150432600512</v>
+        <v>20.5910036271545</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>21.33022251120226</v>
+        <v>7.928938558283473</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>21.36415812759544</v>
+        <v>15.52337509649273</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>21.40741477638649</v>
+        <v>27.83742439723374</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>21.27991816081178</v>
+        <v>-0.5495254129201754</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>21.32268442296049</v>
+        <v>9.060013338632615</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>21.36332725448704</v>
+        <v>17.70905548123222</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.36298420272844</v>
+        <v>13.74288388789791</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>21.38280690300169</v>
+        <v>22.59297266735035</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>21.41606346379559</v>
+        <v>29.49554758047263</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>21.30616045297628</v>
+        <v>-1.00997015776975</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>21.3391690944702</v>
+        <v>10.79908349549294</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>21.37779679443794</v>
+        <v>17.99294931819214</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>21.3241109492584</v>
+        <v>4.974769288306355</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>21.40507049446625</v>
+        <v>26.16832222878815</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>21.46051532281621</v>
+        <v>40.19056026309512</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>21.41588430479009</v>
+        <v>25.12064937359633</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>21.4556595148575</v>
+        <v>34.91860656587076</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>21.50775652506844</v>
+        <v>46.74113658829606</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>21.32326744466803</v>
+        <v>10.61012589473407</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>21.4000620542864</v>
+        <v>25.84358154677122</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>21.4414104425124</v>
+        <v>31.74780185504954</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>21.34247346596079</v>
+        <v>2.310997593831534</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>21.33398161714922</v>
+        <v>3.081007598377468</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>21.33997319945207</v>
+        <v>6.233673014134542</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>21.32964742166016</v>
+        <v>1.172855100989842</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>21.32819075454899</v>
+        <v>3.100825615575804</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.33270173139913</v>
+        <v>3.944352923483756</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>21.33503906865463</v>
+        <v>7.40118088263349</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.35217080263406</v>
+        <v>9.37268433314093</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.35281088960394</v>
+        <v>10.55609857090309</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.32295666029254</v>
+        <v>7.068491059962419</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>21.31935757609476</v>
+        <v>5.117025944665642</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>21.33654780534454</v>
+        <v>10.33736630684552</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>21.31501091641258</v>
+        <v>6.767880233121844</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.3043323121382</v>
+        <v>1.402679995139749</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.31277283254777</v>
+        <v>5.007235894708732</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>21.31859435859001</v>
+        <v>1.233268688914979</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.31860443987243</v>
+        <v>4.903565237060082</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>21.33048617313197</v>
+        <v>6.786588315678607</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>21.30283547908461</v>
+        <v>-0.5161891527871241</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.29066433705438</v>
+        <v>-3.441750904212949</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>21.31279467584443</v>
+        <v>2.461401068568865</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>21.28948883298507</v>
+        <v>-0.2408435444379293</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.31266902296979</v>
+        <v>-2.688909954900488</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.33676429597708</v>
+        <v>4.379351211810821</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.28633623439152</v>
+        <v>1.073940359241352</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>21.30202431605482</v>
+        <v>4.549610932070983</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>21.33791488090828</v>
+        <v>6.319948818413675</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>21.25500167189694</v>
+        <v>-1.700014783478586</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>21.27823965814191</v>
+        <v>0.05194534375162974</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.29582379703529</v>
+        <v>2.600682687240639</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>21.36319745392993</v>
+        <v>14.60645615128472</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>21.36909735856812</v>
+        <v>18.90841433234689</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>21.38600469215252</v>
+        <v>23.70898571888937</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>21.30991840421294</v>
+        <v>1.206027354992489</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>21.32108072119309</v>
+        <v>7.447682053901083</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>21.34385095713634</v>
+        <v>12.22357339289053</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>21.31863051502151</v>
+        <v>8.651874501076172</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>21.37298100797275</v>
+        <v>19.27982543385062</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>21.40924855319169</v>
+        <v>27.59635320658874</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.3774200545029</v>
+        <v>20.21622669388121</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>21.39729025930486</v>
+        <v>23.8930677844071</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.44579656009596</v>
+        <v>31.21515693892049</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.30609786247704</v>
+        <v>14.62906600234295</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>21.35917906704559</v>
+        <v>16.41977387693725</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.37882195161365</v>
+        <v>22.92744303347756</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.38108172774909</v>
+        <v>13.8238538416832</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>21.39372596851958</v>
+        <v>25.93083337068644</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.41376599694122</v>
+        <v>32.69203115564743</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>21.34332444892615</v>
+        <v>4.158297799205258</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>21.3824775067687</v>
+        <v>17.43268895607557</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.38901117769378</v>
+        <v>23.44452828092923</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>21.36943764945866</v>
+        <v>11.44148346642073</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>21.4286125087103</v>
+        <v>41.11145117834909</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>21.43976691126692</v>
+        <v>43.2204917631549</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>21.42261885601705</v>
+        <v>34.88897788292687</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>21.43834522170271</v>
+        <v>39.83856149871895</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>21.44785837872806</v>
+        <v>42.60769126345099</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>21.39710817486171</v>
+        <v>20.63413188020854</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>21.42051694512739</v>
+        <v>38.42908944537308</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>21.44573981897348</v>
+        <v>45.92325626615387</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>21.35103512382831</v>
+        <v>12.29134343070167</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>21.37802379736404</v>
+        <v>22.30906269226655</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>21.40097826144088</v>
+        <v>28.2835734790003</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>21.2921636672801</v>
+        <v>-0.1980799991227471</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>21.32261137126857</v>
+        <v>4.29780493158103</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.34068777284306</v>
+        <v>10.24432295433353</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>21.30724279620514</v>
+        <v>4.210904068277163</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>21.3789058801983</v>
+        <v>16.53877761800489</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>21.41369258661696</v>
+        <v>25.37011954755733</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>21.37890762725372</v>
+        <v>17.30413875830946</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.41852717422536</v>
+        <v>25.36092579394909</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.43407421240515</v>
+        <v>31.91938528375156</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.32173437040352</v>
+        <v>10.65589932463629</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>21.3889742260588</v>
+        <v>20.11942186648811</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>21.41196864499885</v>
+        <v>27.95951222748925</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>21.3811479172738</v>
+        <v>16.29243029541612</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>21.41168616147323</v>
+        <v>27.79834005934704</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>21.44269465627312</v>
+        <v>38.3623194258911</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>21.30243009709991</v>
+        <v>2.466306565920519</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>21.35473532335412</v>
+        <v>15.54524895694555</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>21.37597937745731</v>
+        <v>20.78260742529882</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>21.3280806762288</v>
+        <v>7.066781448101825</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>21.42955039929641</v>
+        <v>31.31494843346732</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>21.4779602541844</v>
+        <v>43.36793480112789</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>21.47436567023757</v>
+        <v>39.02779559336037</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>21.51432299780873</v>
+        <v>46.9259029474951</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>21.5416879834004</v>
+        <v>52.05671503771957</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>21.36566677225018</v>
+        <v>18.12909716797344</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>21.46064767784021</v>
+        <v>35.20987975664582</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>21.49794942486689</v>
+        <v>41.34346589826514</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.3693207466743</v>
+        <v>11.41824660199542</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.40633165094393</v>
+        <v>26.58517430216122</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>21.42497142585642</v>
+        <v>33.8606575244386</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>21.3480968792716</v>
+        <v>7.579883258577421</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>21.40695783266803</v>
+        <v>29.54397803620265</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>21.41933579919733</v>
+        <v>32.47302418851938</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>21.3681392609498</v>
+        <v>13.98391556602845</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>21.45511361158116</v>
+        <v>52.09809132024414</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>21.4688189565078</v>
+        <v>56.76009412869394</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>21.46047589531641</v>
+        <v>49.17500953647902</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>21.47274252258516</v>
+        <v>50.10328740971458</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>21.48473300669751</v>
+        <v>56.18875102666905</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>21.36143021357502</v>
+        <v>12.62450499339696</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>21.4275990685922</v>
+        <v>34.16032363358617</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>21.45800052622246</v>
+        <v>44.29594809589852</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>21.34657191667072</v>
+        <v>9.949268041387816</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>21.39820024994323</v>
+        <v>26.27965077457212</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>21.42104738037372</v>
+        <v>31.93105554760579</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>21.31237092233251</v>
+        <v>3.645442951796149</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>21.36832534938648</v>
+        <v>16.36686763120994</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>21.39668578982174</v>
+        <v>24.43344241645585</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>21.31884800130506</v>
+        <v>3.973631897720054</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>21.42378121168916</v>
+        <v>30.2080700951905</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>21.45822231210477</v>
+        <v>41.65604826254373</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>21.4370265554928</v>
+        <v>34.17161847418435</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>21.475296772529</v>
+        <v>41.63679748028679</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>21.50113933483294</v>
+        <v>48.00209556450422</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>21.30786203808501</v>
+        <v>6.672603041606987</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>21.42145388268124</v>
+        <v>31.35386208726955</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>21.46014520858618</v>
+        <v>39.98277971424946</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>21.34113664643877</v>
+        <v>9.267383825015466</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>21.40575972362132</v>
+        <v>26.93266921473115</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>21.4399533027884</v>
+        <v>36.61581413580545</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>21.29268341715648</v>
+        <v>1.029718016107765</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>21.37744005266344</v>
+        <v>21.16990879427569</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>21.41102846027933</v>
+        <v>29.44108028591688</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>21.30659948826055</v>
+        <v>2.8297548445167</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>21.4485637971247</v>
+        <v>35.25611680187096</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>21.50410057029977</v>
+        <v>54.33162118043532</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>21.49127844937475</v>
+        <v>40.85159714119024</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>21.5382701775599</v>
+        <v>51.29010726054759</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>21.57830381139042</v>
+        <v>65.21076367533988</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>21.30115996436549</v>
+        <v>3.814980941215342</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>21.4628932229645</v>
+        <v>37.94138322480782</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>21.5120415080162</v>
+        <v>50.29169439432231</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>21.36707483562855</v>
+        <v>7.293799505069071</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>21.39186982833498</v>
+        <v>20.97444616268575</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>21.41088479289582</v>
+        <v>33.38042207266497</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>21.35017153456104</v>
+        <v>5.129213539365534</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>21.40860727910141</v>
+        <v>35.90356772189179</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>21.41563834278155</v>
+        <v>42.36391276156515</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>21.36676624177909</v>
+        <v>9.417809443511006</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>21.44474370366109</v>
+        <v>62.06436419637988</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>21.45513469710678</v>
+        <v>63.11963950859953</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>21.42637760728617</v>
+        <v>46.86794286118903</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>21.43750479901027</v>
+        <v>45.30138198487495</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>21.44764087234389</v>
+        <v>48.78660958472648</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>21.36905229891407</v>
+        <v>4.267302012137538</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>21.40858995162873</v>
+        <v>24.39944040751265</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>21.4448692243827</v>
+        <v>60.62087356371195</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>21.35533930151876</v>
+        <v>15.78274733558035</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>21.40066091031206</v>
+        <v>31.05663292935933</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>21.42014754887708</v>
+        <v>36.30360215443897</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>21.31547920443734</v>
+        <v>1.963354334671298</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>21.37640969724006</v>
+        <v>18.57492168563648</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>21.3927028593052</v>
+        <v>23.37193094384622</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>21.3257715128827</v>
+        <v>2.186636383731972</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>21.42761413750047</v>
+        <v>33.26181076936007</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>21.45664131268675</v>
+        <v>41.68253681914025</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>21.43072927305786</v>
+        <v>31.33856625921293</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>21.47044233146704</v>
+        <v>43.64218271820867</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>21.49030566434796</v>
+        <v>49.86815022585256</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>21.32905602947311</v>
+        <v>7.734799361413891</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>21.42963666908146</v>
+        <v>29.52528437093343</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>21.46237792986286</v>
+        <v>42.11865695650543</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>21.35742331420013</v>
+        <v>12.49327311862078</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>21.40797103643651</v>
+        <v>29.01355244521581</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>21.43414876143923</v>
+        <v>37.86642218920378</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>21.30573602338328</v>
+        <v>2.835384308339208</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>21.3872184338361</v>
+        <v>25.08655303787004</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>21.40596154582199</v>
+        <v>32.00447273793124</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>21.3203467683119</v>
+        <v>4.590919972134468</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>21.45016772852278</v>
+        <v>41.53954751186828</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>21.49201450866939</v>
+        <v>56.74989461783579</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>21.48211175165817</v>
+        <v>46.29216002222557</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>21.52426503225389</v>
+        <v>55.77828824341745</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>21.55405269436046</v>
+        <v>66.7115004582393</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>21.33001175385534</v>
+        <v>3.556945386257087</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>21.46463349505134</v>
+        <v>35.65348600301007</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>21.51104381087628</v>
+        <v>49.57155451004974</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.38564527789594</v>
+        <v>15.26679999588404</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.39487975236086</v>
+        <v>24.48067262211554</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>21.40819306959076</v>
+        <v>35.94849855200601</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>21.38593036745887</v>
+        <v>12.24646586348688</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.42069466010858</v>
+        <v>47.67814879506632</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>21.42549396956305</v>
+        <v>49.11194210174644</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>21.38501236036739</v>
+        <v>17.62193900400939</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.43009164886185</v>
+        <v>63.26434133336581</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>21.4387642194327</v>
+        <v>67.67579877693333</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>21.41904459999822</v>
+        <v>42.09770173368903</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>21.42825220271319</v>
+        <v>42.50403399869347</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>21.4375107475848</v>
+        <v>43.62727621233805</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.39351368748992</v>
+        <v>13.057072175448</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>21.40426221977988</v>
+        <v>19.54644577853479</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>21.43035957396458</v>
+        <v>44.43912376893798</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.38500132204973</v>
+        <v>24.28127564114833</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>21.40626857723738</v>
+        <v>34.1504877297022</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>21.42152392873247</v>
+        <v>40.72919143088117</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>21.38664859046094</v>
+        <v>34.25523347621086</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>21.41905008626584</v>
+        <v>43.35175670582205</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>21.43133086398826</v>
+        <v>47.30558417953063</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>21.36487433013756</v>
+        <v>14.21996799168984</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>21.42347134827425</v>
+        <v>37.48385431039787</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>21.44832544057946</v>
+        <v>48.2110039188526</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>21.4275874226807</v>
+        <v>35.68026028430874</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>21.45531275276794</v>
+        <v>44.54721057653685</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>21.47233810000652</v>
+        <v>51.25878884200417</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>21.37322050271143</v>
+        <v>19.18985869981202</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>21.42141405799864</v>
+        <v>31.83385225545394</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>21.447724038673</v>
+        <v>43.59789340166205</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>21.38645475257112</v>
+        <v>19.56391013363985</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>21.40944672175827</v>
+        <v>32.49749651958907</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>21.42756995070658</v>
+        <v>39.94660532515813</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>21.3822778266724</v>
+        <v>33.94732111867499</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>21.42820085974369</v>
+        <v>52.28674502094967</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>21.43957519064907</v>
+        <v>51.17777387778388</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>21.3628319364888</v>
+        <v>13.61012238671319</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>21.44085393199085</v>
+        <v>47.4095381758336</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>21.47259252878422</v>
+        <v>60.24372369315383</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>21.46971516653253</v>
+        <v>49.0090485233398</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>21.49622283166072</v>
+        <v>58.74431984456757</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>21.51994935015911</v>
+        <v>68.41621285514927</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>21.37703214830822</v>
+        <v>16.93924227342013</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>21.44572622736179</v>
+        <v>38.17927934504443</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>21.48379305190127</v>
+        <v>51.50010334104655</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>21.35614982397665</v>
+        <v>6.234911299127209</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>21.39067124855156</v>
+        <v>20.05540914409261</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>21.40764097327928</v>
+        <v>31.42453349830103</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>21.33937742388782</v>
+        <v>0.5790770372218503</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>21.39411022025763</v>
+        <v>21.59929947630621</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>21.3997180837376</v>
+        <v>23.22900921483852</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>21.35613194435482</v>
+        <v>3.618951219334459</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>21.43990799736711</v>
+        <v>41.817186120975</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>21.44939115881811</v>
+        <v>48.03308818075543</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>21.44166268841226</v>
+        <v>44.01719008395172</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>21.45450214382356</v>
+        <v>42.67325991915827</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>21.45987624157092</v>
+        <v>46.3042533947423</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>21.34050938314261</v>
+        <v>-3.173895513292123</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>21.40998158230583</v>
+        <v>27.2210301893654</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>21.43103216596375</v>
+        <v>35.18684617366436</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>21.34128683243165</v>
+        <v>9.149925265538281</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>21.39126166861804</v>
+        <v>25.74590873014841</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>21.40851229613884</v>
+        <v>30.42026227643202</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>21.31359330711871</v>
+        <v>2.002809444670895</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>21.36899400618389</v>
+        <v>17.43523601585351</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>21.38462696695993</v>
+        <v>21.66614761695141</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>21.31770406069964</v>
+        <v>2.062099792226636</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>21.41920387855607</v>
+        <v>29.22604086524069</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>21.44479487918725</v>
+        <v>39.72262618126667</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>21.43229769268991</v>
+        <v>32.45997545997211</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>21.4639425307887</v>
+        <v>39.59901008315809</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>21.47926600609209</v>
+        <v>45.57163925319392</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>21.29786206046967</v>
+        <v>2.752593063831085</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>21.41536201323936</v>
+        <v>30.1441472894901</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>21.44167544155589</v>
+        <v>36.82272363203251</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>21.34165654932731</v>
+        <v>8.574690633175312</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>21.3984832384016</v>
+        <v>26.08517182287314</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>21.42528041881481</v>
+        <v>35.29683282960588</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>21.30307820808726</v>
+        <v>0.01034603653785382</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>21.37839052955916</v>
+        <v>21.74548524196323</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>21.39672309624948</v>
+        <v>25.96808333222742</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>21.31029190534968</v>
+        <v>1.487280314555779</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>21.44151199360128</v>
+        <v>35.30291161501747</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>21.4828877983075</v>
+        <v>51.12274649061077</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>21.48817957325845</v>
+        <v>44.55120441524892</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>21.52798267161424</v>
+        <v>54.26654807594092</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>21.55370152940115</v>
+        <v>62.43443348748028</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>21.29553238458774</v>
+        <v>-0.9856455079795623</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>21.45257052654783</v>
+        <v>37.55486118143025</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>21.49089777274936</v>
+        <v>47.68539147781221</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>21.35572977186217</v>
+        <v>7.96386185359356</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.35895782339797</v>
+        <v>11.65648181871032</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>21.37294783637333</v>
+        <v>17.89577910464847</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.3319876535451</v>
+        <v>2.523212331678003</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>21.35797725790518</v>
+        <v>12.30135770503249</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>21.36123448992387</v>
+        <v>14.92193205174808</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.34513987666412</v>
+        <v>8.525509755903258</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>21.38302142629034</v>
+        <v>23.62258086693883</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>21.39211340034019</v>
+        <v>26.23572006485123</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>21.36906072571641</v>
+        <v>18.15525238357652</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>21.3781962996614</v>
+        <v>20.73895619744675</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>21.3874122756096</v>
+        <v>23.53788241090928</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.33526913812298</v>
+        <v>4.565158417876894</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>21.34804476233608</v>
+        <v>8.731353376413299</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>21.36455610949577</v>
+        <v>18.77235130824476</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>21.34336258243938</v>
+        <v>6.634607514007634</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>21.37359354347731</v>
+        <v>18.56733866412237</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>21.39782569628899</v>
+        <v>26.43892199532129</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>21.31445916870909</v>
+        <v>-0.746474552040695</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>21.35045756271923</v>
+        <v>8.57363179363406</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>21.37186355071535</v>
+        <v>17.43752764594228</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>21.31976805227578</v>
+        <v>-1.771580628450334</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>21.38657314128968</v>
+        <v>14.67014873219885</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>21.42475277907457</v>
+        <v>30.65257870999001</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>21.38608793866217</v>
+        <v>21.53333964901901</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>21.42445791466158</v>
+        <v>29.58725013902753</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.44458414807873</v>
+        <v>38.23554198873592</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>21.30018135892925</v>
+        <v>-0.8509249869932241</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>21.38027893835871</v>
+        <v>20.23669634455435</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.41182397065253</v>
+        <v>29.83318331177398</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>21.35519451113272</v>
+        <v>8.424442371665627</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>21.3875434636412</v>
+        <v>22.28139752805277</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>21.41496421437052</v>
+        <v>30.23882910234079</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>21.30877763126162</v>
+        <v>-1.063444138957454</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>21.36367319413898</v>
+        <v>16.48672907893621</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>21.38249976546786</v>
+        <v>21.88072347608498</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>21.32444158783726</v>
+        <v>2.242513585152953</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>21.41350594453213</v>
+        <v>27.12109515299704</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>21.4593858475358</v>
+        <v>38.81091032254919</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>21.44364747217069</v>
+        <v>32.23070387427953</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>21.48138756253389</v>
+        <v>40.07658054555012</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>21.50460971020701</v>
+        <v>45.37995743127705</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>21.31565893099587</v>
+        <v>-1.139353435269438</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>21.42010523720331</v>
+        <v>27.66740517594096</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>21.45706426628284</v>
+        <v>40.07704675914104</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>21.36484121040357</v>
+        <v>12.55777140276812</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>21.36979613105699</v>
+        <v>17.44219991312863</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>21.38443314551805</v>
+        <v>24.41741527611756</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>21.3532307385976</v>
+        <v>5.97733086805334</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.38041937567228</v>
+        <v>21.13620078402635</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>21.38755182804579</v>
+        <v>21.12789287275978</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>21.36205818695781</v>
+        <v>16.17463542331758</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>21.39871144284024</v>
+        <v>42.71311686137943</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>21.4095738604627</v>
+        <v>42.63938831343552</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>21.38720864001759</v>
+        <v>25.27833292516475</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>21.39685016004798</v>
+        <v>29.25128912789228</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>21.40834701313199</v>
+        <v>36.83006718743985</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>21.35983341157884</v>
+        <v>5.609796679458796</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>21.37005566031144</v>
+        <v>22.61983130265491</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>21.39672130303113</v>
+        <v>34.09262001935264</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>21.35775568721203</v>
+        <v>10.1736409744332</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>21.37503126165392</v>
+        <v>19.63381965129712</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>21.39560288292408</v>
+        <v>33.31905548028411</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>21.34318660938461</v>
+        <v>4.370096585127598</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.36755532869006</v>
+        <v>7.82920604420254</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.38712943098948</v>
+        <v>28.30787750715549</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>21.33681200034766</v>
+        <v>4.332619900052574</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>21.38597104385018</v>
+        <v>18.20353569211154</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>21.41751021170164</v>
+        <v>36.49426166594253</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>21.38663856999951</v>
+        <v>16.16443686970495</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>21.41591726901939</v>
+        <v>32.01111861426443</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>21.43769422630605</v>
+        <v>43.34148698046354</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>21.32895055134518</v>
+        <v>2.006686800369284</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>21.37672971870016</v>
+        <v>18.1344400657934</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>21.40792554983418</v>
+        <v>31.89612128676385</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>21.35543683130639</v>
+        <v>10.13349369080248</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>21.37359434903198</v>
+        <v>20.40905120398147</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>21.39673826854585</v>
+        <v>28.96858556873098</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>21.33175172026171</v>
+        <v>4.191393326939497</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>21.36876375487257</v>
+        <v>16.59328350685099</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>21.38717694089197</v>
+        <v>25.00056546887853</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>21.32936485683837</v>
+        <v>4.599715314485653</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>21.39653673465987</v>
+        <v>28.02678816677947</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>21.43453795731103</v>
+        <v>38.06373774991776</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>21.4236782786896</v>
+        <v>33.31514389220884</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>21.44971275054321</v>
+        <v>41.92066524219307</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>21.47845476863402</v>
+        <v>52.30483391870217</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>21.32795736488096</v>
+        <v>-0.2199156358761201</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>21.39373786755552</v>
+        <v>18.53357099408379</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>21.43741059104727</v>
+        <v>33.98677723030971</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>21.37795872637188</v>
+        <v>13.77249574560636</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>21.39544606661791</v>
+        <v>23.34345298775223</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>21.41691858058824</v>
+        <v>34.31516954292049</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>21.35042604613836</v>
+        <v>5.892559607411922</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>21.41606065864949</v>
+        <v>34.68709837437368</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>21.42562093835291</v>
+        <v>40.78197941917345</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>21.37477141063516</v>
+        <v>15.28516700462498</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>21.45972569028057</v>
+        <v>57.12513507990602</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>21.46963520354766</v>
+        <v>60.01756772090333</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>21.44030512107648</v>
+        <v>45.96523534023012</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>21.45840117680613</v>
+        <v>43.25033477394956</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.46674144910941</v>
+        <v>46.89661026311935</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>21.40341132251629</v>
+        <v>12.20706038117878</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>21.42301870054521</v>
+        <v>14.4862732003215</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>21.47063549312968</v>
+        <v>57.22556262513515</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.38386885803401</v>
+        <v>21.20973922524436</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>21.41301948454863</v>
+        <v>33.03821051091033</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>21.43291588938942</v>
+        <v>36.59675711674019</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>21.33043022754133</v>
+        <v>6.751394367213397</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>21.39099918233303</v>
+        <v>23.33171672485463</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>21.40799025504396</v>
+        <v>28.63397151919408</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>21.34005454208774</v>
+        <v>8.607633491967061</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>21.44488131663512</v>
+        <v>37.65168900003356</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>21.47254701563813</v>
+        <v>45.08282886287654</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>21.44904426000187</v>
+        <v>38.98478251841069</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>21.47910047948276</v>
+        <v>44.35442154817859</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>21.49798943570929</v>
+        <v>50.71781752273384</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>21.36678109349799</v>
+        <v>16.50872165916621</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>21.44277782570499</v>
+        <v>33.82274589257016</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>21.47669982790075</v>
+        <v>44.75014155910124</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>21.38277114071369</v>
+        <v>18.85098886455762</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>21.41554159101939</v>
+        <v>31.65487618995312</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>21.44553738700668</v>
+        <v>38.81249303834162</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>21.31460614038861</v>
+        <v>4.722352897139828</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>21.39708858973064</v>
+        <v>26.81141919346097</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>21.41843956102246</v>
+        <v>32.41325948124177</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>21.336579678795</v>
+        <v>7.825165378576816</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>21.47247073226601</v>
+        <v>45.15139262976091</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>21.51584168091495</v>
+        <v>57.97419928185454</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>21.50267139939789</v>
+        <v>48.40672659779672</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>21.54470199196007</v>
+        <v>56.46059898660032</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>21.5682369823305</v>
+        <v>66.09648366781443</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>21.36810491407173</v>
+        <v>14.32807218528981</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>21.47915648522651</v>
+        <v>40.84674101623181</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>21.53262799487093</v>
+        <v>54.18468235125306</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>21.35236853265265</v>
+        <v>4.774292732798497</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>21.38701607907606</v>
+        <v>16.70823716732679</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>21.40394362387189</v>
+        <v>27.53253248374673</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>21.33533494640839</v>
+        <v>0.9088889540271303</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>21.39258998510302</v>
+        <v>20.73650797092072</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>21.3936509809139</v>
+        <v>22.19673805054662</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>21.3501099757661</v>
+        <v>2.897358202582669</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>21.43518681446713</v>
+        <v>37.6345431991844</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>21.44531684884336</v>
+        <v>44.73552547557433</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>21.43436743135537</v>
+        <v>39.88720287936247</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>21.44971954678316</v>
+        <v>43.39863538538236</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>21.45103577004254</v>
+        <v>43.7147463110798</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>21.33085132719246</v>
+        <v>-4.892764830391279</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>21.40097875297387</v>
+        <v>24.11117540273585</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>21.4256307789748</v>
+        <v>31.65755179249414</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>21.34620339859127</v>
+        <v>9.727453527321265</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>21.39788385080272</v>
+        <v>26.14529602431595</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>21.41577657785108</v>
+        <v>30.21745522049337</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>21.31780338749314</v>
+        <v>3.598487860051875</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>21.37637909504991</v>
+        <v>18.02644488834823</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>21.38782006247635</v>
+        <v>23.19513150694833</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>21.32151220189476</v>
+        <v>5.425788303202662</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>21.42678661832998</v>
+        <v>32.68608289146312</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>21.45551789586753</v>
+        <v>43.72700034420313</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>21.44098973399726</v>
+        <v>34.40350498858768</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>21.47522276854635</v>
+        <v>42.10990295134259</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>21.4860278159464</v>
+        <v>47.29864821073667</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>21.30024672547674</v>
+        <v>3.92897492818787</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>21.42169097392907</v>
+        <v>31.16266848250945</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>21.45391734275866</v>
+        <v>39.13145061048677</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>21.34467730388935</v>
+        <v>7.697064504867431</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>21.40238794164173</v>
+        <v>24.96100335288268</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>21.42966326057178</v>
+        <v>33.82744499280098</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>21.30286723157829</v>
+        <v>0.3276243196857145</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>21.38165064551838</v>
+        <v>21.92565923054722</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>21.3941193413902</v>
+        <v>24.55126486442909</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>21.30865133020341</v>
+        <v>1.528321645508147</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>21.44311207758849</v>
+        <v>34.2551391245115</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>21.48636189676411</v>
+        <v>49.59438012141885</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>21.4856387676517</v>
+        <v>41.95567846728338</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>21.52621156880194</v>
+        <v>51.82392088714118</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>21.54978137082133</v>
+        <v>60.49120850672105</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>21.28763486795537</v>
+        <v>0.123607854059447</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>21.44819715787717</v>
+        <v>35.40991107870819</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>21.49344131321205</v>
+        <v>46.92393076866966</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.336024520148911</v>
+        <v>6.336024520148783</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.994230004922469</v>
+        <v>9.994230004922452</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.08344642507902</v>
+        <v>17.08344642507927</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2668058037693228</v>
+        <v>0.2668058037692518</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.32475371843864</v>
+        <v>11.32475371843865</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.46206830731947</v>
+        <v>15.46206830731931</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.17600647098768</v>
+        <v>4.176006470987751</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.0104962899686</v>
+        <v>22.01049628996842</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.71534094569794</v>
+        <v>25.71534094569802</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.28732396930524</v>
+        <v>17.28732396930523</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.77541973675991</v>
+        <v>20.77541973675993</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.1122453484412</v>
+        <v>26.11224534844107</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8834328905737685</v>
+        <v>0.8834328905741238</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.961433076876069</v>
+        <v>6.961433076876268</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>18.61605513110788</v>
+        <v>18.616055131108</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.911162233520947</v>
+        <v>9.911162233520995</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.67572822206515</v>
+        <v>23.67572822206527</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.08528894316048</v>
+        <v>35.08528894316046</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.060512343070751</v>
+        <v>-2.060512343070787</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8.460439433656454</v>
+        <v>8.460439433656347</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.44567135939128</v>
+        <v>20.44567135939145</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2.779320407300922</v>
+        <v>-2.779320407300858</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.08545363726384</v>
+        <v>17.08545363726383</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>39.62978318748645</v>
+        <v>39.62978318748649</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.61256795355229</v>
+        <v>21.61256795355234</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39.76257542240923</v>
+        <v>39.76257542240931</v>
       </c>
     </row>
     <row r="28">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.267861258563528</v>
+        <v>1.267861258563652</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.06103332129809</v>
+        <v>28.06103332129818</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>42.80811617082212</v>
+        <v>42.80811617082222</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10.39857747015218</v>
+        <v>10.39857747015221</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>26.54785706953842</v>
+        <v>26.54785706953831</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.09074390674154</v>
+        <v>36.09074390674143</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.8277187697656743</v>
+        <v>-0.8277187697655961</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>16.19914739514096</v>
+        <v>16.19914739514103</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.45589344643497</v>
+        <v>25.45589344643499</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.266656757386919</v>
+        <v>1.266656757386912</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.38554393531101</v>
+        <v>31.38554393531105</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43.58101981696711</v>
+        <v>43.58101981696697</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.90172255279508</v>
+        <v>36.90172255279507</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.05605204881479</v>
+        <v>49.05605204881472</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>62.40463516478155</v>
+        <v>62.40463516478145</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5.703232981969499</v>
+        <v>5.703232981969514</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.11191195579075</v>
+        <v>36.11191195579067</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>44.02344608522459</v>
+        <v>44.02344608522468</v>
       </c>
     </row>
     <row r="47">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.80691620990512</v>
+        <v>27.80691620990501</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.55253375018962</v>
+        <v>34.55253375018957</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.885354654653462</v>
+        <v>4.885354654653362</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.18688673507948</v>
+        <v>34.1868867350796</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>37.63384885992193</v>
+        <v>37.63384885992186</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9.202761229138419</v>
+        <v>9.202761229138384</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>58.4504074218823</v>
+        <v>58.45040742188239</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>63.05897531047142</v>
+        <v>63.05897531047135</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>51.02103488833598</v>
+        <v>51.02103488833601</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>60.07280925598975</v>
+        <v>60.07280925598972</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>54.76623958631221</v>
+        <v>54.7662395863122</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2.690280659417592</v>
+        <v>2.690280659417457</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.77300303578689</v>
+        <v>32.77300303578686</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>48.05366978027944</v>
+        <v>48.05366978027958</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5.393356722753332</v>
+        <v>5.393356722753296</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.66210014502872</v>
+        <v>29.66210014502871</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.68368450669596</v>
+        <v>35.68368450669597</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.359826633499686</v>
+        <v>1.359826633499672</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>18.0778001867415</v>
+        <v>18.07780018674151</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.26958183397214</v>
+        <v>28.26958183397216</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2.061347499914852</v>
+        <v>2.06134749991482</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.6974113134639</v>
+        <v>35.69741131346392</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.40534152526369</v>
+        <v>48.40534152526374</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>40.00850502816062</v>
+        <v>40.00850502816061</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>51.72097734247954</v>
+        <v>51.72097734247952</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>59.3479920277847</v>
+        <v>59.34799202778461</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.3824819840122764</v>
+        <v>0.3824819840123332</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>41.06099067954381</v>
+        <v>41.06099067954383</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>49.26430102508545</v>
+        <v>49.26430102508536</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5.196986551977517</v>
+        <v>5.196986551977535</v>
       </c>
     </row>
     <row r="78">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40.29621277570847</v>
+        <v>40.29621277570844</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.6132022220193249</v>
+        <v>0.6132022220192823</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>26.87941906783242</v>
+        <v>26.87941906783239</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>35.03892941283781</v>
+        <v>35.0389294128378</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.735488238954709</v>
+        <v>4.735488238954684</v>
       </c>
     </row>
     <row r="84">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>67.9342227395659</v>
+        <v>67.93422273956597</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>51.56022752365216</v>
+        <v>51.56022752365213</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>64.41984201965418</v>
+        <v>64.4198420196542</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>73.28100706508768</v>
+        <v>73.28100706508783</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-1.613041360555883</v>
+        <v>-1.613041360555908</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>50.23712789294386</v>
+        <v>50.23712789294387</v>
       </c>
     </row>
     <row r="91">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.99076051639764</v>
+        <v>23.99076051639758</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.3920564735579</v>
+        <v>33.39205647355784</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.065485489945569</v>
+        <v>2.065485489945516</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>26.24401154343467</v>
+        <v>26.24401154343477</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.11053724379142</v>
+        <v>29.11053724379145</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.767102054668388</v>
+        <v>6.767102054668413</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>50.13782708186164</v>
+        <v>50.13782708186159</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>51.97673187613736</v>
+        <v>51.97673187613739</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38.28716581795626</v>
+        <v>38.28716581795624</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>45.864321779081</v>
+        <v>45.86432177908095</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>44.77276895792338</v>
+        <v>44.77276895792331</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9.708113574029255</v>
+        <v>9.708113574029124</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.19442878122826</v>
+        <v>25.19442878122836</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>32.20606913379953</v>
+        <v>32.20606913379979</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15.5141944666882</v>
+        <v>15.51419446668822</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>34.50815169467966</v>
+        <v>34.5081516946797</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.22993086763199</v>
+        <v>38.22993086763205</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.958666559364421</v>
+        <v>3.958666559364485</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>23.08921475136572</v>
+        <v>23.08921475136573</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.01502450342289</v>
+        <v>30.01502450342292</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.950876275106253</v>
+        <v>4.95087627510626</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.14458367435</v>
+        <v>42.14458367434996</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>52.56945736051353</v>
+        <v>52.56945736051348</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>43.85409463276898</v>
+        <v>43.85409463276896</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>54.72320978563195</v>
+        <v>54.72320978563209</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.001601916788</v>
+        <v>59.00160191678799</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>15.80721785353671</v>
+        <v>15.80721785353675</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>41.60163244218431</v>
+        <v>41.6016324421843</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.79797729765278</v>
+        <v>47.79797729765269</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>20.66593740920296</v>
+        <v>20.66593740920291</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.46190505469777</v>
+        <v>35.46190505469778</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.45260688836045</v>
+        <v>43.45260688836046</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.227485602413509</v>
+        <v>2.227485602413569</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>27.50857845634428</v>
+        <v>27.50857845634429</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.59639450893036</v>
+        <v>33.59639450893031</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5.296124767158378</v>
+        <v>5.296124767158329</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>48.83138089961864</v>
+        <v>48.83138089961871</v>
       </c>
     </row>
     <row r="130">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>53.45597345423026</v>
+        <v>53.45597345423022</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>64.01026584263793</v>
+        <v>64.01026584263792</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>72.27511692343107</v>
+        <v>72.27511692343121</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>16.85893437262835</v>
+        <v>16.85893437262831</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.76109944477831</v>
+        <v>48.7610994447783</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>58.28414410295605</v>
+        <v>58.28414410295598</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7.605061413617449</v>
+        <v>7.605061413617417</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>11.1226550207565</v>
+        <v>11.12265502075642</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.07777274949554</v>
+        <v>18.07777274949557</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.9948894366211896</v>
+        <v>0.9948894366209764</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>11.99730356855204</v>
+        <v>11.99730356855216</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.29292087624598</v>
+        <v>13.29292087624581</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4.984958204957088</v>
+        <v>4.98495820495684</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.06405646168279</v>
+        <v>23.06405646168259</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.26765091612227</v>
+        <v>26.26765091612206</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>18.00675610688391</v>
+        <v>18.00675610688373</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.06575896501469</v>
+        <v>20.06575896501452</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.11321119878049</v>
+        <v>26.11321119878033</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>51.13289071957278</v>
+        <v>51.13289071957266</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>54.05242520492446</v>
+        <v>54.05242520492409</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>55.16038881992076</v>
+        <v>55.16038881992094</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>7.621143854498314</v>
+        <v>7.621143854498307</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.50568070802399</v>
+        <v>22.50568070802396</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>34.0246894373813</v>
+        <v>34.02468943738126</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-4.633675587053535</v>
+        <v>-4.633675587053464</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>4.122765681307943</v>
+        <v>4.122765681308096</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17.14517388639476</v>
+        <v>17.14517388639454</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.4281175504523915</v>
+        <v>-0.4281175504523205</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>16.55229895535837</v>
+        <v>16.55229895535852</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.06448645901191</v>
+        <v>36.06448645901179</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>18.8011769521707</v>
+        <v>18.80117695217066</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.28974623843796</v>
+        <v>37.28974623843806</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>49.25250310923148</v>
+        <v>49.25250310923145</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1.137618094548305</v>
+        <v>1.137618094548287</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>24.32862896379654</v>
+        <v>24.3286289637964</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.61708219189561</v>
+        <v>35.61708219189562</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.70901508801815</v>
+        <v>13.70901508801806</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.68878665125274</v>
+        <v>25.68878665125279</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.301830785631</v>
+        <v>35.3018307856311</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-3.86147096657886</v>
+        <v>-3.86147096657896</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>11.0919323366615</v>
+        <v>11.09193233666151</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>20.09116698059893</v>
+        <v>20.09116698059889</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.03295401629498</v>
+        <v>3.032954016294926</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.33098639411922</v>
+        <v>28.33098639411913</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>43.97169530637283</v>
+        <v>43.97169530637284</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>25.13150894441489</v>
+        <v>25.13150894441482</v>
       </c>
     </row>
     <row r="177">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>55.44630898558172</v>
+        <v>55.44630898558171</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>9.188897209311678</v>
+        <v>9.188897209311788</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>36.54130598481106</v>
+        <v>36.5413059848112</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>43.59652588302817</v>
+        <v>43.59652588302825</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6.179328570577788</v>
+        <v>6.179328570577624</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>16.71138119271515</v>
+        <v>16.71138119271512</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.65070787214458</v>
+        <v>25.65070787214456</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.875666317960885</v>
+        <v>2.875666317960942</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.99177728244436</v>
+        <v>25.99177728244448</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.54225229919768</v>
+        <v>31.54225229919769</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.684344269341778</v>
+        <v>7.684344269342198</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>58.4735444639815</v>
+        <v>58.47354446398153</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>55.52706673549555</v>
+        <v>55.52706673549584</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.24643827556744</v>
+        <v>37.24643827556736</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>45.36263345964269</v>
+        <v>45.36263345964247</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>46.87965608569433</v>
+        <v>46.87965608569426</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>7.872813314008894</v>
+        <v>7.872813314008791</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6.711676043263544</v>
+        <v>6.711676043263587</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>13.9382946974997</v>
+        <v>13.93829469749943</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.30115939718662</v>
+        <v>22.30115939718659</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>37.3919656881708</v>
+        <v>37.39196568817081</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>40.97786755654107</v>
+        <v>40.97786755654109</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4.302705815810977</v>
+        <v>4.302705815811034</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.51714256160647</v>
+        <v>24.51714256160642</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.29142422153125</v>
+        <v>32.29142422153123</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>6.368832779249715</v>
+        <v>6.368832779249679</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>44.04816119710053</v>
+        <v>44.04816119710044</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>51.52997662515551</v>
+        <v>51.5299766251555</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>45.7524395295187</v>
+        <v>45.75243952951868</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>56.84951572114898</v>
+        <v>56.84951572114892</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>63.67108088206614</v>
+        <v>63.67108088206611</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.94769883274317</v>
+        <v>24.94769883274318</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>43.62585866008937</v>
+        <v>43.62585866008942</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>52.66241256491643</v>
+        <v>52.66241256491641</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.36701748298676</v>
+        <v>22.3670174829868</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.91506333135631</v>
+        <v>35.91506333135637</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>42.24011652725338</v>
+        <v>42.24011652725344</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>2.532512154623973</v>
+        <v>2.532512154624072</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>23.45875700440416</v>
+        <v>23.45875700440404</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>32.24005630654558</v>
+        <v>32.24005630654561</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>7.301967216452155</v>
+        <v>7.301967216452194</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>44.27661024862402</v>
+        <v>44.2766102486239</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>60.37464085941133</v>
+        <v>60.37464085941134</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>47.82602580362403</v>
+        <v>47.82602580362393</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>60.36651498063316</v>
+        <v>60.36651498063308</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>67.9219750041236</v>
+        <v>67.92197500412354</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>24.83948261751954</v>
+        <v>24.83948261751961</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>48.36721173917051</v>
+        <v>48.3672117391706</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>57.77732528292125</v>
+        <v>57.77732528292138</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>4.56652527849231</v>
+        <v>4.566525278492332</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>16.35082481515567</v>
+        <v>16.35082481515568</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.73528129887019</v>
+        <v>27.73528129887021</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>5.3796298614281</v>
+        <v>5.379629861428111</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.98191360788157</v>
+        <v>29.98191360788159</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.9236916534148</v>
+        <v>33.92369165341476</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.41786493877159</v>
+        <v>10.41786493877162</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>57.80353483346217</v>
+        <v>57.80353483346207</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>59.11960149626402</v>
+        <v>59.11960149626415</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.91837583286039</v>
+        <v>39.91837583286029</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>49.38215450601114</v>
+        <v>49.38215450601105</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50.22027714068156</v>
+        <v>50.22027714068146</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>4.979030955692881</v>
+        <v>4.979030955692753</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5.14369451510689</v>
+        <v>5.143694515106862</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9.831905295518771</v>
+        <v>9.83190529551897</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>16.83707335565077</v>
+        <v>16.83707335565076</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>39.03663235543544</v>
+        <v>39.03663235543547</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>41.19266742692445</v>
+        <v>41.19266742692437</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>6.227819568253171</v>
+        <v>6.227819568253185</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.85595407885018</v>
+        <v>31.85595407885019</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>37.64310756616342</v>
+        <v>37.64310756616337</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>6.646213047780797</v>
+        <v>6.646213047780734</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>53.06240241424095</v>
+        <v>53.06240241424098</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>56.60087854825598</v>
+        <v>56.60087854825593</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>48.48336002249886</v>
+        <v>48.48336002249892</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>59.64834828187639</v>
+        <v>59.64834828187638</v>
       </c>
     </row>
     <row r="253">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16.28884782133782</v>
+        <v>16.28884782133788</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>53.83176000580548</v>
+        <v>53.83176000580553</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>58.63657296308446</v>
+        <v>58.63657296308448</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>19.66183994511736</v>
+        <v>19.66183994511735</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.45337778037177</v>
+        <v>39.45337778037175</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>45.35972417490856</v>
+        <v>45.35972417490861</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>5.486398735631337</v>
+        <v>5.486398735631429</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.37137145820035</v>
+        <v>29.3713714582004</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.07598360871258</v>
+        <v>35.0759836087126</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.799174053361746</v>
+        <v>9.799174053361718</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>51.92524018051546</v>
+        <v>51.92524018051538</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>65.55142286587153</v>
+        <v>65.55142286587156</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>55.20765169312558</v>
+        <v>55.20765169312554</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>67.76666680608332</v>
+        <v>67.76666680608326</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>73.61421619316413</v>
+        <v>73.61421619316421</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>12.6732432239963</v>
+        <v>12.67324322399628</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>55.42839530654436</v>
+        <v>55.42839530654441</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>62.64973788835397</v>
+        <v>62.64973788835401</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>4.136197477458307</v>
+        <v>4.136197477458342</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>5.501037527033848</v>
+        <v>5.501037527033898</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>11.21151025174105</v>
+        <v>11.2115102517411</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.3297789816593308</v>
+        <v>0.3297789816593415</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>9.736769191957578</v>
+        <v>9.736769191957375</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>11.8583189024009</v>
+        <v>11.85831890240087</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>3.060849557181463</v>
+        <v>3.060849557181573</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.04259405932568</v>
+        <v>18.04259405932577</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.18192746842247</v>
+        <v>21.18192746842255</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>18.53263141081861</v>
+        <v>18.53263141081854</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.23871460479896</v>
+        <v>23.23871460479889</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.07014067610069</v>
+        <v>25.07014067610063</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>3.200518990234261</v>
+        <v>3.200518990234148</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>4.356741059573924</v>
+        <v>4.356741059573945</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>9.607052562056088</v>
+        <v>9.607052562056216</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>9.009823836305683</v>
+        <v>9.00982383630574</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>22.44569475296899</v>
+        <v>22.44569475296905</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.74600907324755</v>
+        <v>29.74600907324753</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>2.211144333655735</v>
+        <v>2.211144333655771</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>13.16048603440035</v>
+        <v>13.16048603440032</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.81145457677444</v>
+        <v>22.81145457677443</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>3.169165951669459</v>
+        <v>3.169165951669363</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.27956609250105</v>
+        <v>22.27956609250099</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>38.49146709232086</v>
+        <v>38.49146709232088</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.22503228582645</v>
+        <v>27.22503228582651</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.84247878148202</v>
+        <v>38.84247878148201</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>45.94035142763022</v>
+        <v>45.94035142763023</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>6.307873566188164</v>
+        <v>6.307873566188121</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.42028782763072</v>
+        <v>28.42028782763074</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>37.08478139028387</v>
+        <v>37.08478139028381</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>8.64037654610943</v>
+        <v>8.640376546109422</v>
       </c>
     </row>
     <row r="303">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.27041749007634</v>
+        <v>33.27041749007638</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.3522480174265432</v>
+        <v>0.3522480174265716</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>19.81076975479263</v>
+        <v>19.81076975479266</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>27.2767290203725</v>
+        <v>27.27672902037252</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>3.812804841213772</v>
+        <v>3.812804841213794</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>34.31691855725904</v>
+        <v>34.31691855725903</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>46.68050633225452</v>
+        <v>46.68050633225446</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>43.56737884767081</v>
+        <v>43.56737884767085</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>55.56320274357346</v>
+        <v>55.56320274357344</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>60.50603873731082</v>
+        <v>60.50603873731075</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>7.205255141961608</v>
+        <v>7.205255141961619</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>39.75923944812439</v>
+        <v>39.75923944812433</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>51.1920716459952</v>
+        <v>51.19207164599516</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>0.8778267811483218</v>
+        <v>0.8778267811483786</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>5.051891260658373</v>
+        <v>5.051891260658408</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>10.51859159281407</v>
+        <v>10.51859159281386</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-0.3141786158927289</v>
+        <v>-0.3141786158926116</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>9.53305834755364</v>
+        <v>9.533058347553546</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>11.20384979335929</v>
+        <v>11.20384979335939</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>1.729157783728624</v>
+        <v>1.729157783728667</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.73964412569869</v>
+        <v>16.73964412569861</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.83273622311333</v>
+        <v>15.83273622311328</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.03663867473928</v>
+        <v>12.03663867473944</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>13.69114946220363</v>
+        <v>13.69114946220389</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.69620876467438</v>
+        <v>14.69620876467424</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>3.434394434431081</v>
+        <v>3.434394434430914</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>9.258638040640761</v>
+        <v>9.25863804064041</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.019818477508</v>
+        <v>13.0198184775078</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>4.748276319852785</v>
+        <v>4.748276319852831</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>10.32922400632084</v>
+        <v>10.32922400632085</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>18.54901901279671</v>
+        <v>18.5490190127966</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>1.146145814233172</v>
+        <v>1.146145814233101</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>2.439288303568475</v>
+        <v>2.439288303568485</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.99333741623211</v>
+        <v>11.99333741623207</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>2.049982943257202</v>
+        <v>2.049982943257184</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>3.445327376710395</v>
+        <v>3.445327376710381</v>
       </c>
     </row>
     <row r="340">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>3.847672241637692</v>
+        <v>3.847672241637738</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.05865818664087</v>
+        <v>22.05865818664091</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.25522135608525</v>
+        <v>39.25522135608528</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-0.8707661209041007</v>
+        <v>-0.8707661209041184</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>5.774626145402543</v>
+        <v>5.7746261454026</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>10.58137294672913</v>
+        <v>10.5813729467291</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-0.2338108906737304</v>
+        <v>-0.2338108906736771</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>7.549569194370893</v>
+        <v>7.549569194370921</v>
       </c>
     </row>
     <row r="349">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1.508799009344727</v>
+        <v>-1.508799009344713</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>4.589304644684052</v>
+        <v>4.589304644684113</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>15.23720694622118</v>
+        <v>15.23720694622125</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-0.8529471994159401</v>
+        <v>-0.8529471994160005</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>5.958692213022115</v>
+        <v>5.958692213022083</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>32.91891451943979</v>
+        <v>32.91891451943974</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>8.986747840903748</v>
+        <v>8.986747840903854</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>40.19873207535667</v>
+        <v>40.19873207535684</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>53.67198223579334</v>
+        <v>53.67198223579311</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-4.473533479820411</v>
+        <v>-4.473533479820457</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>4.589709608468535</v>
+        <v>4.589709608468507</v>
       </c>
     </row>
     <row r="361">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>4.990714623241402</v>
+        <v>4.990714623241324</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>11.53369702594415</v>
+        <v>11.53369702594414</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>31.51771655268099</v>
+        <v>31.51771655268097</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3.547701140926975</v>
+        <v>3.547701140926875</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>34.89848757299049</v>
+        <v>34.89848757299045</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>39.92324760441161</v>
+        <v>39.92324760441155</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>8.0321476082682</v>
+        <v>8.032147608268311</v>
       </c>
     </row>
     <row r="369">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>61.89373923111292</v>
+        <v>61.89373923111296</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>43.28696976934769</v>
+        <v>43.28696976934756</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>48.55213108673713</v>
+        <v>48.55213108673706</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>47.42600874943197</v>
+        <v>47.42600874943194</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>18.28659086518812</v>
+        <v>18.28659086518792</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.64556160210627</v>
+        <v>28.64556160210614</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>58.24520096673474</v>
+        <v>58.24520096673483</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>9.231610751268752</v>
+        <v>9.231610751268756</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.78453544608084</v>
+        <v>28.78453544608082</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.53387640065665</v>
+        <v>32.53387640065664</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3.20987390617546</v>
+        <v>3.209873906175456</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.1784858131446</v>
+        <v>23.17848581314463</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.44367454155608</v>
+        <v>27.443674541556</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>4.436293603220694</v>
+        <v>4.436293603220737</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.56413776521124</v>
+        <v>38.56413776521131</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>45.40987885376869</v>
+        <v>45.40987885376867</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>37.84818643373327</v>
+        <v>37.84818643373329</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>47.04326662733293</v>
+        <v>47.04326662733289</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>50.86822909329216</v>
+        <v>50.86822909329225</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>16.44740455663004</v>
+        <v>16.44740455663003</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>39.08612346285492</v>
+        <v>39.08612346285496</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>45.34523751738512</v>
+        <v>45.34523751738494</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>12.53457898670786</v>
+        <v>12.53457898670788</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.33080781680577</v>
+        <v>28.33080781680579</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.86357697576785</v>
+        <v>37.86357697576786</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>4.644479374548883</v>
+        <v>4.64447937454889</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.35704420715046</v>
+        <v>29.35704420715043</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>34.79077213395621</v>
+        <v>34.7907721339562</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>9.301568612819391</v>
+        <v>9.301568612819382</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>47.11505124423459</v>
+        <v>47.11505124423461</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>63.88941041624297</v>
+        <v>63.88941041624309</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>51.36696448663176</v>
+        <v>51.36696448663177</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>59.91937979405303</v>
+        <v>59.91937979405293</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>67.35168375534626</v>
+        <v>67.35168375534627</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>17.25321772590278</v>
+        <v>17.25321772590281</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>47.96175612968924</v>
+        <v>47.96175612968921</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>61.71000490403306</v>
+        <v>61.71000490403308</v>
       </c>
     </row>
     <row r="407">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.33997180409585</v>
+        <v>7.339971804095846</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>13.54392209724052</v>
+        <v>13.5439220972406</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>0.01957504756779826</v>
+        <v>0.01957504756786932</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>4.941330122746102</v>
+        <v>4.94133012274612</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.470120319937219</v>
+        <v>7.470120319937234</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>4.270046457286771</v>
+        <v>4.270046457286742</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.32240926372183</v>
+        <v>13.32240926372181</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>18.18161204494883</v>
+        <v>18.1816120449487</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>14.07571121921413</v>
+        <v>14.0757112192141</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>16.07045885140865</v>
+        <v>16.07045885140862</v>
       </c>
     </row>
     <row r="418">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>3.752813659208201</v>
+        <v>3.752813659208222</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>2.14481975044972</v>
+        <v>2.144819750449692</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.085308363471835</v>
+        <v>8.085308363471828</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>2.956750155133093</v>
+        <v>2.956750155133069</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>12.3659927054012</v>
+        <v>12.36599270540123</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.94798381059544</v>
+        <v>22.94798381059537</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-2.201424417082741</v>
+        <v>-2.20142441708278</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>2.241221313868575</v>
+        <v>2.241221313868582</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15.00543032466514</v>
+        <v>15.00543032466515</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-1.940912809731977</v>
+        <v>-1.940912809731991</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.258630743693853</v>
+        <v>5.258630743693935</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.52709966743432</v>
+        <v>26.52709966743429</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>9.299670975657191</v>
+        <v>9.299670975657245</v>
       </c>
     </row>
     <row r="432">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>31.24598310400739</v>
+        <v>31.24598310400732</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1.433316664727158</v>
+        <v>-1.433316664727194</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>13.22054994555831</v>
+        <v>13.22054994555829</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>22.94840885342973</v>
+        <v>22.94840885342976</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>6.469962153720154</v>
+        <v>6.469962153720164</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>16.19202773691029</v>
+        <v>16.19202773691031</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.34064741880841</v>
+        <v>29.34064741880842</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-1.258459689007015</v>
+        <v>-1.25845968900709</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>6.859318032400775</v>
+        <v>6.859318032400811</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>18.19353866165965</v>
+        <v>18.1935386616596</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>3.063159479366991</v>
+        <v>3.063159479366988</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>14.84572461593441</v>
+        <v>14.84572461593445</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>36.30113609141891</v>
+        <v>36.3011360914189</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>16.99784514110608</v>
+        <v>16.99784514110611</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.26850763523468</v>
+        <v>26.26850763523478</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>46.20302214168669</v>
+        <v>46.2030221416867</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>8.680398128387555</v>
+        <v>8.680398128387587</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.60508895753741</v>
+        <v>21.60508895753742</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>33.70111008384629</v>
+        <v>33.70111008384635</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1.397749983842132</v>
+        <v>-1.397749983842097</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-1.620036349495724</v>
+        <v>-1.620036349495706</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>6.588031291319528</v>
+        <v>6.588031291319545</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-0.5195572489450484</v>
+        <v>-0.5195572489450626</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>2.168652032228191</v>
+        <v>2.168652032228177</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>3.984521562290286</v>
+        <v>3.984521562290251</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.684752617280957</v>
+        <v>4.684752617280886</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>9.914544018813867</v>
+        <v>9.914544018813739</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>13.32013497652437</v>
+        <v>13.32013497652428</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>4.26067163449585</v>
+        <v>4.260671634495861</v>
       </c>
     </row>
     <row r="462">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>12.4185265463258</v>
+        <v>12.41852654632576</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>0.05784018822403425</v>
+        <v>0.05784018822406978</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-3.43702131752466</v>
+        <v>-3.437021317524753</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-1.66325177226868</v>
+        <v>-1.663251772268598</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.21013296305908</v>
+        <v>14.21013296305905</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.06740274339171</v>
+        <v>30.06740274339175</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.94954542492192</v>
+        <v>33.94954542492189</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>6.179357687449187</v>
+        <v>6.179357687449162</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>20.55237572392089</v>
+        <v>20.55237572392096</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.71665515610439</v>
+        <v>27.71665515610441</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>8.550255850927805</v>
+        <v>8.550255850927829</v>
       </c>
     </row>
     <row r="474">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>46.66564566810308</v>
+        <v>46.66564566810305</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>37.25873996093974</v>
+        <v>37.25873996093968</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>45.31292819293704</v>
+        <v>45.31292819293691</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>50.43642029309745</v>
+        <v>50.43642029309739</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>13.35372368035322</v>
+        <v>13.35372368035318</v>
       </c>
     </row>
     <row r="480">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.06454664245793</v>
+        <v>32.06454664245796</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.25629952616698</v>
+        <v>42.25629952616703</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>2.392577655414872</v>
+        <v>2.392577655414893</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>24.91372026599313</v>
+        <v>24.9137202659931</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>32.42559461453311</v>
+        <v>32.42559461453317</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>6.300994168273665</v>
+        <v>6.300994168273697</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>44.78731274123528</v>
+        <v>44.78731274123538</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>58.52002588337017</v>
+        <v>58.52002588337018</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>48.80862709080208</v>
+        <v>48.80862709080196</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>57.27314940626299</v>
+        <v>57.27314940626303</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>66.06319403565391</v>
+        <v>66.06319403565395</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>9.606058283068998</v>
+        <v>9.606058283068984</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>45.47120506320708</v>
+        <v>45.47120506320695</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>52.77343915573098</v>
+        <v>52.77343915573091</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.22946058951403</v>
+        <v>10.22946058951397</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.53480559934546</v>
+        <v>12.53480559934552</v>
       </c>
     </row>
     <row r="499">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>3.501936104885129</v>
+        <v>3.501936104885171</v>
       </c>
     </row>
     <row r="501">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>12.70563686312952</v>
+        <v>12.70563686312954</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>12.27061311611527</v>
+        <v>12.27061311611533</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.38125690077138</v>
+        <v>24.38125690077134</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.07381343075385</v>
+        <v>23.07381343075388</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.59819841356718</v>
+        <v>20.59819841356722</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>22.99257462843592</v>
+        <v>22.99257462843598</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.9450798238039</v>
+        <v>26.94507982380395</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.34273939343119</v>
+        <v>10.34273939343114</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>8.771924236387413</v>
+        <v>8.771924236387502</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>16.68136162743709</v>
+        <v>16.68136162743717</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>3.471544028118394</v>
+        <v>3.471544028118448</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>10.53106460202413</v>
+        <v>10.53106460202411</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>17.68258221753975</v>
+        <v>17.68258221753974</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-1.736625781310433</v>
+        <v>-1.736625781310401</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>0.02655474061618435</v>
+        <v>0.02655474061623053</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>10.30382796738022</v>
+        <v>10.30382796738026</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-1.648475302403249</v>
+        <v>-1.648475302403291</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>4.072691058341736</v>
+        <v>4.072691058341793</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>20.5910036271545</v>
+        <v>20.59100362715451</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>7.928938558283473</v>
+        <v>7.928938558283559</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>15.52337509649273</v>
+        <v>15.52337509649276</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>27.83742439723374</v>
+        <v>27.83742439723364</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-0.5495254129201754</v>
+        <v>-0.549525412920211</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>9.060013338632615</v>
+        <v>9.060013338632658</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>17.70905548123222</v>
+        <v>17.70905548123228</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>13.74288388789791</v>
+        <v>13.74288388789794</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>22.59297266735035</v>
+        <v>22.59297266735036</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.49554758047263</v>
+        <v>29.49554758047262</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1.00997015776975</v>
+        <v>-1.009970157769786</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>10.79908349549294</v>
+        <v>10.79908349549296</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>17.99294931819214</v>
+        <v>17.99294931819217</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.974769288306355</v>
+        <v>4.974769288306348</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.16832222878815</v>
+        <v>26.16832222878817</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>40.19056026309512</v>
+        <v>40.19056026309504</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.12064937359633</v>
+        <v>25.12064937359635</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>34.91860656587076</v>
+        <v>34.91860656587072</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>46.74113658829606</v>
+        <v>46.74113658829603</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>10.61012589473407</v>
+        <v>10.61012589473406</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.84358154677122</v>
+        <v>25.84358154677124</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>31.74780185504954</v>
+        <v>31.74780185504949</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>2.310997593831534</v>
+        <v>2.310997593831573</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>3.081007598377468</v>
+        <v>3.081007598377433</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>6.233673014134542</v>
+        <v>6.233673014134496</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.172855100989842</v>
+        <v>1.172855100989736</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>3.100825615575804</v>
+        <v>3.100825615575776</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>3.944352923483756</v>
+        <v>3.944352923483727</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>7.40118088263349</v>
+        <v>7.401180882633472</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>9.37268433314093</v>
+        <v>9.372684333140791</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.55609857090309</v>
+        <v>10.55609857090298</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.068491059962419</v>
+        <v>7.068491059962344</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>5.117025944665642</v>
+        <v>5.117025944665716</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>10.33736630684552</v>
+        <v>10.33736630684553</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.767880233121844</v>
+        <v>6.767880233121698</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>1.402679995139749</v>
+        <v>1.402679995139593</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>5.007235894708732</v>
+        <v>5.007235894708554</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.233268688914979</v>
+        <v>1.233268688914904</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.903565237060082</v>
+        <v>4.903565237060093</v>
       </c>
     </row>
     <row r="559">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-0.5161891527871241</v>
+        <v>-0.5161891527871951</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-3.441750904212949</v>
+        <v>-3.441750904212959</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>2.461401068568865</v>
+        <v>2.461401068568804</v>
       </c>
     </row>
     <row r="563">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-2.688909954900488</v>
+        <v>-2.688909954900495</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.379351211810821</v>
+        <v>4.379351211810807</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>1.073940359241352</v>
+        <v>1.073940359241298</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>4.549610932070983</v>
+        <v>4.549610932071012</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>6.319948818413675</v>
+        <v>6.319948818413668</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-1.700014783478586</v>
+        <v>-1.700014783478604</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>0.05194534375162974</v>
+        <v>0.05194534375152671</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>2.600682687240639</v>
+        <v>2.600682687240656</v>
       </c>
     </row>
     <row r="572">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>18.90841433234689</v>
+        <v>18.90841433234688</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.70898571888937</v>
+        <v>23.70898571888933</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>1.206027354992489</v>
+        <v>1.206027354992433</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>7.447682053901083</v>
+        <v>7.447682053901069</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>12.22357339289053</v>
+        <v>12.2235733928905</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>8.651874501076172</v>
+        <v>8.651874501076133</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>19.27982543385062</v>
+        <v>19.2798254338506</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.59635320658874</v>
+        <v>27.59635320658871</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.21622669388121</v>
+        <v>20.21622669388124</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.8930677844071</v>
+        <v>23.89306778440715</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>31.21515693892049</v>
+        <v>31.21515693892047</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>14.62906600234295</v>
+        <v>14.62906600234292</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>16.41977387693725</v>
+        <v>16.41977387693721</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.92744303347756</v>
+        <v>22.92744303347753</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.8238538416832</v>
+        <v>13.82385384168312</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.93083337068644</v>
+        <v>25.93083337068635</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>32.69203115564743</v>
+        <v>32.69203115564727</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>4.158297799205258</v>
+        <v>4.158297799205211</v>
       </c>
     </row>
     <row r="591">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.44452828092923</v>
+        <v>23.44452828092926</v>
       </c>
     </row>
     <row r="593">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>41.11145117834909</v>
+        <v>41.11145117834893</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>43.2204917631549</v>
+        <v>43.22049176315464</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.88897788292687</v>
+        <v>34.88897788292696</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.83856149871895</v>
+        <v>39.83856149871893</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>42.60769126345099</v>
+        <v>42.6076912634509</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>20.63413188020854</v>
+        <v>20.63413188020843</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>38.42908944537308</v>
+        <v>38.42908944537301</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>45.92325626615387</v>
+        <v>45.92325626615359</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>12.29134343070167</v>
+        <v>12.29134343070161</v>
       </c>
     </row>
     <row r="603">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.2835734790003</v>
+        <v>28.28357347900029</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-0.1980799991227471</v>
+        <v>-0.1980799991227897</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>4.29780493158103</v>
+        <v>4.297804931581055</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>10.24432295433353</v>
+        <v>10.24432295433335</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>4.210904068277163</v>
+        <v>4.210904068277113</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>16.53877761800489</v>
+        <v>16.53877761800492</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.37011954755733</v>
+        <v>25.37011954755727</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>17.30413875830946</v>
+        <v>17.30413875830939</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.36092579394909</v>
+        <v>25.36092579394905</v>
       </c>
     </row>
     <row r="613">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>10.65589932463629</v>
+        <v>10.65589932463621</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>20.11942186648811</v>
+        <v>20.1194218664881</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.95951222748925</v>
+        <v>27.95951222748917</v>
       </c>
     </row>
     <row r="617">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.79834005934704</v>
+        <v>27.79834005934703</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>38.3623194258911</v>
+        <v>38.36231942589099</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>2.466306565920519</v>
+        <v>2.466306565920512</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>15.54524895694555</v>
+        <v>15.54524895694553</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.78260742529882</v>
+        <v>20.78260742529881</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>7.066781448101825</v>
+        <v>7.066781448101736</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.31494843346732</v>
+        <v>31.31494843346723</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>43.36793480112789</v>
+        <v>43.36793480112793</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>39.02779559336037</v>
+        <v>39.02779559336053</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>46.9259029474951</v>
+        <v>46.92590294749512</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>52.05671503771957</v>
+        <v>52.05671503771944</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>18.12909716797344</v>
+        <v>18.12909716797341</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>35.20987975664582</v>
+        <v>35.20987975664579</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>41.34346589826514</v>
+        <v>41.34346589826504</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>11.41824660199542</v>
+        <v>11.41824660199545</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.58517430216122</v>
+        <v>26.58517430216125</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.8606575244386</v>
+        <v>33.86065752443857</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>7.579883258577421</v>
+        <v>7.579883258577343</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.54397803620265</v>
+        <v>29.54397803620267</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.47302418851938</v>
+        <v>32.4730241885195</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.98391556602845</v>
+        <v>13.98391556602848</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>52.09809132024414</v>
+        <v>52.09809132024409</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>56.76009412869394</v>
+        <v>56.76009412869404</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>49.17500953647902</v>
+        <v>49.17500953647905</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>50.10328740971458</v>
+        <v>50.10328740971461</v>
       </c>
     </row>
     <row r="643">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>12.62450499339696</v>
+        <v>12.6245049933968</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.16032363358617</v>
+        <v>34.16032363358624</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>44.29594809589852</v>
+        <v>44.29594809589856</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>9.949268041387816</v>
+        <v>9.949268041387839</v>
       </c>
     </row>
     <row r="648">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.93105554760579</v>
+        <v>31.93105554760581</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>3.645442951796149</v>
+        <v>3.645442951796213</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>16.36686763120994</v>
+        <v>16.36686763120996</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>24.43344241645585</v>
+        <v>24.43344241645588</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>3.973631897720054</v>
+        <v>3.973631897720072</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>30.2080700951905</v>
+        <v>30.20807009519049</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>41.65604826254373</v>
+        <v>41.65604826254382</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.17161847418435</v>
+        <v>34.17161847418444</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.63679748028679</v>
+        <v>41.63679748028674</v>
       </c>
     </row>
     <row r="658">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>6.672603041606987</v>
+        <v>6.672603041606994</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.35386208726955</v>
+        <v>31.35386208726957</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.98277971424946</v>
+        <v>39.9827797142495</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>9.267383825015466</v>
+        <v>9.267383825015452</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.93266921473115</v>
+        <v>26.93266921473118</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.61581413580545</v>
+        <v>36.61581413580542</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1.029718016107765</v>
+        <v>1.029718016107843</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>21.16990879427569</v>
+        <v>21.1699087942757</v>
       </c>
     </row>
     <row r="667">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>2.8297548445167</v>
+        <v>2.829754844516692</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>35.25611680187096</v>
+        <v>35.2561168018709</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>54.33162118043532</v>
+        <v>54.33162118043525</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>40.85159714119024</v>
+        <v>40.85159714119019</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>51.29010726054759</v>
+        <v>51.29010726054764</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>65.21076367533988</v>
+        <v>65.21076367533993</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>3.814980941215342</v>
+        <v>3.814980941215371</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>37.94138322480782</v>
+        <v>37.94138322480779</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>50.29169439432231</v>
+        <v>50.29169439432235</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>7.293799505069071</v>
+        <v>7.293799505068964</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>20.97444616268575</v>
+        <v>20.97444616268572</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>33.38042207266497</v>
+        <v>33.38042207266496</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>5.129213539365534</v>
+        <v>5.129213539365804</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>35.90356772189179</v>
+        <v>35.9035677218918</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>42.36391276156515</v>
+        <v>42.3639127615652</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>9.417809443511006</v>
+        <v>9.417809443510944</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>62.06436419637988</v>
+        <v>62.06436419637951</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>63.11963950859953</v>
+        <v>63.1196395085997</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>46.86794286118903</v>
+        <v>46.86794286118899</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>45.30138198487495</v>
+        <v>45.30138198487504</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>48.78660958472648</v>
+        <v>48.78660958472661</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>4.267302012137538</v>
+        <v>4.26730201213751</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>24.39944040751265</v>
+        <v>24.39944040751247</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>60.62087356371195</v>
+        <v>60.62087356371202</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>15.78274733558035</v>
+        <v>15.78274733558029</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.05663292935933</v>
+        <v>31.05663292935924</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>36.30360215443897</v>
+        <v>36.30360215443892</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1.963354334671298</v>
+        <v>1.963354334671241</v>
       </c>
     </row>
     <row r="696">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>23.37193094384622</v>
+        <v>23.37193094384613</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>2.186636383731972</v>
+        <v>2.186636383732072</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.26181076936007</v>
+        <v>33.26181076936016</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.68253681914025</v>
+        <v>41.68253681914034</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.33856625921293</v>
+        <v>31.33856625921296</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>43.64218271820867</v>
+        <v>43.64218271820878</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>49.86815022585256</v>
+        <v>49.86815022585266</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>7.734799361413891</v>
+        <v>7.734799361413916</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.52528437093343</v>
+        <v>29.52528437093331</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>42.11865695650543</v>
+        <v>42.1186569565055</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.49327311862078</v>
+        <v>12.49327311862085</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.01355244521581</v>
+        <v>29.01355244521588</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.86642218920378</v>
+        <v>37.86642218920385</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.835384308339208</v>
+        <v>2.835384308339243</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.08655303787004</v>
+        <v>25.08655303786992</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>32.00447273793124</v>
+        <v>32.00447273793121</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>4.590919972134468</v>
+        <v>4.59091997213454</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>41.53954751186828</v>
+        <v>41.53954751186834</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>56.74989461783579</v>
+        <v>56.74989461783588</v>
       </c>
     </row>
     <row r="716">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.77828824341745</v>
+        <v>55.77828824341746</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>66.7115004582393</v>
+        <v>66.71150045823924</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>3.556945386257087</v>
+        <v>3.556945386257105</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>35.65348600301007</v>
+        <v>35.65348600301013</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>49.57155451004974</v>
+        <v>49.57155451004972</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>15.26679999588404</v>
+        <v>15.2667999958842</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.48067262211554</v>
+        <v>24.4806726221156</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.94849855200601</v>
+        <v>35.94849855200619</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>12.24646586348688</v>
+        <v>12.24646586348718</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>47.67814879506632</v>
+        <v>47.67814879506641</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>49.11194210174644</v>
+        <v>49.11194210174637</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>17.62193900400939</v>
+        <v>17.62193900400957</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>63.26434133336581</v>
+        <v>63.26434133336589</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>67.67579877693333</v>
+        <v>67.67579877693339</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>42.09770173368903</v>
+        <v>42.09770173368901</v>
       </c>
     </row>
     <row r="732">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>43.62727621233805</v>
+        <v>43.62727621233806</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>13.057072175448</v>
+        <v>13.05707217544765</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>19.54644577853479</v>
+        <v>19.54644577853507</v>
       </c>
     </row>
     <row r="736">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.28127564114833</v>
+        <v>24.2812756411482</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.1504877297022</v>
+        <v>34.15048772970227</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>40.72919143088117</v>
+        <v>40.72919143088116</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.25523347621086</v>
+        <v>34.2552334762108</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>43.35175670582205</v>
+        <v>43.35175670582203</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.30558417953063</v>
+        <v>47.30558417953051</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>14.21996799168984</v>
+        <v>14.21996799168993</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.48385431039787</v>
+        <v>37.48385431039782</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>48.2110039188526</v>
+        <v>48.21100391885265</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>35.68026028430874</v>
+        <v>35.68026028430881</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>44.54721057653685</v>
+        <v>44.54721057653695</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>51.25878884200417</v>
+        <v>51.25878884200432</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>19.18985869981202</v>
+        <v>19.18985869981206</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.83385225545394</v>
+        <v>31.83385225545391</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>43.59789340166205</v>
+        <v>43.59789340166198</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.56391013363985</v>
+        <v>19.56391013363986</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>32.49749651958907</v>
+        <v>32.49749651958903</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>39.94660532515813</v>
+        <v>39.94660532515807</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>33.94732111867499</v>
+        <v>33.94732111867496</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>52.28674502094967</v>
+        <v>52.28674502094972</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>51.17777387778388</v>
+        <v>51.17777387778396</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.61012238671319</v>
+        <v>13.61012238671323</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.4095381758336</v>
+        <v>47.40953817583379</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>60.24372369315383</v>
+        <v>60.2437236931538</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>49.0090485233398</v>
+        <v>49.00904852333977</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>58.74431984456757</v>
+        <v>58.74431984456756</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>68.41621285514927</v>
+        <v>68.41621285514935</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>16.93924227342013</v>
+        <v>16.93924227342005</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>38.17927934504443</v>
+        <v>38.17927934504434</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>51.50010334104655</v>
+        <v>51.50010334104657</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>6.234911299127209</v>
+        <v>6.234911299127241</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>20.05540914409261</v>
+        <v>20.05540914409263</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.42453349830103</v>
+        <v>31.42453349830106</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>0.5790770372218503</v>
+        <v>0.5790770372219072</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>21.59929947630621</v>
+        <v>21.59929947630613</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>23.22900921483852</v>
+        <v>23.2290092148385</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3.618951219334459</v>
+        <v>3.61895121933448</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.817186120975</v>
+        <v>41.81718612097509</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.03308818075543</v>
+        <v>48.03308818075549</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>44.01719008395172</v>
+        <v>44.01719008395175</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.67325991915827</v>
+        <v>42.6732599191581</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>46.3042533947423</v>
+        <v>46.30425339474223</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-3.173895513292123</v>
+        <v>-3.173895513291868</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.2210301893654</v>
+        <v>27.22103018936536</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>35.18684617366436</v>
+        <v>35.18684617366447</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>9.149925265538281</v>
+        <v>9.149925265538217</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.74590873014841</v>
+        <v>25.74590873014838</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>30.42026227643202</v>
+        <v>30.42026227643201</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>2.002809444670895</v>
+        <v>2.002809444670877</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>17.43523601585351</v>
+        <v>17.43523601585363</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>21.66614761695141</v>
+        <v>21.66614761695144</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>2.062099792226636</v>
+        <v>2.062099792226537</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.22604086524069</v>
+        <v>29.22604086524067</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>39.72262618126667</v>
+        <v>39.72262618126658</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.45997545997211</v>
+        <v>32.45997545997209</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>39.59901008315809</v>
+        <v>39.59901008315823</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>45.57163925319392</v>
+        <v>45.57163925319396</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>2.752593063831085</v>
+        <v>2.75259306383111</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.1441472894901</v>
+        <v>30.14414728949015</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.82272363203251</v>
+        <v>36.82272363203245</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>8.574690633175312</v>
+        <v>8.574690633175265</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>26.08517182287314</v>
+        <v>26.08517182287318</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.29683282960588</v>
+        <v>35.2968328296059</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>0.01034603653785382</v>
+        <v>0.01034603653779342</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>21.74548524196323</v>
+        <v>21.74548524196314</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.96808333222742</v>
+        <v>25.96808333222732</v>
       </c>
     </row>
     <row r="803">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>35.30291161501747</v>
+        <v>35.30291161501749</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>51.12274649061077</v>
+        <v>51.12274649061081</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>44.55120441524892</v>
+        <v>44.55120441524895</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>54.26654807594092</v>
+        <v>54.26654807594099</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>62.43443348748028</v>
+        <v>62.43443348748019</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-0.9856455079795623</v>
+        <v>-0.9856455079795978</v>
       </c>
     </row>
     <row r="810">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>47.68539147781221</v>
+        <v>47.68539147781226</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>7.96386185359356</v>
+        <v>7.963861853593563</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>11.65648181871032</v>
+        <v>11.65648181871027</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>17.89577910464847</v>
+        <v>17.89577910464848</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>2.523212331678003</v>
+        <v>2.523212331678131</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>12.30135770503249</v>
+        <v>12.30135770503263</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>14.92193205174808</v>
+        <v>14.92193205174803</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>8.525509755903258</v>
+        <v>8.525509755903236</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>23.62258086693883</v>
+        <v>23.62258086693877</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.23572006485123</v>
+        <v>26.23572006485128</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.15525238357652</v>
+        <v>18.15525238357649</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>20.73895619744675</v>
+        <v>20.7389561974468</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>23.53788241090928</v>
+        <v>23.53788241090933</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>4.565158417876894</v>
+        <v>4.565158417876802</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>8.731353376413299</v>
+        <v>8.731353376413328</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>18.77235130824476</v>
+        <v>18.77235130824466</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>6.634607514007634</v>
+        <v>6.634607514007651</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>18.56733866412237</v>
+        <v>18.56733866412238</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>26.43892199532129</v>
+        <v>26.43892199532135</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-0.746474552040695</v>
+        <v>-0.7464745520406382</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>8.57363179363406</v>
+        <v>8.573631793634046</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>17.43752764594228</v>
+        <v>17.43752764594218</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-1.771580628450334</v>
+        <v>-1.771580628450327</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>14.67014873219885</v>
+        <v>14.67014873219898</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.65257870999001</v>
+        <v>30.65257870998999</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>21.53333964901901</v>
+        <v>21.53333964901903</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.58725013902753</v>
+        <v>29.58725013902754</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>38.23554198873592</v>
+        <v>38.23554198873583</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-0.8509249869932241</v>
+        <v>-0.8509249869932312</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.23669634455435</v>
+        <v>20.23669634455431</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.83318331177398</v>
+        <v>29.83318331177394</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>8.424442371665627</v>
+        <v>8.424442371665634</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>22.28139752805277</v>
+        <v>22.2813975280528</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.23882910234079</v>
+        <v>30.23882910234077</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-1.063444138957454</v>
+        <v>-1.063444138957497</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>16.48672907893621</v>
+        <v>16.48672907893615</v>
       </c>
     </row>
     <row r="847">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>2.242513585152953</v>
+        <v>2.242513585152924</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>27.12109515299704</v>
+        <v>27.12109515299701</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>38.81091032254919</v>
+        <v>38.81091032254922</v>
       </c>
     </row>
     <row r="851">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.07658054555012</v>
+        <v>40.07658054555015</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>45.37995743127705</v>
+        <v>45.37995743127709</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-1.139353435269438</v>
+        <v>-1.139353435269431</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.66740517594096</v>
+        <v>27.6674051759409</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>40.07704675914104</v>
+        <v>40.07704675914098</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>12.55777140276812</v>
+        <v>12.55777140276818</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>17.44219991312863</v>
+        <v>17.44219991312851</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>24.41741527611756</v>
+        <v>24.4174152761175</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>5.97733086805334</v>
+        <v>5.977330868053144</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.13620078402635</v>
+        <v>21.1362007840262</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>21.12789287275978</v>
+        <v>21.12789287275986</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>16.17463542331758</v>
+        <v>16.17463542331753</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>42.71311686137943</v>
+        <v>42.71311686137945</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.63938831343552</v>
+        <v>42.63938831343528</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.27833292516475</v>
+        <v>25.27833292516476</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.25128912789228</v>
+        <v>29.25128912789248</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>36.83006718743985</v>
+        <v>36.83006718743961</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>5.609796679458796</v>
+        <v>5.609796679459048</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>22.61983130265491</v>
+        <v>22.61983130265479</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>34.09262001935264</v>
+        <v>34.09262001935312</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>10.1736409744332</v>
+        <v>10.17364097443323</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>19.63381965129712</v>
+        <v>19.63381965129724</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.31905548028411</v>
+        <v>33.31905548028406</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>4.370096585127598</v>
+        <v>4.37009658512747</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>7.82920604420254</v>
+        <v>7.829206044202376</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.30787750715549</v>
+        <v>28.30787750715553</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>4.332619900052574</v>
+        <v>4.332619900052666</v>
       </c>
     </row>
     <row r="879">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.49426166594253</v>
+        <v>36.49426166594279</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>16.16443686970495</v>
+        <v>16.16443686970503</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>32.01111861426443</v>
+        <v>32.01111861426448</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>43.34148698046354</v>
+        <v>43.34148698046365</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>2.006686800369284</v>
+        <v>2.006686800369312</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>18.1344400657934</v>
+        <v>18.13444006579331</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.89612128676385</v>
+        <v>31.89612128676389</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>10.13349369080248</v>
+        <v>10.1334936908025</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>20.40905120398147</v>
+        <v>20.40905120398157</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.96858556873098</v>
+        <v>28.96858556873099</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>4.191393326939497</v>
+        <v>4.19139332693965</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.59328350685099</v>
+        <v>16.59328350685106</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.00056546887853</v>
+        <v>25.00056546887854</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>4.599715314485653</v>
+        <v>4.599715314485735</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.02678816677947</v>
+        <v>28.02678816677945</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>38.06373774991776</v>
+        <v>38.06373774991768</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>33.31514389220884</v>
+        <v>33.31514389220888</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>41.92066524219307</v>
+        <v>41.92066524219302</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>52.30483391870217</v>
+        <v>52.30483391870209</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-0.2199156358761201</v>
+        <v>-0.2199156358761485</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>18.53357099408379</v>
+        <v>18.53357099408361</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>33.98677723030971</v>
+        <v>33.98677723030961</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>13.77249574560636</v>
+        <v>13.77249574560638</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>23.34345298775223</v>
+        <v>23.34345298775224</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.31516954292049</v>
+        <v>34.31516954292052</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>5.892559607411922</v>
+        <v>5.892559607412007</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>34.68709837437368</v>
+        <v>34.6870983743737</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>40.78197941917345</v>
+        <v>40.78197941917347</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.28516700462498</v>
+        <v>15.28516700462503</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>57.12513507990602</v>
+        <v>57.12513507990603</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>60.01756772090333</v>
+        <v>60.01756772090334</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>45.96523534023012</v>
+        <v>45.96523534023017</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.25033477394956</v>
+        <v>43.25033477394938</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>46.89661026311935</v>
+        <v>46.89661026311934</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>12.20706038117878</v>
+        <v>12.20706038117873</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>14.4862732003215</v>
+        <v>14.48627320032138</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>57.22556262513515</v>
+        <v>57.22556262513531</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.20973922524436</v>
+        <v>21.20973922524441</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.03821051091033</v>
+        <v>33.0382105109104</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.59675711674019</v>
+        <v>36.59675711674021</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>6.751394367213397</v>
+        <v>6.751394367213418</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>23.33171672485463</v>
+        <v>23.33171672485468</v>
       </c>
     </row>
     <row r="922">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>8.607633491967061</v>
+        <v>8.607633491967004</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>37.65168900003356</v>
+        <v>37.65168900003359</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>45.08282886287654</v>
+        <v>45.08282886287647</v>
       </c>
     </row>
     <row r="926">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>44.35442154817859</v>
+        <v>44.35442154817862</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>50.71781752273384</v>
+        <v>50.71781752273385</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>16.50872165916621</v>
+        <v>16.5087216591663</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>33.82274589257016</v>
+        <v>33.82274589257035</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>44.75014155910124</v>
+        <v>44.75014155910127</v>
       </c>
     </row>
     <row r="932">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>31.65487618995312</v>
+        <v>31.65487618995315</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>38.81249303834162</v>
+        <v>38.81249303834166</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>4.722352897139828</v>
+        <v>4.722352897139789</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.81141919346097</v>
+        <v>26.81141919346101</v>
       </c>
     </row>
     <row r="937">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>7.825165378576816</v>
+        <v>7.825165378576834</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>45.15139262976091</v>
+        <v>45.15139262976096</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>57.97419928185454</v>
+        <v>57.97419928185461</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>48.40672659779672</v>
+        <v>48.40672659779673</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>56.46059898660032</v>
+        <v>56.46059898660029</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>66.09648366781443</v>
+        <v>66.0964836678144</v>
       </c>
     </row>
     <row r="944">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>40.84674101623181</v>
+        <v>40.8467410162318</v>
       </c>
     </row>
     <row r="946">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>4.774292732798497</v>
+        <v>4.7742927327985</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>16.70823716732679</v>
+        <v>16.70823716732691</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>27.53253248374673</v>
+        <v>27.53253248374672</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>0.9088889540271303</v>
+        <v>0.9088889540271694</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>20.73650797092072</v>
+        <v>20.7365079709207</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>22.19673805054662</v>
+        <v>22.19673805054671</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2.897358202582669</v>
+        <v>2.897358202582591</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>37.6345431991844</v>
+        <v>37.63454319918455</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>44.73552547557433</v>
+        <v>44.73552547557431</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>39.88720287936247</v>
+        <v>39.88720287936251</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>43.39863538538236</v>
+        <v>43.3986353853823</v>
       </c>
     </row>
     <row r="958">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-4.892764830391279</v>
+        <v>-4.892764830391311</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>24.11117540273585</v>
+        <v>24.11117540273588</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>31.65755179249414</v>
+        <v>31.65755179249397</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>9.727453527321265</v>
+        <v>9.727453527321304</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>26.14529602431595</v>
+        <v>26.14529602431594</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.21745522049337</v>
+        <v>30.21745522049334</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>3.598487860051875</v>
+        <v>3.598487860052074</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>18.02644488834823</v>
+        <v>18.02644488834824</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>23.19513150694833</v>
+        <v>23.19513150694835</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>5.425788303202662</v>
+        <v>5.425788303202715</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>32.68608289146312</v>
+        <v>32.68608289146305</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>43.72700034420313</v>
+        <v>43.72700034420316</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>34.40350498858768</v>
+        <v>34.40350498858769</v>
       </c>
     </row>
     <row r="972">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>47.29864821073667</v>
+        <v>47.29864821073656</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>3.92897492818787</v>
+        <v>3.928974928187834</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>31.16266848250945</v>
+        <v>31.16266848250935</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>39.13145061048677</v>
+        <v>39.13145061048672</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>7.697064504867431</v>
+        <v>7.697064504867466</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>24.96100335288268</v>
+        <v>24.96100335288274</v>
       </c>
     </row>
     <row r="979">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>0.3276243196857145</v>
+        <v>0.3276243196858495</v>
       </c>
     </row>
     <row r="981">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>24.55126486442909</v>
+        <v>24.55126486442914</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>1.528321645508147</v>
+        <v>1.528321645508111</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>34.2551391245115</v>
+        <v>34.25513912451149</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>49.59438012141885</v>
+        <v>49.59438012141881</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>41.95567846728338</v>
+        <v>41.95567846728335</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>51.82392088714118</v>
+        <v>51.82392088714113</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>60.49120850672105</v>
+        <v>60.49120850672097</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>0.123607854059447</v>
+        <v>0.1236078540595607</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>35.40991107870819</v>
+        <v>35.40991107870823</v>
       </c>
     </row>
     <row r="991">

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.439</v>
+        <v>16.97</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.706</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.382</v>
+        <v>15.206</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.98</v>
+        <v>0.949</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.336024520148783</v>
+        <v>13.5086592410978</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.994230004922452</v>
+        <v>15.95497476923489</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.08344642507927</v>
+        <v>18.05514999672623</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2668058037692518</v>
+        <v>7.442832280010492</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.32475371843865</v>
+        <v>14.47828895684191</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.46206830731931</v>
+        <v>14.75027651115877</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.176006470987751</v>
+        <v>10.70691373292763</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.01049628996842</v>
+        <v>20.17893958286305</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.71534094569802</v>
+        <v>22.22463103062681</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.28732396930523</v>
+        <v>19.62197525713498</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.77541973675993</v>
+        <v>23.11569098414895</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.11224534844107</v>
+        <v>26.7580125740413</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8834328905741238</v>
+        <v>11.50282579709446</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.961433076876268</v>
+        <v>15.04155808287059</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>18.616055131108</v>
+        <v>18.02132576995362</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>9.911162233520995</v>
+        <v>13.40426573739558</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.67572822206527</v>
+        <v>27.94857813837124</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.08528894316046</v>
+        <v>37.99605582227707</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.060512343070787</v>
+        <v>6.577982161562488</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8.460439433656347</v>
+        <v>14.2018454342207</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>20.44567135939145</v>
+        <v>24.38548683560374</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-2.779320407300858</v>
+        <v>7.124342822118439</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.08545363726383</v>
+        <v>24.08176957668792</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>39.62978318748649</v>
+        <v>43.20410674285157</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.61256795355234</v>
+        <v>26.76810178595454</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39.76257542240931</v>
+        <v>44.01228600630488</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>56.69403584484796</v>
+        <v>59.77218572363368</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.267861258563652</v>
+        <v>8.833366668386233</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.06103332129818</v>
+        <v>32.57552235961156</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>42.80811617082222</v>
+        <v>45.74296292106018</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10.39857747015221</v>
+        <v>15.80276061769185</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>26.54785706953831</v>
+        <v>32.03207977250077</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.09074390674143</v>
+        <v>38.81406808834603</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.8277187697655961</v>
+        <v>7.190968576542133</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>16.19914739514103</v>
+        <v>20.40086206291213</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.45589344643499</v>
+        <v>29.1056318443305</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.266656757386912</v>
+        <v>7.991265084257339</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.38554393531105</v>
+        <v>34.02379190313508</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43.58101981696697</v>
+        <v>43.94465037399652</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.90172255279507</v>
+        <v>41.09794882881724</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.05605204881472</v>
+        <v>54.27403789794156</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>62.40463516478145</v>
+        <v>62.03084526815325</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5.703232981969514</v>
+        <v>16.13489215010212</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.11191195579067</v>
+        <v>42.6218900312863</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>44.02344608522468</v>
+        <v>47.92831743960771</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.796079529010324</v>
+        <v>8.618511241375636</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>27.80691620990501</v>
+        <v>30.41447705616663</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.55253375018957</v>
+        <v>37.76416710982055</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.885354654653362</v>
+        <v>7.68255594607005</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.1868867350796</v>
+        <v>32.83218204857139</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>37.63384885992186</v>
+        <v>36.99443424643217</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>9.202761229138384</v>
+        <v>8.441276284022454</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>58.45040742188239</v>
+        <v>53.41043775036805</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>63.05897531047135</v>
+        <v>59.33844587525893</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>51.02103488833601</v>
+        <v>48.77518018064093</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>60.07280925598972</v>
+        <v>56.08340534840356</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>54.7662395863122</v>
+        <v>51.37594391789204</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2.690280659417457</v>
+        <v>9.247817401756027</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.77300303578686</v>
+        <v>36.1094610467792</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>48.05366978027958</v>
+        <v>45.45153269431677</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5.393356722753296</v>
+        <v>10.00482193131925</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.66210014502871</v>
+        <v>34.61860043707065</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.68368450669597</v>
+        <v>39.11265773086495</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.359826633499672</v>
+        <v>6.47731948668935</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>18.07780018674151</v>
+        <v>20.81945496409144</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.26958183397216</v>
+        <v>29.24155120849611</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2.06134749991482</v>
+        <v>6.788100484837724</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35.69741131346392</v>
+        <v>38.23028174938669</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.40534152526374</v>
+        <v>46.56940270328234</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>40.00850502816061</v>
+        <v>39.18072235869681</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>51.72097734247952</v>
+        <v>54.38621752962823</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>59.34799202778461</v>
+        <v>60.36341056587088</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.3824819840123332</v>
+        <v>7.669244009947441</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>41.06099067954383</v>
+        <v>43.3684642575641</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>49.26430102508536</v>
+        <v>48.55431139250561</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5.196986551977535</v>
+        <v>9.747450467458041</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.89976677208367</v>
+        <v>35.81706410894108</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>40.29621277570844</v>
+        <v>41.91132864165179</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.6132022220192823</v>
+        <v>7.37969667308802</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>26.87941906783239</v>
+        <v>28.46790059449067</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>35.0389294128378</v>
+        <v>34.09323005305814</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.735488238954684</v>
+        <v>7.868428366001808</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>50.17579885462395</v>
+        <v>47.88291356055457</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>67.93422273956597</v>
+        <v>63.91464549223543</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>51.56022752365213</v>
+        <v>49.1259992830424</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>64.4198420196542</v>
+        <v>66.28859248878723</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>73.28100706508783</v>
+        <v>70.56057710811118</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-1.613041360555908</v>
+        <v>8.323628702312821</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>50.23712789294387</v>
+        <v>51.98953357901226</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>59.51861562958221</v>
+        <v>58.32671940852202</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>15.01209651627783</v>
+        <v>18.94256436986976</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>23.99076051639758</v>
+        <v>27.71830961981481</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.39205647355784</v>
+        <v>34.40097147369087</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.065485489945516</v>
+        <v>6.932427365116244</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>26.24401154343477</v>
+        <v>29.34970383550939</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.11053724379145</v>
+        <v>31.38162748943933</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.767102054668413</v>
+        <v>9.512850005129639</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>50.13782708186159</v>
+        <v>52.48769100097132</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>51.97673187613739</v>
+        <v>52.54345410447427</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38.28716581795624</v>
+        <v>39.37479666919273</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>45.86432177908095</v>
+        <v>46.19358462098678</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>44.77276895792331</v>
+        <v>44.72997200787844</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9.708113574029124</v>
+        <v>15.7629545053717</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.19442878122836</v>
+        <v>29.94884770615268</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>32.20606913379979</v>
+        <v>33.70439683134953</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>15.51419446668822</v>
+        <v>23.35884809901445</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>34.5081516946797</v>
+        <v>37.7510586304467</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.22993086763205</v>
+        <v>39.9656398216838</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.958666559364485</v>
+        <v>7.518716138858107</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>23.08921475136573</v>
+        <v>27.22487118700498</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.01502450342292</v>
+        <v>31.16603291564</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.95087627510626</v>
+        <v>9.039803644047783</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.14458367434996</v>
+        <v>46.27348297686831</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>52.56945736051348</v>
+        <v>49.48172096194506</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>43.85409463276896</v>
+        <v>44.99869133596405</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>54.72320978563209</v>
+        <v>56.33955446484383</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.00160191678799</v>
+        <v>59.99401354135401</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>15.80721785353675</v>
+        <v>21.29807519303457</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>41.6016324421843</v>
+        <v>43.8130073299716</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.79797729765269</v>
+        <v>50.15613833286223</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>20.66593740920291</v>
+        <v>22.23931171263488</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.46190505469778</v>
+        <v>37.29538343063386</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>43.45260688836046</v>
+        <v>40.99859278225847</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2.227485602413569</v>
+        <v>7.832528468269384</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>27.50857845634429</v>
+        <v>29.33205749264307</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.59639450893031</v>
+        <v>34.20096560953169</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5.296124767158329</v>
+        <v>9.084024485232305</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>48.83138089961871</v>
+        <v>50.97221282740405</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>66.2162176004377</v>
+        <v>62.55916511907849</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>53.45597345423022</v>
+        <v>52.0915099731415</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>64.01026584263792</v>
+        <v>62.18413138320623</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>72.27511692343121</v>
+        <v>68.93032274641956</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>16.85893437262831</v>
+        <v>20.869030989216</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.7610994447783</v>
+        <v>50.50977413721726</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>58.28414410295598</v>
+        <v>57.50143854936483</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7.605061413617417</v>
+        <v>14.60983930036025</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>11.12265502075642</v>
+        <v>16.99821896227787</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.07777274949557</v>
+        <v>18.06604513290329</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.9948894366209764</v>
+        <v>7.936727797669015</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>11.99730356855216</v>
+        <v>13.28169533348715</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.29292087624581</v>
+        <v>13.96478249001775</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4.98495820495684</v>
+        <v>11.20749925325733</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.06405646168259</v>
+        <v>22.3427969782661</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.26765091612206</v>
+        <v>22.90097613092041</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>18.00675610688373</v>
+        <v>20.48731076750646</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.06575896501452</v>
+        <v>22.87462767872331</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.11321119878033</v>
+        <v>27.56004813197615</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>51.13289071957266</v>
+        <v>54.79231246937728</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>54.05242520492409</v>
+        <v>57.21910281215745</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>55.16038881992094</v>
+        <v>55.88640405479003</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>7.621143854498307</v>
+        <v>13.47877996496896</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.50568070802396</v>
+        <v>28.44753288209408</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>34.02468943738126</v>
+        <v>37.3683730192312</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-4.633675587053464</v>
+        <v>6.07066651561491</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>4.122765681308096</v>
+        <v>11.17243872006882</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>17.14517388639454</v>
+        <v>20.43035726320455</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-0.4281175504523205</v>
+        <v>7.240257073239938</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>16.55229895535852</v>
+        <v>23.21597657022523</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.06448645901179</v>
+        <v>40.10693086838474</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>18.80117695217066</v>
+        <v>24.91843618348959</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.28974623843806</v>
+        <v>41.07004364397287</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>49.25250310923145</v>
+        <v>53.15854759196218</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1.137618094548287</v>
+        <v>9.435982514550062</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>24.3286289637964</v>
+        <v>31.57212160458288</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>35.61708219189562</v>
+        <v>38.56095706426321</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.70901508801806</v>
+        <v>22.64828806337113</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.68878665125279</v>
+        <v>30.75917090713686</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>35.3018307856311</v>
+        <v>37.30655178976134</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-3.86147096657896</v>
+        <v>6.603239815129477</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>11.09193233666151</v>
+        <v>15.94235243535514</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>20.09116698059889</v>
+        <v>23.32866136635356</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.032954016294926</v>
+        <v>10.51469428900284</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.33098639411913</v>
+        <v>32.22532297514929</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>43.97169530637284</v>
+        <v>46.64751923346863</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>25.13150894441482</v>
+        <v>31.26712533468226</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>40.0284935240857</v>
+        <v>43.94863102078361</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>55.44630898558171</v>
+        <v>57.07116677580579</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>9.188897209311788</v>
+        <v>20.38383958955345</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>36.5413059848112</v>
+        <v>43.66551432189176</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>43.59652588302825</v>
+        <v>49.32036450563928</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6.179328570577624</v>
+        <v>10.57829651660775</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>16.71138119271512</v>
+        <v>19.91959869949611</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.65070787214456</v>
+        <v>27.94111958139087</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.875666317960942</v>
+        <v>7.869049987790127</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.99177728244448</v>
+        <v>25.77529421964003</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.54225229919769</v>
+        <v>31.11011077337324</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.684344269342198</v>
+        <v>12.40879454846802</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>58.47354446398153</v>
+        <v>52.95704826846073</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>55.52706673549584</v>
+        <v>54.11491753603942</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.24643827556736</v>
+        <v>36.81955693304128</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>45.36263345964247</v>
+        <v>44.44634111997445</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>46.87965608569426</v>
+        <v>45.21583007890666</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>7.872813314008791</v>
+        <v>16.82911856602004</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6.711676043263587</v>
+        <v>15.07310181468977</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>13.93829469749943</v>
+        <v>16.26221522417141</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.30115939718659</v>
+        <v>25.52872124176817</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>37.39196568817081</v>
+        <v>38.17619532501314</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>40.97786755654109</v>
+        <v>37.82015136365674</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4.302705815811034</v>
+        <v>8.422162414408781</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.51714256160642</v>
+        <v>28.46860474907627</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.29142422153123</v>
+        <v>34.57591817897487</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>6.368832779249679</v>
+        <v>9.783301916116532</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>44.04816119710044</v>
+        <v>47.74608343147676</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>51.5299766251555</v>
+        <v>50.86960246532089</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>45.75243952951868</v>
+        <v>48.37504744191953</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>56.84951572114892</v>
+        <v>60.38696032076435</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>63.67108088206611</v>
+        <v>62.86512415479834</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.94769883274318</v>
+        <v>28.73456388213402</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>43.62585866008942</v>
+        <v>49.18514125830532</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>52.66241256491641</v>
+        <v>53.6128485859515</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.3670174829868</v>
+        <v>26.23593058225311</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.91506333135637</v>
+        <v>38.82632094608884</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>42.24011652725344</v>
+        <v>40.67389489599883</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>2.532512154624072</v>
+        <v>7.781889300561573</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>23.45875700440404</v>
+        <v>24.14135548878464</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>32.24005630654561</v>
+        <v>31.36386444708877</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>7.301967216452194</v>
+        <v>12.10355023143446</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>44.2766102486239</v>
+        <v>47.08816011588095</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>60.37464085941134</v>
+        <v>58.65397724286974</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>47.82602580362393</v>
+        <v>51.13008647916003</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>60.36651498063308</v>
+        <v>61.13302235115893</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>67.92197500412354</v>
+        <v>65.67046358577872</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>24.83948261751961</v>
+        <v>28.51860585083861</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>48.3672117391706</v>
+        <v>52.07673655760292</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>57.77732528292138</v>
+        <v>59.77323107084818</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>4.566525278492332</v>
+        <v>9.44293535314306</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>16.35082481515568</v>
+        <v>19.30723497489335</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.73528129887021</v>
+        <v>30.61897586095159</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>5.379629861428111</v>
+        <v>7.846743372562429</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.98191360788159</v>
+        <v>34.60300766202082</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>33.92369165341476</v>
+        <v>34.12087054207673</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.41786493877162</v>
+        <v>11.7207249965438</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>57.80353483346207</v>
+        <v>57.03287328793425</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>59.11960149626415</v>
+        <v>58.29520840507352</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.91837583286029</v>
+        <v>38.24826816052386</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>49.38215450601105</v>
+        <v>46.92624312948998</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50.22027714068146</v>
+        <v>47.7736387069808</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>4.979030955692753</v>
+        <v>12.76567666178409</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5.143694515106862</v>
+        <v>12.87005014489933</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>9.83190529551897</v>
+        <v>13.76602921834906</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>16.83707335565076</v>
+        <v>19.71309920703311</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>39.03663235543547</v>
+        <v>40.93460357148764</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>41.19266742692437</v>
+        <v>41.6428937413687</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>6.227819568253185</v>
+        <v>7.823473299536701</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.85595407885019</v>
+        <v>33.65033863695249</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>37.64310756616337</v>
+        <v>39.81361393962303</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>6.646213047780734</v>
+        <v>8.365098388433289</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>53.06240241424098</v>
+        <v>54.55618609264018</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>56.60087854825593</v>
+        <v>56.48911254129372</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>48.48336002249892</v>
+        <v>45.94090907517971</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>59.64834828187638</v>
+        <v>58.25177274035599</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>64.33984574814133</v>
+        <v>64.22603182196661</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16.28884782133788</v>
+        <v>18.00375045269977</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>53.83176000580553</v>
+        <v>53.49502644453645</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>58.63657296308448</v>
+        <v>57.47576232163761</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>19.66183994511735</v>
+        <v>22.04779760170262</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.45337778037175</v>
+        <v>41.43438125383572</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>45.35972417490861</v>
+        <v>42.80293982020416</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>5.486398735631429</v>
+        <v>7.936694128130096</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.3713714582004</v>
+        <v>30.57864896350007</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.0759836087126</v>
+        <v>33.84362447163321</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.799174053361718</v>
+        <v>9.989482577868305</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>51.92524018051538</v>
+        <v>52.69860968716873</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>65.55142286587156</v>
+        <v>61.55453736574903</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>55.20765169312554</v>
+        <v>54.18266704134578</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>67.76666680608326</v>
+        <v>65.94066238942025</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>73.61421619316421</v>
+        <v>69.88518851817886</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>12.67324322399628</v>
+        <v>17.09018201387834</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>55.42839530654441</v>
+        <v>55.38063255573657</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>62.64973788835401</v>
+        <v>60.37311210029951</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>4.136197477458342</v>
+        <v>11.99866761607559</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>5.501037527033898</v>
+        <v>12.16710151359547</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>11.2115102517411</v>
+        <v>13.77149787835509</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.3297789816593415</v>
+        <v>7.276869567261134</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>9.736769191957375</v>
+        <v>12.78819415525647</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>11.85831890240087</v>
+        <v>12.61877324623185</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>3.060849557181573</v>
+        <v>10.1713213697039</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.04259405932577</v>
+        <v>18.32439270608911</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>21.18192746842255</v>
+        <v>20.52203791987027</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>18.53263141081854</v>
+        <v>22.83625498854364</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.23871460479889</v>
+        <v>26.33512087355249</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.07014067610063</v>
+        <v>28.90969302954483</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>3.200518990234148</v>
+        <v>10.95893578688776</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>4.356741059573945</v>
+        <v>11.83884139050676</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>9.607052562056216</v>
+        <v>14.86724333322365</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>9.00982383630574</v>
+        <v>13.65031500806361</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>22.44569475296905</v>
+        <v>28.00791961108963</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.74600907324753</v>
+        <v>32.68897693780779</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>2.211144333655771</v>
+        <v>7.812186711721083</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>13.16048603440032</v>
+        <v>18.05337750974422</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.81145457677443</v>
+        <v>26.52275735999853</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>3.169165951669363</v>
+        <v>10.52434058188375</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.27956609250099</v>
+        <v>31.15384954249206</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>38.49146709232088</v>
+        <v>41.75010216015428</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.22503228582651</v>
+        <v>31.68851749253899</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.84247878148201</v>
+        <v>42.87451539347396</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>45.94035142763023</v>
+        <v>47.26451551179997</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>6.307873566188121</v>
+        <v>11.84847471125561</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.42028782763074</v>
+        <v>34.99457044329728</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>37.08478139028381</v>
+        <v>42.05664661113657</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>8.640376546109422</v>
+        <v>13.41583281880978</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.01455607942206</v>
+        <v>26.92264752360215</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>33.27041749007638</v>
+        <v>35.84545501558718</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>0.3522480174265716</v>
+        <v>6.965931498535859</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>19.81076975479266</v>
+        <v>22.01670174180532</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>27.27672902037252</v>
+        <v>28.78014360732475</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>3.812804841213794</v>
+        <v>9.976622798744032</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>34.31691855725903</v>
+        <v>37.34378553071024</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>46.68050633225446</v>
+        <v>46.91404927014295</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>43.56737884767085</v>
+        <v>45.90818334689406</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>55.56320274357344</v>
+        <v>58.57661358969186</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>60.50603873731075</v>
+        <v>58.96074244498622</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>7.205255141961619</v>
+        <v>12.74979623175746</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>39.75923944812433</v>
+        <v>43.53429181382243</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>51.19207164599516</v>
+        <v>52.30358859451593</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>0.8778267811483786</v>
+        <v>8.189543322270467</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>5.051891260658408</v>
+        <v>13.5260844624818</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>10.51859159281386</v>
+        <v>15.10944391561881</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-0.3141786158926116</v>
+        <v>6.789639345260394</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>9.533058347553546</v>
+        <v>12.67672688328021</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>11.20384979335939</v>
+        <v>16.06687707931816</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>1.729157783728667</v>
+        <v>7.477665100231622</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.73964412569861</v>
+        <v>16.39649446989037</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.83273622311328</v>
+        <v>14.15594671262663</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>12.03663867473944</v>
+        <v>14.71550073823131</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>13.69114946220389</v>
+        <v>16.41155293327279</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.69620876467424</v>
+        <v>16.95492246472907</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>3.434394434430914</v>
+        <v>10.53036885335663</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>9.25863804064041</v>
+        <v>15.05238594586298</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.0198184775078</v>
+        <v>16.22777019824275</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>4.748276319852831</v>
+        <v>6.865772191878929</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>10.32922400632085</v>
+        <v>10.52985668908268</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>18.5490190127966</v>
+        <v>20.69377233233414</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>1.146145814233101</v>
+        <v>6.942563602188994</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>2.439288303568485</v>
+        <v>7.355836148006649</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.99333741623207</v>
+        <v>13.97230278377561</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>2.049982943257184</v>
+        <v>8.357810285519893</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>3.445327376710381</v>
+        <v>9.985176399688442</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>22.49751201919045</v>
+        <v>24.52312853326485</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>3.847672241637738</v>
+        <v>11.42544710412833</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.05865818664091</v>
+        <v>25.4152833079415</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.25522135608528</v>
+        <v>39.04407995268333</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-0.8707661209041184</v>
+        <v>6.876528299259739</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>5.7746261454026</v>
+        <v>13.23076829345891</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>10.5813729467291</v>
+        <v>14.85174697625157</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-0.2338108906736771</v>
+        <v>6.239058827131494</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>7.549569194370921</v>
+        <v>12.28554546874946</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>20.06837419374299</v>
+        <v>25.05791090445024</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1.508799009344713</v>
+        <v>6.942833902205923</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>4.589304644684113</v>
+        <v>9.328405236250902</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>15.23720694622125</v>
+        <v>20.21306136789479</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-0.8529471994160005</v>
+        <v>7.401414701257284</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>5.958692213022083</v>
+        <v>12.90858610156686</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>32.91891451943974</v>
+        <v>35.0508955972054</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>8.986747840903854</v>
+        <v>16.89774902684838</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>40.19873207535684</v>
+        <v>42.48179355564795</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>53.67198223579311</v>
+        <v>53.86795258070912</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-4.473533479820457</v>
+        <v>6.087880782586385</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>4.589709608468507</v>
+        <v>12.5527700002874</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.11734030853248</v>
+        <v>18.87896489782192</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>4.990714623241324</v>
+        <v>15.92626842052314</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>11.53369702594414</v>
+        <v>19.26305241648263</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>31.51771655268097</v>
+        <v>35.62247593552998</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3.547701140926875</v>
+        <v>8.082918392323414</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>34.89848757299045</v>
+        <v>39.30874014964526</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>39.92324760441155</v>
+        <v>40.06359300599694</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>8.032147608268311</v>
+        <v>11.89128945699621</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>55.78631516725439</v>
+        <v>54.91859103860102</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>61.89373923111296</v>
+        <v>58.84315153470557</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>43.28696976934756</v>
+        <v>41.9976024310921</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>48.55213108673706</v>
+        <v>46.26255225739108</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>47.42600874943194</v>
+        <v>46.93087599151003</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>18.28659086518792</v>
+        <v>27.46294779645823</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.64556160210614</v>
+        <v>35.28406596526605</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>58.24520096673483</v>
+        <v>61.61039615661366</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>9.231610751268756</v>
+        <v>13.21978860320699</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.78453544608082</v>
+        <v>30.88343351379077</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.53387640065664</v>
+        <v>32.72037159581083</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>3.209873906175456</v>
+        <v>7.210750480337914</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>23.17848581314463</v>
+        <v>26.55161334683473</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.443674541556</v>
+        <v>28.97924773157141</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>4.436293603220737</v>
+        <v>9.960164683056057</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>38.56413776521131</v>
+        <v>41.5185723467743</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>45.40987885376867</v>
+        <v>43.96960209024258</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>37.84818643373329</v>
+        <v>37.58082418765746</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>47.04326662733289</v>
+        <v>46.78375095807817</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>50.86822909329225</v>
+        <v>49.58672603661156</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>16.44740455663003</v>
+        <v>20.49817428227465</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>39.08612346285496</v>
+        <v>39.93624254479023</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>45.34523751738494</v>
+        <v>43.9837630044959</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>12.53457898670788</v>
+        <v>17.55572193228696</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.33080781680579</v>
+        <v>29.52961973594914</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.86357697576786</v>
+        <v>39.49010970557035</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>4.64447937454889</v>
+        <v>7.614925497643799</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.35704420715043</v>
+        <v>31.17047323048772</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>34.7907721339562</v>
+        <v>35.50180545506404</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>9.301568612819382</v>
+        <v>11.47272861809522</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>47.11505124423461</v>
+        <v>48.63967952088381</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>63.88941041624309</v>
+        <v>60.7020061713248</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>51.36696448663177</v>
+        <v>48.62308658778463</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>59.91937979405293</v>
+        <v>58.855840966055</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>67.35168375534627</v>
+        <v>62.19153193057258</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>17.25321772590281</v>
+        <v>19.89542172891969</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>47.96175612968921</v>
+        <v>50.66868497229166</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>61.71000490403308</v>
+        <v>60.19820481216413</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>6.032542906380019</v>
+        <v>12.27850177876434</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>7.339971804095846</v>
+        <v>12.82815863687514</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>13.5439220972406</v>
+        <v>14.83709423358864</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>0.01957504756786932</v>
+        <v>7.960071249594062</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>4.94133012274612</v>
+        <v>11.40165869664345</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>7.470120319937234</v>
+        <v>13.80476171543131</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>4.270046457286742</v>
+        <v>10.70090246344603</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.32240926372181</v>
+        <v>16.28605057894197</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>18.1816120449487</v>
+        <v>17.95264952430354</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>14.0757112192141</v>
+        <v>15.98150856889263</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>16.07045885140862</v>
+        <v>18.7140588677597</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>20.23045852786669</v>
+        <v>20.68525155709365</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>3.752813659208222</v>
+        <v>10.80632137497318</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>2.144819750449692</v>
+        <v>11.7316251057727</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>8.085308363471828</v>
+        <v>14.16325093075612</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>2.956750155133069</v>
+        <v>9.772842043260535</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>12.36599270540123</v>
+        <v>17.6620499926678</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.94798381059537</v>
+        <v>27.17978156162122</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-2.20142441708278</v>
+        <v>6.088154857977283</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>2.241221313868582</v>
+        <v>9.031172551644733</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15.00543032466515</v>
+        <v>20.96557825105362</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-1.940912809731991</v>
+        <v>7.708507210349172</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>5.258630743693935</v>
+        <v>12.22010488551072</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.52709966743429</v>
+        <v>30.82291987847743</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>9.299670975657245</v>
+        <v>15.72745828223813</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>18.97173136744301</v>
+        <v>24.95575039867916</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>31.24598310400732</v>
+        <v>36.79885803669031</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1.433316664727194</v>
+        <v>6.325530351763234</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>13.22054994555829</v>
+        <v>17.65629692074821</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>22.94840885342976</v>
+        <v>25.21533635111239</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>6.469962153720164</v>
+        <v>13.29716517963132</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>16.19202773691031</v>
+        <v>21.77339661370165</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.34064741880842</v>
+        <v>31.70297566061634</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-1.25845968900709</v>
+        <v>7.13032912959989</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>6.859318032400811</v>
+        <v>13.95625824025788</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>18.1935386616596</v>
+        <v>24.40439063261752</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>3.063159479366988</v>
+        <v>12.15228383964997</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>14.84572461593445</v>
+        <v>22.73233571354312</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>36.3011360914189</v>
+        <v>38.82034991785357</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>16.99784514110611</v>
+        <v>24.84393123772797</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.26850763523478</v>
+        <v>31.24502027859574</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>46.2030221416867</v>
+        <v>48.31802969560925</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>8.680398128387587</v>
+        <v>17.56818758546147</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.60508895753742</v>
+        <v>27.35824963527295</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>33.70111008384635</v>
+        <v>37.55690069541932</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1.397749983842097</v>
+        <v>6.08786594726676</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-1.620036349495706</v>
+        <v>7.002275688263616</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>6.588031291319545</v>
+        <v>11.07362791231525</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-0.5195572489450626</v>
+        <v>6.861983980019417</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>2.168652032228177</v>
+        <v>6.858923893357165</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>3.984521562290251</v>
+        <v>7.767623041984745</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>4.684752617280886</v>
+        <v>9.831827769272266</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>9.914544018813739</v>
+        <v>11.05519378455656</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>13.32013497652428</v>
+        <v>11.72381991711847</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>4.260671634495861</v>
+        <v>7.497408248004781</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>4.054159231449173</v>
+        <v>7.542510835146501</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>12.41852654632576</v>
+        <v>16.67693054254405</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>0.05784018822406978</v>
+        <v>6.876406371045363</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-3.437021317524753</v>
+        <v>6.088169168755186</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-1.663251772268598</v>
+        <v>6.204967180566339</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.21013296305905</v>
+        <v>19.64150467801861</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.06740274339175</v>
+        <v>30.71871205148691</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.94954542492189</v>
+        <v>33.6772487607599</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>6.179357687449162</v>
+        <v>7.998592924481628</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>20.55237572392096</v>
+        <v>22.90569465564957</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>27.71665515610441</v>
+        <v>28.37269456561676</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>8.550255850927829</v>
+        <v>11.43354133789137</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>39.29435619827392</v>
+        <v>42.78260168753491</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>46.66564566810305</v>
+        <v>47.06007560048995</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>37.25873996093968</v>
+        <v>38.51786928145631</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>45.31292819293691</v>
+        <v>47.68788490737511</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>50.43642029309739</v>
+        <v>46.9933598038306</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>13.35372368035318</v>
+        <v>18.81216289186911</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>37.46215588408378</v>
+        <v>38.74925413085774</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.27216160291054</v>
+        <v>44.9622871148094</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>17.40366244225662</v>
+        <v>20.39859494786185</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.06454664245796</v>
+        <v>33.20657495688588</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.25629952616703</v>
+        <v>42.95862097624314</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>2.392577655414893</v>
+        <v>7.227771199027167</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>24.9137202659931</v>
+        <v>26.64106984501245</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>32.42559461453317</v>
+        <v>30.99357911533165</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>6.300994168273697</v>
+        <v>10.73262294173599</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>44.78731274123538</v>
+        <v>45.47755136820165</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>58.52002588337018</v>
+        <v>55.86745553423955</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>48.80862709080196</v>
+        <v>49.46917655652545</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>57.27314940626303</v>
+        <v>59.23491175298403</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>66.06319403565395</v>
+        <v>63.02678514344055</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>9.606058283068984</v>
+        <v>14.7113771770373</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>45.47120506320695</v>
+        <v>47.4607036927018</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>52.77343915573091</v>
+        <v>52.65942347364834</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.22946058951397</v>
+        <v>15.34156595143744</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.53480559934552</v>
+        <v>16.5971457103022</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.9772312827187</v>
+        <v>17.31802912471319</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>3.501936104885171</v>
+        <v>8.995094288505584</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>11.46612113349006</v>
+        <v>16.51034723887878</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>12.70563686312954</v>
+        <v>16.99528786070761</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>12.27061311611533</v>
+        <v>15.79844107621403</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.38125690077134</v>
+        <v>23.94571889644486</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.07381343075388</v>
+        <v>23.19404585546199</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.59819841356722</v>
+        <v>20.90367319577627</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>22.99257462843598</v>
+        <v>24.51450637476264</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.94507982380395</v>
+        <v>26.8114915983467</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>10.34273939343114</v>
+        <v>17.99045077235998</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>8.771924236387502</v>
+        <v>15.0057716942175</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>16.68136162743717</v>
+        <v>18.29922728432756</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>3.471544028118448</v>
+        <v>7.992042314660015</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>10.53106460202411</v>
+        <v>14.13183327350873</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>17.68258221753974</v>
+        <v>22.21823905802068</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-1.736625781310401</v>
+        <v>6.318194905674339</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>0.02655474061623053</v>
+        <v>7.937344512441598</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>10.30382796738026</v>
+        <v>16.35571223628611</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-1.648475302403291</v>
+        <v>6.153983366455844</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>4.072691058341793</v>
+        <v>10.70764251604621</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>20.59100362715451</v>
+        <v>22.90319785403468</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>7.928938558283559</v>
+        <v>13.95054590040442</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>15.52337509649276</v>
+        <v>19.62429355256682</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>27.83742439723364</v>
+        <v>29.11852101284181</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-0.549525412920211</v>
+        <v>6.657957026215882</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>9.060013338632658</v>
+        <v>13.23918258097224</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>17.70905548123228</v>
+        <v>18.92857675581315</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>13.74288388789794</v>
+        <v>18.44403337359184</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>22.59297266735036</v>
+        <v>27.47208489683686</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.49554758047262</v>
+        <v>30.81802211598257</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1.009970157769786</v>
+        <v>7.650609897442401</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>10.79908349549296</v>
+        <v>18.14105413539925</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>17.99294931819217</v>
+        <v>21.9939987235336</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.974769288306348</v>
+        <v>10.9607969398124</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.16832222878817</v>
+        <v>30.32360081471329</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>40.19056026309504</v>
+        <v>41.67703890121013</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.12064937359635</v>
+        <v>31.83118965945675</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>34.91860656587072</v>
+        <v>36.83078189558416</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>46.74113658829603</v>
+        <v>46.67004907088877</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>10.61012589473406</v>
+        <v>14.144541143688</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.84358154677124</v>
+        <v>30.66406029627735</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>31.74780185504949</v>
+        <v>34.72639303356455</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>2.310997593831573</v>
+        <v>7.095799417011978</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>3.081007598377433</v>
+        <v>9.099946785805781</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>6.233673014134496</v>
+        <v>9.186584315752231</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.172855100989736</v>
+        <v>7.097567770019218</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>3.100825615575776</v>
+        <v>8.323883759840363</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>3.944352923483727</v>
+        <v>9.04578169626479</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>7.401180882633472</v>
+        <v>10.69367925150096</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>9.372684333140791</v>
+        <v>12.11911051880744</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.55609857090298</v>
+        <v>11.46808481006532</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.068491059962344</v>
+        <v>8.543434788414675</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>5.117025944665716</v>
+        <v>7.708543683847854</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>10.33736630684553</v>
+        <v>12.17893035349128</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.767880233121698</v>
+        <v>7.685794667679151</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>1.402679995139593</v>
+        <v>8.568347560190919</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>5.007235894708554</v>
+        <v>9.322202668401591</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.233268688914904</v>
+        <v>7.123970378522721</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>4.903565237060093</v>
+        <v>8.655772291191106</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>6.786588315678607</v>
+        <v>9.293065456428046</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-0.5161891527871951</v>
+        <v>6.942524001446053</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-3.441750904212959</v>
+        <v>6.321425829294874</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>2.461401068568804</v>
+        <v>8.371676445984626</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-0.2408435444379293</v>
+        <v>7.266413195053513</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-2.688909954900495</v>
+        <v>7.428821142297902</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.379351211810807</v>
+        <v>9.315966092186201</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>1.073940359241298</v>
+        <v>6.819903987767681</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>4.549610932071012</v>
+        <v>8.667081506462626</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>6.319948818413668</v>
+        <v>9.105512515566605</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-1.700014783478604</v>
+        <v>6.900040547252956</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>0.05194534375152671</v>
+        <v>7.496511258289029</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>2.600682687240656</v>
+        <v>7.826424610639442</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>14.60645615128472</v>
+        <v>20.02135815418843</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>18.90841433234688</v>
+        <v>23.00974868872921</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.70898571888933</v>
+        <v>23.4056065848176</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>1.206027354992433</v>
+        <v>8.131363371245126</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>7.447682053901069</v>
+        <v>13.88521700094551</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>12.2235733928905</v>
+        <v>16.20783853094065</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>8.651874501076133</v>
+        <v>13.30382414323519</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>19.2798254338506</v>
+        <v>24.51178043576184</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.59635320658871</v>
+        <v>27.78500082623201</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.21622669388124</v>
+        <v>24.3235367673181</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>23.89306778440715</v>
+        <v>27.16885068121373</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>31.21515693892047</v>
+        <v>29.29149068274592</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>14.62906600234292</v>
+        <v>19.12333187879897</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>16.41977387693721</v>
+        <v>23.10938920551872</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.92744303347753</v>
+        <v>26.39525926864979</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.82385384168312</v>
+        <v>19.0226967379758</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.93083337068635</v>
+        <v>28.79244833434217</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>32.69203115564727</v>
+        <v>36.00153811068964</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>4.158297799205211</v>
+        <v>7.45172623201065</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>17.43268895607557</v>
+        <v>19.50994338930755</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.44452828092926</v>
+        <v>23.24668904467712</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>11.44148346642073</v>
+        <v>13.85717953968085</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>41.11145117834893</v>
+        <v>37.47923586331868</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>43.22049176315464</v>
+        <v>41.89788166351046</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.88897788292696</v>
+        <v>35.06979137738977</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.83856149871893</v>
+        <v>39.80593770566466</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>42.6076912634509</v>
+        <v>41.87439019104949</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>20.63413188020843</v>
+        <v>26.01575965032635</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>38.42908944537301</v>
+        <v>41.02453899628941</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>45.92325626615359</v>
+        <v>45.23173087034255</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>12.29134343070161</v>
+        <v>17.40444355314629</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.30906269226655</v>
+        <v>26.04307220442708</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.28357347900029</v>
+        <v>30.32786372856116</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-0.1980799991227897</v>
+        <v>7.514440121477367</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>4.297804931581055</v>
+        <v>11.53092434626741</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>10.24432295433335</v>
+        <v>14.45852561281028</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>4.210904068277113</v>
+        <v>11.00434710081781</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>16.53877761800492</v>
+        <v>23.67639549492887</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.37011954755727</v>
+        <v>27.79688972909758</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>17.30413875830939</v>
+        <v>22.62819529103657</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.36092579394905</v>
+        <v>27.94602904992733</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>31.91938528375156</v>
+        <v>30.19454669955815</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>10.65589932463621</v>
+        <v>17.21143296280133</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>20.1194218664881</v>
+        <v>28.244784629807</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.95951222748917</v>
+        <v>31.88437094758143</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.29243029541612</v>
+        <v>22.07293425820196</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>27.79834005934703</v>
+        <v>31.29133331540088</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>38.36231942589099</v>
+        <v>40.42010644136904</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>2.466306565920512</v>
+        <v>7.14498520789429</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>15.54524895694553</v>
+        <v>18.63818405110144</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>20.78260742529881</v>
+        <v>21.52270052173601</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>7.066781448101736</v>
+        <v>13.87692079413094</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>31.31494843346723</v>
+        <v>35.44730815464445</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>43.36793480112793</v>
+        <v>44.22361020387009</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>39.02779559336053</v>
+        <v>42.79632495722808</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>46.92590294749512</v>
+        <v>48.74583484905367</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>52.05671503771944</v>
+        <v>50.64279852120517</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>18.12909716797341</v>
+        <v>23.81695742651855</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>35.20987975664579</v>
+        <v>40.30008105720538</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>41.34346589826504</v>
+        <v>43.51155586652109</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>11.41824660199545</v>
+        <v>18.50756283931028</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.58517430216125</v>
+        <v>29.2714695901423</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.86065752443857</v>
+        <v>36.41099576597507</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>7.579883258577343</v>
+        <v>8.240206597768331</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.54397803620267</v>
+        <v>30.78637869020046</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.4730241885195</v>
+        <v>34.59593273644678</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.98391556602848</v>
+        <v>13.18764191238501</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>52.09809132024409</v>
+        <v>50.37455453583317</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>56.76009412869404</v>
+        <v>56.67594498511468</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>49.17500953647905</v>
+        <v>47.15269613018408</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>50.10328740971461</v>
+        <v>50.99727186117089</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>56.18875102666905</v>
+        <v>54.54314408567086</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>12.6245049933968</v>
+        <v>17.24763872473507</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.16032363358624</v>
+        <v>35.25478886794878</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>44.29594809589856</v>
+        <v>45.87455415489961</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>9.949268041387839</v>
+        <v>14.53341733544998</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.27965077457212</v>
+        <v>30.88447559952474</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.93105554760581</v>
+        <v>34.21116421515885</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>3.645442951796213</v>
+        <v>7.600697795069596</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>16.36686763120996</v>
+        <v>21.45287398400905</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>24.43344241645588</v>
+        <v>28.46627328256202</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>3.973631897720072</v>
+        <v>8.811973914768085</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>30.20807009519049</v>
+        <v>37.08232619702059</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>41.65604826254382</v>
+        <v>41.10075161537799</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.17161847418444</v>
+        <v>36.91669727728389</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.63679748028674</v>
+        <v>45.14544605373335</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.00209556450422</v>
+        <v>48.75247271971151</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>6.672603041606994</v>
+        <v>11.66137624651981</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>31.35386208726957</v>
+        <v>34.22971862354009</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.9827797142495</v>
+        <v>41.52589069554325</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>9.267383825015452</v>
+        <v>11.64903325482413</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.93266921473118</v>
+        <v>28.5023452546039</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.61581413580542</v>
+        <v>35.87625573431671</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1.029718016107843</v>
+        <v>6.742557694118467</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>21.1699087942757</v>
+        <v>22.07761381995187</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.44108028591688</v>
+        <v>32.73869058353038</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>2.829754844516692</v>
+        <v>7.932919169660323</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>35.2561168018709</v>
+        <v>36.10658625976525</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>54.33162118043525</v>
+        <v>53.72022159998921</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>40.85159714119019</v>
+        <v>42.72012705835529</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>51.29010726054764</v>
+        <v>54.21049140801426</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>65.21076367533993</v>
+        <v>64.28451656287234</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>3.814980941215371</v>
+        <v>9.697672361705553</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>37.94138322480779</v>
+        <v>41.66054129994328</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>50.29169439432235</v>
+        <v>52.71046777709225</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>7.293799505068964</v>
+        <v>13.6452648752352</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>20.97444616268572</v>
+        <v>21.97453889244777</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>33.38042207266496</v>
+        <v>35.03868976983912</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>5.129213539365804</v>
+        <v>7.634896133040105</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>35.9035677218918</v>
+        <v>38.60104922891831</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>42.3639127615652</v>
+        <v>43.24944355570319</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>9.417809443510944</v>
+        <v>11.1499189392249</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>62.06436419637951</v>
+        <v>57.3131003816447</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>63.1196395085997</v>
+        <v>59.17308304105173</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>46.86794286118899</v>
+        <v>45.35687255498674</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>45.30138198487504</v>
+        <v>45.13059491220592</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>48.78660958472661</v>
+        <v>46.47242000747089</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>4.26730201213751</v>
+        <v>13.1393299958762</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>24.39944040751247</v>
+        <v>28.76654375288746</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>60.62087356371202</v>
+        <v>58.75254669320249</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>15.78274733558029</v>
+        <v>17.98658895589938</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.05663292935924</v>
+        <v>32.06338845033628</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>36.30360215443892</v>
+        <v>34.60813131172171</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1.963354334671241</v>
+        <v>7.86974568226098</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>18.57492168563648</v>
+        <v>24.54541990195732</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>23.37193094384613</v>
+        <v>27.93801882078506</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>2.186636383732072</v>
+        <v>9.325558608057207</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.26181076936016</v>
+        <v>37.72109335273196</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.68253681914034</v>
+        <v>40.90339621020794</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.33856625921296</v>
+        <v>36.04459019665597</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>43.64218271820878</v>
+        <v>43.49464127838547</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>49.86815022585266</v>
+        <v>47.48467285767445</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>7.734799361413916</v>
+        <v>13.44414822853157</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.52528437093331</v>
+        <v>34.4209650406546</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>42.1186569565055</v>
+        <v>40.24624998779673</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>12.49327311862085</v>
+        <v>14.82634108227602</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.01355244521588</v>
+        <v>29.62389006484987</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>37.86642218920385</v>
+        <v>36.64044330380468</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.835384308339243</v>
+        <v>7.667013134476612</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.08655303786992</v>
+        <v>27.61281158432194</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>32.00447273793121</v>
+        <v>32.82839741816739</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>4.59091997213454</v>
+        <v>9.601536244839931</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>41.53954751186834</v>
+        <v>42.97023038314335</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>56.74989461783588</v>
+        <v>54.48313408043593</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>46.29216002222557</v>
+        <v>48.72237177401379</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.77828824341746</v>
+        <v>57.7171156556515</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>66.71150045823924</v>
+        <v>64.07002420405755</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>3.556945386257105</v>
+        <v>11.17844401797619</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>35.65348600301013</v>
+        <v>43.87395178221784</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>49.57155451004972</v>
+        <v>53.8213910142985</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>15.2667999958842</v>
+        <v>21.98244790796727</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.4806726221156</v>
+        <v>23.59918707426917</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.94849855200619</v>
+        <v>36.1302893302604</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>12.24646586348718</v>
+        <v>13.42845171654842</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>47.67814879506641</v>
+        <v>45.39622765045974</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>49.11194210174637</v>
+        <v>49.20137965409947</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>17.62193900400957</v>
+        <v>15.54781360690207</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>63.26434133336589</v>
+        <v>56.96136743988815</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>67.67579877693339</v>
+        <v>60.9383236834759</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>42.09770173368901</v>
+        <v>42.71590249549683</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>42.50403399869347</v>
+        <v>43.50174407147091</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>43.62727621233806</v>
+        <v>43.94940665870669</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>13.05707217544765</v>
+        <v>21.78318139735041</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>19.54644577853507</v>
+        <v>24.1501350278285</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>44.43912376893798</v>
+        <v>43.05398050692215</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.2812756411482</v>
+        <v>24.03877333118784</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.15048772970227</v>
+        <v>32.49085948631966</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>40.72919143088116</v>
+        <v>37.18718536436266</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.2552334762108</v>
+        <v>36.20236974153519</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>43.35175670582203</v>
+        <v>45.603221141793</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.30558417953051</v>
+        <v>47.91289024269588</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>14.21996799168993</v>
+        <v>12.93750304870088</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.48385431039782</v>
+        <v>38.04811732923196</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>48.21100391885265</v>
+        <v>43.42614061118402</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>35.68026028430881</v>
+        <v>38.65586306548942</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>44.54721057653695</v>
+        <v>44.23844514949025</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>51.25878884200432</v>
+        <v>47.325632115036</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>19.18985869981206</v>
+        <v>23.04347824223533</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>31.83385225545391</v>
+        <v>35.51831028043301</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>43.59789340166198</v>
+        <v>41.76752250639463</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.56391013363986</v>
+        <v>22.52694075643468</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>32.49749651958903</v>
+        <v>30.20496051982559</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>39.94660532515807</v>
+        <v>37.5007390855157</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>33.94732111867496</v>
+        <v>36.87683517644123</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>52.28674502094972</v>
+        <v>49.86984232310749</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>51.17777387778396</v>
+        <v>50.25514651183463</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.61012238671323</v>
+        <v>14.21248608802606</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.40953817583379</v>
+        <v>46.40604059386051</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>60.2437236931538</v>
+        <v>56.57011372744324</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>49.00904852333977</v>
+        <v>51.07729508288555</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>58.74431984456756</v>
+        <v>59.07755287705385</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>68.41621285514935</v>
+        <v>65.00218785774197</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>16.93924227342005</v>
+        <v>22.84342101425918</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>38.17927934504434</v>
+        <v>44.73421746790213</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>51.50010334104657</v>
+        <v>54.66368249065917</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>6.234911299127241</v>
+        <v>10.42049102796558</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>20.05540914409263</v>
+        <v>24.09055934259613</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>31.42453349830106</v>
+        <v>33.43779696664705</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>0.5790770372219072</v>
+        <v>6.854627453011215</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>21.59929947630613</v>
+        <v>24.05098406292026</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>23.2290092148385</v>
+        <v>25.57628788733836</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3.61895121933448</v>
+        <v>8.52043235700668</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.81718612097509</v>
+        <v>43.09959532340699</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.03308818075549</v>
+        <v>48.95682653842311</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>44.01719008395175</v>
+        <v>44.39257093649719</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>42.6732599191581</v>
+        <v>45.01197658541729</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>46.30425339474223</v>
+        <v>47.10692083882012</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>-3.173895513291868</v>
+        <v>7.434445055940472</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.22103018936536</v>
+        <v>30.53614377838654</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>35.18684617366447</v>
+        <v>36.28651143737893</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>9.149925265538217</v>
+        <v>12.27733885461373</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.74590873014838</v>
+        <v>29.69022400403016</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>30.42026227643201</v>
+        <v>30.83034669667355</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>2.002809444670877</v>
+        <v>6.92744532545748</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>17.43523601585363</v>
+        <v>22.65523744725903</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>21.66614761695144</v>
+        <v>25.73014760157155</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>2.062099792226537</v>
+        <v>8.618763047394328</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.22604086524067</v>
+        <v>33.44560648415536</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>39.72262618126658</v>
+        <v>38.43234487901661</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.45997545997209</v>
+        <v>34.44323866754359</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>39.59901008315823</v>
+        <v>41.65041492495457</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>45.57163925319396</v>
+        <v>44.8745557509536</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>2.75259306383111</v>
+        <v>9.506323126821442</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.14414728949015</v>
+        <v>34.39012442942889</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.82272363203245</v>
+        <v>38.88167358373408</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>8.574690633175265</v>
+        <v>10.82604474871947</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>26.08517182287318</v>
+        <v>28.00168974676633</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.2968328296059</v>
+        <v>35.56382763607554</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>0.01034603653779342</v>
+        <v>6.898647909245945</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>21.74548524196314</v>
+        <v>23.0581360940253</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.96808333222732</v>
+        <v>28.16987352889757</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>1.487280314555779</v>
+        <v>8.190349552937363</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>35.30291161501749</v>
+        <v>35.35378662822444</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>51.12274649061081</v>
+        <v>48.30988709804507</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>44.55120441524895</v>
+        <v>44.77558230247342</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>54.26654807594099</v>
+        <v>57.93171931321098</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>62.43443348748019</v>
+        <v>60.93833253913674</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-0.9856455079795978</v>
+        <v>8.470220598584138</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>37.55486118143025</v>
+        <v>41.57240288216179</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>47.68539147781226</v>
+        <v>49.64808146703391</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>7.963861853593563</v>
+        <v>15.13397365717848</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>11.65648181871027</v>
+        <v>17.08746952163911</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>17.89577910464848</v>
+        <v>18.54203829878075</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>2.523212331678131</v>
+        <v>8.927647105510509</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>12.30135770503263</v>
+        <v>15.05245026442986</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>14.92193205174803</v>
+        <v>15.64279798958104</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>8.525509755903236</v>
+        <v>14.53245519718024</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>23.62258086693877</v>
+        <v>22.11182197033821</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.23572006485128</v>
+        <v>23.96482910717357</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.15525238357649</v>
+        <v>20.71063223744942</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>20.7389561974468</v>
+        <v>23.49078157929504</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>23.53788241090933</v>
+        <v>25.33740740633816</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>4.565158417876802</v>
+        <v>14.82428907416732</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>8.731353376413328</v>
+        <v>16.14165270077161</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>18.77235130824466</v>
+        <v>19.83729711785013</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>6.634607514007651</v>
+        <v>12.13398006164637</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>18.56733866412238</v>
+        <v>22.8594997906954</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>26.43892199532135</v>
+        <v>29.10527099755433</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-0.7464745520406382</v>
+        <v>6.219287816786515</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>8.573631793634046</v>
+        <v>12.57712812693908</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>17.43752764594218</v>
+        <v>20.83341227687023</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-1.771580628450327</v>
+        <v>7.589264027963576</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>14.67014873219898</v>
+        <v>19.49410642578741</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>30.65257870998999</v>
+        <v>33.84844853408769</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>21.53333964901903</v>
+        <v>24.80087895421781</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.58725013902754</v>
+        <v>32.93696442613605</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>38.23554198873583</v>
+        <v>39.88550192672339</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-0.8509249869932312</v>
+        <v>7.72820795437152</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.23669634455431</v>
+        <v>24.39690648867872</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.83318331177394</v>
+        <v>32.69765375744244</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>8.424442371665634</v>
+        <v>16.08256790079147</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>22.2813975280528</v>
+        <v>28.17040727592807</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.23882910234077</v>
+        <v>32.68864447270522</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-1.063444138957497</v>
+        <v>6.839363915036202</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>16.48672907893615</v>
+        <v>19.57202027435443</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>21.88072347608498</v>
+        <v>25.43366713333499</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>2.242513585152924</v>
+        <v>9.962540090342106</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>27.12109515299701</v>
+        <v>30.27012836977184</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>38.81091032254922</v>
+        <v>42.07565044527676</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>32.23070387427953</v>
+        <v>36.77457823847721</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.07658054555015</v>
+        <v>43.98330549717823</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>45.37995743127709</v>
+        <v>46.84857927016845</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>-1.139353435269431</v>
+        <v>8.352771635186333</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.6674051759409</v>
+        <v>31.83362504907971</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>40.07704675914098</v>
+        <v>43.83212081572756</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>12.55777140276818</v>
+        <v>16.85054211698263</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>17.44219991312851</v>
+        <v>20.45162290727853</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>24.4174152761175</v>
+        <v>23.63487073588</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>5.977330868053144</v>
+        <v>7.938901366229654</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>21.1362007840262</v>
+        <v>23.21945005945736</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>21.12789287275986</v>
+        <v>23.0803388649252</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>16.17463542331753</v>
+        <v>16.13765893917071</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>42.71311686137945</v>
+        <v>35.99282235284524</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.63938831343528</v>
+        <v>36.5911622150047</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.27833292516476</v>
+        <v>26.61530633713178</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.25128912789248</v>
+        <v>29.71977244529605</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>36.83006718743961</v>
+        <v>34.1612924688372</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>5.609796679459048</v>
+        <v>14.59780374730554</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>22.61983130265479</v>
+        <v>28.34994141622828</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>34.09262001935312</v>
+        <v>33.18679643253992</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>10.17364097443323</v>
+        <v>10.13433170059166</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>19.63381965129724</v>
+        <v>22.70070695428571</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.31905548028406</v>
+        <v>33.64530253617769</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>4.37009658512747</v>
+        <v>7.673813657656609</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>7.829206044202376</v>
+        <v>14.68667832558319</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.30787750715553</v>
+        <v>29.10246479977352</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>4.332619900052666</v>
+        <v>9.660823560908671</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>18.20353569211154</v>
+        <v>23.79782401410654</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.49426166594279</v>
+        <v>36.42797790728511</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>16.16443686970503</v>
+        <v>23.55863447737495</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>32.01111861426448</v>
+        <v>34.71681253589166</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>43.34148698046365</v>
+        <v>45.79067688904756</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>2.006686800369312</v>
+        <v>8.329408136673834</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>18.13444006579331</v>
+        <v>26.43907703926436</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>31.89612128676389</v>
+        <v>32.26634805807284</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>10.1334936908025</v>
+        <v>12.43357452012254</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>20.40905120398157</v>
+        <v>22.17267748472727</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.96858556873099</v>
+        <v>30.74499706269696</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>4.19139332693965</v>
+        <v>7.100815261310824</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.59328350685106</v>
+        <v>20.32354557156597</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.00056546887854</v>
+        <v>25.05953303421128</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>4.599715314485735</v>
+        <v>9.55379333052365</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.02678816677945</v>
+        <v>31.15197875096215</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>38.06373774991768</v>
+        <v>36.06954370312346</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>33.31514389220888</v>
+        <v>38.52955774200285</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>41.92066524219302</v>
+        <v>43.10202023296019</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>52.30483391870209</v>
+        <v>50.70110258875883</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-0.2199156358761485</v>
+        <v>7.421559786074358</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>18.53357099408361</v>
+        <v>24.46702194571711</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>33.98677723030961</v>
+        <v>36.79725436177778</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>13.77249574560638</v>
+        <v>20.5112836853179</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>23.34345298775224</v>
+        <v>24.24518231238096</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.31516954292052</v>
+        <v>34.31569274778371</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>5.892559607412007</v>
+        <v>8.28879820543624</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>34.6870983743737</v>
+        <v>39.37984210678876</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>40.78197941917347</v>
+        <v>41.61767635233571</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.28516700462503</v>
+        <v>15.69937488858557</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>57.12513507990603</v>
+        <v>57.73926215926437</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>60.01756772090334</v>
+        <v>58.30015398704251</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>45.96523534023017</v>
+        <v>43.84558103142557</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.25033477394938</v>
+        <v>43.89798135996791</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>46.89661026311934</v>
+        <v>46.20501420429166</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>12.20706038117873</v>
+        <v>21.97891025640325</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>14.48627320032138</v>
+        <v>22.41378906922862</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>57.22556262513531</v>
+        <v>58.23098240528093</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>21.20973922524441</v>
+        <v>24.32163128246355</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>33.0382105109104</v>
+        <v>32.68194481973786</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.59675711674021</v>
+        <v>34.06652138432963</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>6.751394367213418</v>
+        <v>8.870387023700001</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>23.33171672485468</v>
+        <v>26.42771315777799</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.63397151919408</v>
+        <v>30.34080640754686</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>8.607633491967004</v>
+        <v>12.89039043210233</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>37.65168900003359</v>
+        <v>41.09185956438974</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>45.08282886287647</v>
+        <v>45.03371759163585</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>38.98478251841069</v>
+        <v>40.35807671982929</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>44.35442154817862</v>
+        <v>47.79010055284978</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>50.71781752273385</v>
+        <v>47.87590667145405</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>16.5087216591663</v>
+        <v>21.73464180645366</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>33.82274589257035</v>
+        <v>40.32712761205505</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>44.75014155910127</v>
+        <v>45.12773437340968</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>18.85098886455762</v>
+        <v>24.88988182269284</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>31.65487618995315</v>
+        <v>33.10783988587893</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>38.81249303834166</v>
+        <v>37.39734243911192</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>4.722352897139789</v>
+        <v>8.026942643888582</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.81141919346101</v>
+        <v>28.22851586318459</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>32.41325948124177</v>
+        <v>31.93124798082022</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>7.825165378576834</v>
+        <v>12.35822404981241</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>45.15139262976096</v>
+        <v>45.80414259119664</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>57.97419928185461</v>
+        <v>56.07269330663712</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>48.40672659779673</v>
+        <v>49.05400901168471</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>56.46059898660029</v>
+        <v>56.90713877062839</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>66.0964836678144</v>
+        <v>62.35840337303532</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>14.32807218528981</v>
+        <v>17.96079513718988</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>40.8467410162318</v>
+        <v>45.07265601525361</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>54.18468235125306</v>
+        <v>52.75905180489852</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>4.7742927327985</v>
+        <v>10.59683645368224</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>16.70823716732691</v>
+        <v>22.79458332982632</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>27.53253248374672</v>
+        <v>31.00591038555384</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>0.9088889540271694</v>
+        <v>6.872817201170566</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>20.7365079709207</v>
+        <v>24.30034116636666</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>22.19673805054671</v>
+        <v>24.82263624030926</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2.897358202582591</v>
+        <v>8.991498285574586</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>37.63454319918455</v>
+        <v>38.78805434788586</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>44.73552547557431</v>
+        <v>43.877983968814</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>39.88720287936251</v>
+        <v>42.47897986677104</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>43.3986353853823</v>
+        <v>47.221445120973</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>43.7147463110798</v>
+        <v>44.88839921133258</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>-4.892764830391311</v>
+        <v>7.3291371775451</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>24.11117540273588</v>
+        <v>29.83529096877492</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>31.65755179249397</v>
+        <v>33.7405717738355</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>9.727453527321304</v>
+        <v>13.02568353712662</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>26.14529602431594</v>
+        <v>30.76812906851211</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.21745522049334</v>
+        <v>30.14339555418764</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>3.598487860052074</v>
+        <v>7.400016737905197</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>18.02644488834824</v>
+        <v>22.3864816832847</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>23.19513150694835</v>
+        <v>27.07915992392877</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>5.425788303202715</v>
+        <v>9.74006134842864</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>32.68608289146305</v>
+        <v>36.78176424027026</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>43.72700034420316</v>
+        <v>44.8799462735799</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>34.40350498858769</v>
+        <v>36.99875152994296</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>42.10990295134259</v>
+        <v>44.20020795283761</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>47.29864821073656</v>
+        <v>46.96889648899573</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>3.928974928187834</v>
+        <v>9.541473878153933</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>31.16266848250935</v>
+        <v>36.28710106928238</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>39.13145061048672</v>
+        <v>42.24440590591483</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>7.697064504867466</v>
+        <v>12.02203910687101</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>24.96100335288274</v>
+        <v>30.26485100792212</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>33.82744499280098</v>
+        <v>36.99470028194444</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>0.3276243196858495</v>
+        <v>6.870205199108248</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>21.92565923054722</v>
+        <v>22.52158578427217</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>24.55126486442914</v>
+        <v>25.65207080960984</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>1.528321645508111</v>
+        <v>8.146594917960535</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>34.25513912451149</v>
+        <v>35.63481328570462</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>49.59438012141881</v>
+        <v>46.74911991207124</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>41.95567846728335</v>
+        <v>45.05636635377252</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>51.82392088714113</v>
+        <v>53.73771988802373</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>60.49120850672097</v>
+        <v>59.27611705243511</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>0.1236078540595607</v>
+        <v>8.750590380208315</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>35.40991107870823</v>
+        <v>37.4984471609847</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>46.92393076866966</v>
+        <v>49.44396333044264</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.538</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.97</v>
+        <v>18.933</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.713</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.206</v>
+        <v>17.473</v>
       </c>
     </row>
   </sheetData>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.949</v>
+        <v>1.018</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.5086592410978</v>
+        <v>17.58269868348905</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.95497476923489</v>
+        <v>19.50548585108007</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.05514999672623</v>
+        <v>21.0951962919124</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.442832280010492</v>
+        <v>12.51796052350805</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14.47828895684191</v>
+        <v>18.32382876520032</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.75027651115877</v>
+        <v>18.57689811398577</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.70691373292763</v>
+        <v>15.13352330933593</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20.17893958286305</v>
+        <v>22.87951648522176</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.22463103062681</v>
+        <v>24.32893555096576</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>19.62197525713498</v>
+        <v>22.63938688499806</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.11569098414895</v>
+        <v>25.28402210076936</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.7580125740413</v>
+        <v>28.01073793434302</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.50282579709446</v>
+        <v>16.360948843115</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.04155808287059</v>
+        <v>19.99197033358499</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>18.02132576995362</v>
+        <v>21.29760429034838</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.40426573739558</v>
+        <v>17.82336120578427</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.94857813837124</v>
+        <v>29.19073522040807</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.99605582227707</v>
+        <v>36.38867962824927</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.577982161562488</v>
+        <v>12.51193154147875</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.2018454342207</v>
+        <v>18.55956491728783</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.38548683560374</v>
+        <v>26.34731303313484</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.124342822118439</v>
+        <v>12.83639086556417</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.08176957668792</v>
+        <v>27.09520557436127</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>43.20410674285157</v>
+        <v>41.40432906627969</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.76810178595454</v>
+        <v>29.19159848906404</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>44.01228600630488</v>
+        <v>42.57275876490265</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>59.77218572363368</v>
+        <v>54.22553852446524</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>8.833366668386233</v>
+        <v>14.7085473793687</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.57552235961156</v>
+        <v>33.8132580633478</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>45.74296292106018</v>
+        <v>43.67252045582704</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>15.80276061769185</v>
+        <v>19.95541938183609</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.03207977250077</v>
+        <v>32.51714887709952</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.81406808834603</v>
+        <v>37.60523325959315</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>7.190968576542133</v>
+        <v>13.10002859153773</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>20.40086206291213</v>
+        <v>23.76516906177598</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.1056318443305</v>
+        <v>30.10557905558337</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>7.991265084257339</v>
+        <v>13.36547531970756</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.02379190313508</v>
+        <v>34.84430248744797</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43.94465037399652</v>
+        <v>42.04109786184121</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.09794882881724</v>
+        <v>40.87167200528157</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>54.27403789794156</v>
+        <v>50.74884169842991</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>62.03084526815325</v>
+        <v>56.04925531213248</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16.13489215010212</v>
+        <v>20.70099484234518</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.6218900312863</v>
+        <v>41.69837069470647</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>47.92831743960771</v>
+        <v>45.3686347534368</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8.618511241375636</v>
+        <v>13.59142391956681</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.41447705616663</v>
+        <v>31.37258059663815</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.76416710982055</v>
+        <v>36.65650063117646</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.68255594607005</v>
+        <v>12.6463414416632</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.83218204857139</v>
+        <v>32.48162797742688</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.99443424643217</v>
+        <v>36.15750228056796</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>8.441276284022454</v>
+        <v>13.20814945134643</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>53.41043775036805</v>
+        <v>48.20956320764567</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>59.33844587525893</v>
+        <v>52.98635817749788</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>48.77518018064093</v>
+        <v>45.28991959177282</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>56.08340534840356</v>
+        <v>50.72739063548116</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.37594391789204</v>
+        <v>47.42832288493704</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9.247817401756027</v>
+        <v>14.06021754312493</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>36.1094610467792</v>
+        <v>36.4372770269248</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>45.45153269431677</v>
+        <v>42.71954471076997</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.00482193131925</v>
+        <v>15.26862750070076</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.61860043707065</v>
+        <v>34.210929312166</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.11265773086495</v>
+        <v>37.70463621751082</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6.47731948668935</v>
+        <v>12.64622640523049</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>20.81945496409144</v>
+        <v>24.21887056694202</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.24155120849611</v>
+        <v>30.24132690474275</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6.788100484837724</v>
+        <v>12.86534982891244</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>38.23028174938669</v>
+        <v>37.76359377039563</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>46.56940270328234</v>
+        <v>44.19826919214945</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>39.18072235869681</v>
+        <v>38.41577465776579</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>54.38621752962823</v>
+        <v>50.24473081687494</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>60.36341056587088</v>
+        <v>54.75709729617651</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>7.669244009947441</v>
+        <v>13.87050653454649</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>43.3684642575641</v>
+        <v>41.69325438999323</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>48.55431139250561</v>
+        <v>45.18747440012434</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.747450467458041</v>
+        <v>15.05110687596679</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.81706410894108</v>
+        <v>35.04915172251513</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.91132864165179</v>
+        <v>39.61058712874604</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>7.37969667308802</v>
+        <v>12.64638531133606</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.46790059449067</v>
+        <v>29.68018014048812</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34.09323005305814</v>
+        <v>34.45263426134568</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7.868428366001808</v>
+        <v>12.81803529951741</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>47.88291356055457</v>
+        <v>45.40874765273671</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>63.91464549223543</v>
+        <v>57.14144618264703</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>49.1259992830424</v>
+        <v>46.45536710963437</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>66.28859248878723</v>
+        <v>59.57311817008102</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>70.56057710811118</v>
+        <v>62.26938004863564</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>8.323628702312821</v>
+        <v>13.50212114318291</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>51.98953357901226</v>
+        <v>48.55690166387117</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>58.32671940852202</v>
+        <v>52.86579531910409</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>18.94256436986976</v>
+        <v>22.66114645409597</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>27.71830961981481</v>
+        <v>29.14907282893952</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.40097147369087</v>
+        <v>33.99967392646354</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.932427365116244</v>
+        <v>13.02815773793859</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.34970383550939</v>
+        <v>30.16600384292131</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.38162748943933</v>
+        <v>31.70065866919646</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.512850005129639</v>
+        <v>14.43606917393984</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>52.48769100097132</v>
+        <v>48.5087958620564</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>52.54345410447427</v>
+        <v>48.21267072462365</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>39.37479666919273</v>
+        <v>38.04019336785593</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>46.19358462098678</v>
+        <v>43.72434652069349</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>44.72997200787844</v>
+        <v>42.2305706271392</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>15.7629545053717</v>
+        <v>20.20661240220277</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.94884770615268</v>
+        <v>31.49068399267989</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.70439683134953</v>
+        <v>34.38561297326552</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.35884809901445</v>
+        <v>25.57631967738154</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37.7510586304467</v>
+        <v>36.0464525762909</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.9656398216838</v>
+        <v>38.36002981068221</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.518716138858107</v>
+        <v>13.03734490953353</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>27.22487118700498</v>
+        <v>28.89679283800916</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>31.16603291564</v>
+        <v>30.99858326626372</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.039803644047783</v>
+        <v>14.35694417301301</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>46.27348297686831</v>
+        <v>43.7650482930127</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>49.48172096194506</v>
+        <v>46.24794912911352</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>44.99869133596405</v>
+        <v>42.79741854642685</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>56.33955446484383</v>
+        <v>51.63004494394449</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.99401354135401</v>
+        <v>54.49939810873014</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.29807519303457</v>
+        <v>24.24524550213091</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>43.8130073299716</v>
+        <v>41.99224999181647</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.15613833286223</v>
+        <v>47.12427290598433</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>22.23931171263488</v>
+        <v>24.90155810230802</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.29538343063386</v>
+        <v>36.16523688645782</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.99859278225847</v>
+        <v>39.10280523521164</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>7.832528468269384</v>
+        <v>13.08460377027795</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.33205749264307</v>
+        <v>30.29239489596415</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.20096560953169</v>
+        <v>33.89996538946055</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>9.084024485232305</v>
+        <v>13.96160315429002</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>50.97221282740405</v>
+        <v>47.467416070519</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.55916511907849</v>
+        <v>55.89799787892751</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>52.0915099731415</v>
+        <v>48.47151008137197</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>62.18413138320623</v>
+        <v>55.94683860374849</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>68.93032274641956</v>
+        <v>61.47490388866766</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>20.869030989216</v>
+        <v>24.03246166159847</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>50.50977413721726</v>
+        <v>47.92979031392056</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>57.50143854936483</v>
+        <v>52.14330766242878</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>14.60983930036025</v>
+        <v>18.37398118981143</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>16.99821896227787</v>
+        <v>20.26073918701675</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>18.06604513290329</v>
+        <v>21.04352102993479</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>7.936727797669015</v>
+        <v>13.43152633055662</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.28169533348715</v>
+        <v>17.36623550314337</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.96478249001775</v>
+        <v>17.93002260986788</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>11.20749925325733</v>
+        <v>15.86299137628711</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>22.3427969782661</v>
+        <v>24.64716555309242</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22.90097613092041</v>
+        <v>24.83033690812711</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>20.48731076750646</v>
+        <v>23.76458305207676</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>22.87462767872331</v>
+        <v>25.21246214672469</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>27.56004813197615</v>
+        <v>28.84565128291445</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>54.79231246937728</v>
+        <v>50.2105582989423</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>57.21910281215745</v>
+        <v>52.19213755631854</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>55.88640405479003</v>
+        <v>51.05428455139426</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.47877996496896</v>
+        <v>17.48359297052754</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.44753288209408</v>
+        <v>29.70435751831975</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>37.3683730192312</v>
+        <v>36.44534688412091</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.07066651561491</v>
+        <v>11.78525279666168</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>11.17243872006882</v>
+        <v>16.78677474729798</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>20.43035726320455</v>
+        <v>23.83704627974383</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>7.240257073239938</v>
+        <v>12.74307056761909</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>23.21597657022523</v>
+        <v>26.57473905579841</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>40.10693086838474</v>
+        <v>39.14781306420429</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>24.91843618348959</v>
+        <v>27.79558552149981</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>41.07004364397287</v>
+        <v>40.36247920487209</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>53.15854759196218</v>
+        <v>49.3387034484769</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>9.435982514550062</v>
+        <v>14.75373984520538</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>31.57212160458288</v>
+        <v>33.0466779741724</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>38.56095706426321</v>
+        <v>38.07446315647854</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22.64828806337113</v>
+        <v>24.74096729013283</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>30.75917090713686</v>
+        <v>31.57474738310635</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>37.30655178976134</v>
+        <v>36.41709331676799</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>6.603239815129477</v>
+        <v>12.89613601411928</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>15.94235243535514</v>
+        <v>20.37797448010071</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>23.32866136635356</v>
+        <v>26.05396262242571</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>10.51469428900284</v>
+        <v>15.78583879812802</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>32.22532297514929</v>
+        <v>33.4712793513046</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>46.64751923346863</v>
+        <v>44.19956035285374</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>31.26712533468226</v>
+        <v>33.07464030760805</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>43.94863102078361</v>
+        <v>42.64801487103427</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>57.07116677580579</v>
+        <v>52.57632167559937</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>20.38383958955345</v>
+        <v>23.89958556009903</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>43.66551432189176</v>
+        <v>42.38786590546204</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>49.32036450563928</v>
+        <v>46.56644656555762</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.57829651660775</v>
+        <v>15.92574932826633</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.91959869949611</v>
+        <v>23.31793156251525</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.94111958139087</v>
+        <v>29.29536364317259</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>7.869049987790127</v>
+        <v>12.87142189325127</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.77529421964003</v>
+        <v>27.70334841765681</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.11011077337324</v>
+        <v>31.75589442522974</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>12.40879454846802</v>
+        <v>16.4100695061752</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>52.95704826846073</v>
+        <v>48.91615692717011</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>54.11491753603942</v>
+        <v>49.58805599679934</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.81955693304128</v>
+        <v>35.88277065058627</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.44634111997445</v>
+        <v>42.08275986549869</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>45.21583007890666</v>
+        <v>42.68448960587413</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.82911856602004</v>
+        <v>20.21584143555885</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>15.07310181468977</v>
+        <v>18.28952023575204</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>16.26221522417141</v>
+        <v>19.21029026287196</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.52872124176817</v>
+        <v>27.32322529967552</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>38.17619532501314</v>
+        <v>36.88034701934755</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.82015136365674</v>
+        <v>36.7833386851466</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.422162414408781</v>
+        <v>13.2483102635291</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.46860474907627</v>
+        <v>29.60454794480704</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>34.57591817897487</v>
+        <v>34.35440363774008</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>9.783301916116532</v>
+        <v>15.07230972403917</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>47.74608343147676</v>
+        <v>45.03576135690363</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>50.86960246532089</v>
+        <v>46.72674545402312</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>48.37504744191953</v>
+        <v>45.56155806128288</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>60.38696032076435</v>
+        <v>54.88314155041932</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>62.86512415479834</v>
+        <v>56.30480589581344</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.73456388213402</v>
+        <v>29.90632314833675</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>49.18514125830532</v>
+        <v>46.24445679094097</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>53.6128485859515</v>
+        <v>48.25500711843129</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>26.23593058225311</v>
+        <v>27.82999139181133</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>38.82632094608884</v>
+        <v>37.692264110749</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.67389489599883</v>
+        <v>39.19611385150621</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>7.781889300561573</v>
+        <v>13.1519716467128</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>24.14135548878464</v>
+        <v>26.4923325208154</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>31.36386444708877</v>
+        <v>31.90520197868747</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>12.10355023143446</v>
+        <v>16.46400877685615</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>47.08816011588095</v>
+        <v>44.67816452506209</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>58.65397724286974</v>
+        <v>53.14195280203734</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>51.13008647916003</v>
+        <v>47.76582492258449</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>61.13302235115893</v>
+        <v>55.5636915403564</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>65.67046358577872</v>
+        <v>58.48839752007798</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.51860585083861</v>
+        <v>30.18806245137193</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>52.07673655760292</v>
+        <v>48.75326985728299</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>59.77323107084818</v>
+        <v>54.2119197608623</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>9.44293535314306</v>
+        <v>15.04892716374251</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>19.30723497489335</v>
+        <v>22.85506363110477</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>30.61897586095159</v>
+        <v>31.29807067790103</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>7.846743372562429</v>
+        <v>12.79244888750263</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.60300766202082</v>
+        <v>34.20700911791138</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.12087054207673</v>
+        <v>34.03599851727819</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>11.7207249965438</v>
+        <v>16.03547211436345</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>57.03287328793425</v>
+        <v>51.46751979910291</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>58.29520840507352</v>
+        <v>52.75666821471074</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>38.24826816052386</v>
+        <v>36.97600336927667</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>46.92624312948998</v>
+        <v>43.71961907288026</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>47.7736387069808</v>
+        <v>44.33034890414346</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>12.76567666178409</v>
+        <v>17.17154880204827</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>12.87005014489933</v>
+        <v>16.60254363102571</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>13.76602921834906</v>
+        <v>17.29193731655891</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>19.71309920703311</v>
+        <v>22.81656731669319</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>40.93460357148764</v>
+        <v>39.28366888254154</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>41.6428937413687</v>
+        <v>39.18393493419786</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>7.823473299536701</v>
+        <v>12.78542800742499</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.65033863695249</v>
+        <v>33.41718530670612</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>39.81361393962303</v>
+        <v>38.24138628227655</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>8.365098388433289</v>
+        <v>13.28218533002839</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>54.55618609264018</v>
+        <v>50.24642889390741</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>56.48911254129372</v>
+        <v>51.23112093589027</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>45.94090907517971</v>
+        <v>43.69036009506887</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>58.25177274035599</v>
+        <v>52.7311820507645</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>64.22603182196661</v>
+        <v>57.80629540382657</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>18.00375045269977</v>
+        <v>21.37860042493607</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>53.49502644453645</v>
+        <v>49.56476848407725</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>57.47576232163761</v>
+        <v>52.17903078265589</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.04779760170262</v>
+        <v>24.55964531993097</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>41.43438125383572</v>
+        <v>39.65760746591191</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>42.80293982020416</v>
+        <v>40.13383352917311</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>7.936694128130096</v>
+        <v>12.87709249101529</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.57864896350007</v>
+        <v>31.08042091861078</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.84362447163321</v>
+        <v>34.06975412865756</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.989482577868305</v>
+        <v>14.49728201859566</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>52.69860968716873</v>
+        <v>48.74839015936277</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>61.55453736574903</v>
+        <v>55.24794729596286</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>54.18266704134578</v>
+        <v>50.01848302903799</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>65.94066238942025</v>
+        <v>59.14808809650793</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>69.88518851817886</v>
+        <v>62.11082794238459</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>17.09018201387834</v>
+        <v>20.70630596291846</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>55.38063255573657</v>
+        <v>51.0927875853961</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>60.37311210029951</v>
+        <v>54.89862644198224</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.99866761607559</v>
+        <v>17.16049325655203</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.16710151359547</v>
+        <v>17.07183107674432</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>13.77149787835509</v>
+        <v>18.23776435863625</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>7.276869567261134</v>
+        <v>13.28043843449417</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>12.78819415525647</v>
+        <v>16.93622652779023</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>12.61877324623185</v>
+        <v>16.87568060858966</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>10.1713213697039</v>
+        <v>15.83321001302818</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.32439270608911</v>
+        <v>21.27267251652442</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.52203791987027</v>
+        <v>23.38822087983569</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.83625498854364</v>
+        <v>25.42432925800482</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.33512087355249</v>
+        <v>28.39019975103219</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.90969302954483</v>
+        <v>29.90972874770557</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>10.95893578688776</v>
+        <v>16.16727266468855</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>11.83884139050676</v>
+        <v>17.09676621113229</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>14.86724333322365</v>
+        <v>18.82663504451756</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>13.65031500806361</v>
+        <v>18.04344625713238</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.00791961108963</v>
+        <v>28.76943345370368</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>32.68897693780779</v>
+        <v>32.5380852865204</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>7.812186711721083</v>
+        <v>12.76335645778405</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>18.05337750974422</v>
+        <v>21.43932823857429</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.52275735999853</v>
+        <v>27.93995366384604</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>10.52434058188375</v>
+        <v>15.17013703707885</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>31.15384954249206</v>
+        <v>32.46430047276012</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>41.75010216015428</v>
+        <v>40.02998075994239</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.68851749253899</v>
+        <v>32.28728437842108</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>42.87451539347396</v>
+        <v>40.98060769936316</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>47.26451551179997</v>
+        <v>44.13296296897873</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>11.84847471125561</v>
+        <v>16.82093882525383</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>34.99457044329728</v>
+        <v>34.80252724087504</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>42.05664661113657</v>
+        <v>40.23032757514616</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>13.41583281880978</v>
+        <v>17.74850645968467</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.92264752360215</v>
+        <v>28.42475699933231</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.84545501558718</v>
+        <v>35.2294191506783</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>6.965931498535859</v>
+        <v>12.73857852579006</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>22.01670174180532</v>
+        <v>24.63925949043465</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.78014360732475</v>
+        <v>29.50183913839539</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>9.976622798744032</v>
+        <v>15.1274021380794</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>37.34378553071024</v>
+        <v>36.82873353114999</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>46.91404927014295</v>
+        <v>44.00296477543944</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>45.90818334689406</v>
+        <v>43.41817903790469</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>58.57661358969186</v>
+        <v>53.24262397813902</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>58.96074244498622</v>
+        <v>53.3825052556989</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>12.74979623175746</v>
+        <v>17.74952002959365</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>43.53429181382243</v>
+        <v>41.83795503405667</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>52.30358859451593</v>
+        <v>48.54942502747713</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>8.189543322270467</v>
+        <v>13.87334629673835</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>13.5260844624818</v>
+        <v>17.71436691731467</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>15.10944391561881</v>
+        <v>19.03066231104687</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>6.789639345260394</v>
+        <v>12.53988591671491</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>12.67672688328021</v>
+        <v>16.80421300685143</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.06687707931816</v>
+        <v>20.0644209601016</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>7.477665100231622</v>
+        <v>13.17815441293896</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.39649446989037</v>
+        <v>20.0458359010694</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.15594671262663</v>
+        <v>17.87352657064343</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>14.71550073823131</v>
+        <v>18.47168113854261</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>16.41155293327279</v>
+        <v>19.83531754280579</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>16.95492246472907</v>
+        <v>20.21168537502746</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>10.53036885335663</v>
+        <v>15.19591897428256</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>15.05238594586298</v>
+        <v>19.10967919932244</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>16.22777019824275</v>
+        <v>19.43986439273779</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>6.865772191878929</v>
+        <v>12.33314267147643</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>10.52985668908268</v>
+        <v>14.94270532955327</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>20.69377233233414</v>
+        <v>22.7704097543143</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>6.942563602188994</v>
+        <v>12.63612001379882</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>7.355836148006649</v>
+        <v>13.70134904020403</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>13.97230278377561</v>
+        <v>17.78360248123322</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>8.357810285519893</v>
+        <v>13.08832471263585</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>9.985176399688442</v>
+        <v>15.36388422190854</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24.52312853326485</v>
+        <v>26.06406898867211</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>11.42544710412833</v>
+        <v>16.8886080956959</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.4152833079415</v>
+        <v>27.23322977476538</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.04407995268333</v>
+        <v>37.89664639468715</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>6.876528299259739</v>
+        <v>12.50401030680704</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>13.23076829345891</v>
+        <v>17.62447665762931</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>14.85174697625157</v>
+        <v>18.45537095987505</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6.239058827131494</v>
+        <v>12.45579825770554</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>12.28554546874946</v>
+        <v>16.4646607481006</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.05791090445024</v>
+        <v>26.499945879938</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>6.942833902205923</v>
+        <v>12.64642378195165</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>9.328405236250902</v>
+        <v>14.90473147212091</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>20.21306136789479</v>
+        <v>22.95770939898199</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>7.401414701257284</v>
+        <v>12.50563448050533</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>12.90858610156686</v>
+        <v>17.90686669474739</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>35.0508955972054</v>
+        <v>34.91637499542114</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>16.89774902684838</v>
+        <v>20.50814751355157</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>42.48179355564795</v>
+        <v>40.72017561762033</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>53.86795258070912</v>
+        <v>49.37130567616987</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>6.087880782586385</v>
+        <v>11.4619935594184</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>12.5527700002874</v>
+        <v>17.80035013877233</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>18.87896489782192</v>
+        <v>22.40286724391463</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.92626842052314</v>
+        <v>20.19299559974714</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.26305241648263</v>
+        <v>22.66549627406733</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>35.62247593552998</v>
+        <v>34.51171904924851</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>8.082918392323414</v>
+        <v>13.03191176638982</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>39.30874014964526</v>
+        <v>37.79919690045813</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>40.06359300599694</v>
+        <v>38.42424916940765</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>11.89128945699621</v>
+        <v>16.27278075651198</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>54.91859103860102</v>
+        <v>50.37852955078272</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>58.84315153470557</v>
+        <v>52.73487697344886</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.9976024310921</v>
+        <v>40.06342141989094</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>46.26255225739108</v>
+        <v>43.11815983844765</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>46.93087599151003</v>
+        <v>44.00489739730101</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.46294779645823</v>
+        <v>29.71774749382866</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.28406596526605</v>
+        <v>35.70741961125992</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>61.61039615661366</v>
+        <v>55.70613066147943</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>13.21978860320699</v>
+        <v>17.5796542777168</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>30.88343351379077</v>
+        <v>31.06140692756818</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.72037159581083</v>
+        <v>32.39330130144771</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>7.210750480337914</v>
+        <v>12.92454941536196</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.55161334683473</v>
+        <v>27.90816363494655</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.97924773157141</v>
+        <v>29.40232303456462</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>9.960164683056057</v>
+        <v>15.08540113319283</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>41.5185723467743</v>
+        <v>39.9790316004724</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>43.96960209024258</v>
+        <v>41.70290071509308</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>37.58082418765746</v>
+        <v>36.78454717413217</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>46.78375095807817</v>
+        <v>43.43572200086133</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>49.58672603661156</v>
+        <v>45.73043080033501</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>20.49817428227465</v>
+        <v>23.44392182197277</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>39.93624254479023</v>
+        <v>38.49839401532209</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>43.9837630044959</v>
+        <v>41.99090036413143</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>17.55572193228696</v>
+        <v>20.95889627823982</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.52961973594914</v>
+        <v>30.26445139633591</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>39.49010970557035</v>
+        <v>37.99485679264657</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>7.614925497643799</v>
+        <v>12.93956446498925</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.17047323048772</v>
+        <v>31.64926666911309</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>35.50180545506404</v>
+        <v>34.47344861636468</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>11.47272861809522</v>
+        <v>15.65205878523004</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>48.63967952088381</v>
+        <v>45.66984466821386</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>60.7020061713248</v>
+        <v>54.76859073000199</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>48.62308658778463</v>
+        <v>45.55056621322608</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>58.855840966055</v>
+        <v>53.09738460897049</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>62.19153193057258</v>
+        <v>55.90708806638229</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>19.89542172891969</v>
+        <v>23.24110728022605</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>50.66868497229166</v>
+        <v>47.14311282867166</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>60.19820481216413</v>
+        <v>54.29649887772253</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>12.27850177876434</v>
+        <v>17.48889723301951</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.82815863687514</v>
+        <v>17.8801831948636</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>14.83709423358864</v>
+        <v>18.51471687588345</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>7.960071249594062</v>
+        <v>13.2621322940722</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11.40165869664345</v>
+        <v>16.29601890623681</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>13.80476171543131</v>
+        <v>17.75487919915012</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>10.70090246344603</v>
+        <v>15.47685456970475</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>16.28605057894197</v>
+        <v>19.98783537783713</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>17.95264952430354</v>
+        <v>20.85089083876203</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>15.98150856889263</v>
+        <v>19.73950784689298</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>18.7140588677597</v>
+        <v>21.62965001040659</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>20.68525155709365</v>
+        <v>23.13966836025138</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>10.80632137497318</v>
+        <v>15.76167925695967</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>11.7316251057727</v>
+        <v>17.34039126925077</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>14.16325093075612</v>
+        <v>19.23324731915422</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>9.772842043260535</v>
+        <v>15.09405761343328</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>17.6620499926678</v>
+        <v>21.17619367871638</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.17978156162122</v>
+        <v>28.08579200205157</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>6.088154857977283</v>
+        <v>12.64649849824612</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>9.031172551644733</v>
+        <v>14.47598507176834</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>20.96557825105362</v>
+        <v>23.53725077129551</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>7.708507210349172</v>
+        <v>13.26367321616297</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>12.22010488551072</v>
+        <v>17.62283564153807</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>30.82291987847743</v>
+        <v>31.39445121328745</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>15.72745828223813</v>
+        <v>20.50072333906406</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>24.95575039867916</v>
+        <v>27.98452485356081</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>36.79885803669031</v>
+        <v>35.95427793906258</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>6.325530351763234</v>
+        <v>12.95281918805452</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>17.65629692074821</v>
+        <v>21.50967865959269</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.21533635111239</v>
+        <v>27.21057223889378</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>13.29716517963132</v>
+        <v>17.94652603626225</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>21.77339661370165</v>
+        <v>24.83756273684706</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>31.70297566061634</v>
+        <v>31.89649795723385</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>7.13032912959989</v>
+        <v>12.98146326558959</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>13.95625824025788</v>
+        <v>18.90389087115431</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>24.40439063261752</v>
+        <v>26.36227427889834</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>12.15228383964997</v>
+        <v>17.4909631112994</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>22.73233571354312</v>
+        <v>26.35281673533398</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>38.82034991785357</v>
+        <v>37.69458403285982</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>24.84393123772797</v>
+        <v>28.07207687945398</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.24502027859574</v>
+        <v>32.88470542690028</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>48.31802969560925</v>
+        <v>45.54595002189788</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>17.56818758546147</v>
+        <v>21.4473383810351</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>27.35824963527295</v>
+        <v>29.63367763958865</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>37.55690069541932</v>
+        <v>37.06824849282474</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>6.08786594726676</v>
+        <v>12.06448006692265</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>7.002275688263616</v>
+        <v>12.73563248756605</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>11.07362791231525</v>
+        <v>15.12756667770261</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>6.861983980019417</v>
+        <v>12.6019741583409</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>6.858923893357165</v>
+        <v>12.65499552453745</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>7.767623041984745</v>
+        <v>13.39325283247633</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.831827769272266</v>
+        <v>14.70342039045272</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.05519378455656</v>
+        <v>15.46774531625791</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>11.72381991711847</v>
+        <v>15.69235726502701</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>7.497408248004781</v>
+        <v>13.16660981985619</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>7.542510835146501</v>
+        <v>13.3458869860214</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.67693054254405</v>
+        <v>20.03044579365303</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>6.876406371045363</v>
+        <v>12.06434401423101</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>6.088169168755186</v>
+        <v>12.64656979915052</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>6.204967180566339</v>
+        <v>12.65902368962943</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>19.64150467801861</v>
+        <v>22.50344769773557</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.71871205148691</v>
+        <v>30.73860605697519</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.6772487607599</v>
+        <v>33.07676504223969</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>7.998592924481628</v>
+        <v>12.90843585324351</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>22.90569465564957</v>
+        <v>25.09391424429088</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.37269456561676</v>
+        <v>29.58505549670609</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>11.43354133789137</v>
+        <v>15.53384665840026</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>42.78260168753491</v>
+        <v>40.68083306213671</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>47.06007560048995</v>
+        <v>43.97799887803566</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>38.51786928145631</v>
+        <v>37.52958280946639</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>47.68788490737511</v>
+        <v>44.57683476614217</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>46.9933598038306</v>
+        <v>43.44198853300224</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>18.81216289186911</v>
+        <v>21.75869166198818</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>38.74925413085774</v>
+        <v>38.08017549581295</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>44.9622871148094</v>
+        <v>42.49127252655759</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>20.39859494786185</v>
+        <v>23.44718539397853</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>33.20657495688588</v>
+        <v>33.19708425143839</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.95862097624314</v>
+        <v>40.67728501428026</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>7.227771199027167</v>
+        <v>12.92601447625046</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.64106984501245</v>
+        <v>28.08212416037057</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.99357911533165</v>
+        <v>31.76846015490322</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>10.73262294173599</v>
+        <v>15.58930315763046</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>45.47755136820165</v>
+        <v>43.03816470054343</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>55.86745553423955</v>
+        <v>50.99664902469038</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>49.46917655652545</v>
+        <v>46.32010267584169</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>59.23491175298403</v>
+        <v>53.8840405778961</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>63.02678514344055</v>
+        <v>56.23073879147256</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>14.7113771770373</v>
+        <v>19.47783266038636</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>47.4607036927018</v>
+        <v>44.88826574800581</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>52.65942347364834</v>
+        <v>48.77630425904832</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>15.34156595143744</v>
+        <v>18.84391532323755</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.5971457103022</v>
+        <v>20.17468688320603</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>17.31802912471319</v>
+        <v>20.5528800570233</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>8.995094288505584</v>
+        <v>13.87736594184327</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.51034723887878</v>
+        <v>19.94813842471291</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.99528786070761</v>
+        <v>20.61230647826058</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>15.79844107621403</v>
+        <v>18.90276376956702</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.94571889644486</v>
+        <v>25.61033029035514</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.19404585546199</v>
+        <v>24.91161705397813</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.90367319577627</v>
+        <v>23.7867331908165</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>24.51450637476264</v>
+        <v>26.90894582555372</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.8114915983467</v>
+        <v>28.17684703522781</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>17.99045077235998</v>
+        <v>20.75812960883935</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>15.0057716942175</v>
+        <v>19.5911025258947</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>18.29922728432756</v>
+        <v>21.6661656640547</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>7.992042314660015</v>
+        <v>13.69240597661719</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>14.13183327350873</v>
+        <v>17.82912517157554</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.21823905802068</v>
+        <v>24.63891213018432</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>6.318194905674339</v>
+        <v>12.64654766085857</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>7.937344512441598</v>
+        <v>13.8567377276762</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>16.35571223628611</v>
+        <v>20.17772884196064</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>6.153983366455844</v>
+        <v>12.64651864692465</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>10.70764251604621</v>
+        <v>15.98142059562437</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>22.90319785403468</v>
+        <v>25.19533561993122</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>13.95054590040442</v>
+        <v>18.04958139747437</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>19.62429355256682</v>
+        <v>23.29330726797381</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.11852101284181</v>
+        <v>30.06175420391942</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>6.657957026215882</v>
+        <v>12.96845931953557</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>13.23918258097224</v>
+        <v>17.70696156471185</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>18.92857675581315</v>
+        <v>22.19684541711538</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.44403337359184</v>
+        <v>21.44212766022957</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>27.47208489683686</v>
+        <v>28.41900883837981</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.81802211598257</v>
+        <v>30.86709986203002</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>7.650609897442401</v>
+        <v>12.92448128150057</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>18.14105413539925</v>
+        <v>21.68229695137425</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>21.9939987235336</v>
+        <v>24.65157113838283</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>10.9607969398124</v>
+        <v>15.46688356033692</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>30.32360081471329</v>
+        <v>31.54367147108025</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>41.67703890121013</v>
+        <v>39.44244023607042</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>31.83118965945675</v>
+        <v>32.78339589293679</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>36.83078189558416</v>
+        <v>36.67021514271511</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>46.67004907088877</v>
+        <v>43.92093263813456</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>14.144541143688</v>
+        <v>18.72139265166378</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>30.66406029627735</v>
+        <v>32.09893286081715</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>34.72639303356455</v>
+        <v>35.33942050251905</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>7.095799417011978</v>
+        <v>13.17321401447943</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>9.099946785805781</v>
+        <v>14.38635921558095</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>9.186584315752231</v>
+        <v>13.86396746794491</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>7.097567770019218</v>
+        <v>12.64981750774465</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.323883759840363</v>
+        <v>13.64447924805497</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>9.04578169626479</v>
+        <v>14.51685107943337</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>10.69367925150096</v>
+        <v>14.86426889766983</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>12.11911051880744</v>
+        <v>16.07884708344945</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>11.46808481006532</v>
+        <v>15.64444362330606</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.543434788414675</v>
+        <v>13.97628561922262</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>7.708543683847854</v>
+        <v>13.40003282508717</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>12.17893035349128</v>
+        <v>16.26011586110306</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.685794667679151</v>
+        <v>12.66019937397418</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>8.568347560190919</v>
+        <v>14.03797917101955</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>9.322202668401591</v>
+        <v>14.54830414852469</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>7.123970378522721</v>
+        <v>13.0685306937584</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>8.655772291191106</v>
+        <v>13.43205908491194</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>9.293065456428046</v>
+        <v>13.93066545063191</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>6.942524001446053</v>
+        <v>12.64140980956134</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.321425829294874</v>
+        <v>12.84270803882016</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>8.371676445984626</v>
+        <v>13.8520828722229</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.266413195053513</v>
+        <v>12.5431195419279</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>7.428821142297902</v>
+        <v>13.72412001232737</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>9.315966092186201</v>
+        <v>14.64901898943794</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>6.819903987767681</v>
+        <v>12.66740681101541</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>8.667081506462626</v>
+        <v>13.60937590154186</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.105512515566605</v>
+        <v>13.9597195413606</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>6.900040547252956</v>
+        <v>12.64646466453743</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>7.496511258289029</v>
+        <v>13.17539322370637</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>7.826424610639442</v>
+        <v>13.47118858942685</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>20.02135815418843</v>
+        <v>22.87948478172252</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>23.00974868872921</v>
+        <v>25.48948298463712</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>23.4056065848176</v>
+        <v>25.19739633875982</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>8.131363371245126</v>
+        <v>13.03199822426425</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>13.88521700094551</v>
+        <v>18.71007242711202</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>16.20783853094065</v>
+        <v>20.24923154382835</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>13.30382414323519</v>
+        <v>17.3838192692287</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>24.51178043576184</v>
+        <v>26.35168891900276</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>27.78500082623201</v>
+        <v>29.24872480931365</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>24.3235367673181</v>
+        <v>26.26850010030478</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.16885068121373</v>
+        <v>28.58373393576848</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.29149068274592</v>
+        <v>30.3101285965846</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>19.12333187879897</v>
+        <v>22.07906163123571</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>23.10938920551872</v>
+        <v>26.096406207809</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>26.39525926864979</v>
+        <v>28.30751703030575</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.0226967379758</v>
+        <v>22.10252016417782</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.79244833434217</v>
+        <v>29.06465352599947</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>36.00153811068964</v>
+        <v>35.105004414077</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>7.45172623201065</v>
+        <v>13.08782865353015</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>19.50994338930755</v>
+        <v>22.53072387947204</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.24668904467712</v>
+        <v>25.01183331462615</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>13.85717953968085</v>
+        <v>17.44624395999887</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>37.47923586331868</v>
+        <v>36.3650820149246</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>41.89788166351046</v>
+        <v>39.76512985160306</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.06979137738977</v>
+        <v>34.23556551245144</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>39.80593770566466</v>
+        <v>38.4745209793886</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>41.87439019104949</v>
+        <v>39.87198972711841</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.01575965032635</v>
+        <v>27.55855726519531</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>41.02453899628941</v>
+        <v>39.47029635714349</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>45.23173087034255</v>
+        <v>42.65164439865516</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>17.40444355314629</v>
+        <v>21.11983495228788</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.04307220442708</v>
+        <v>27.72071419600208</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.32786372856116</v>
+        <v>30.33006114127676</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>7.514440121477367</v>
+        <v>12.6415403060209</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>11.53092434626741</v>
+        <v>16.74655369115784</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>14.45852561281028</v>
+        <v>18.75431160650799</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>11.00434710081781</v>
+        <v>15.58429884526673</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.67639549492887</v>
+        <v>26.14551791640202</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.79688972909758</v>
+        <v>28.42507887097379</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>22.62819529103657</v>
+        <v>25.19150962335119</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>27.94602904992733</v>
+        <v>29.19405434507576</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.19454669955815</v>
+        <v>30.80193659765267</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>17.21143296280133</v>
+        <v>20.52319297311298</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.244784629807</v>
+        <v>29.94498247192284</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>31.88437094758143</v>
+        <v>32.06431291839316</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.07293425820196</v>
+        <v>24.49993968442254</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.29133331540088</v>
+        <v>31.21197578163172</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>40.42010644136904</v>
+        <v>38.43964812672215</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>7.14498520789429</v>
+        <v>12.8727354128338</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>18.63818405110144</v>
+        <v>22.12460699700122</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>21.52270052173601</v>
+        <v>23.9623485149277</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>13.87692079413094</v>
+        <v>17.73833273701456</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>35.44730815464445</v>
+        <v>35.22691764980094</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>44.22361020387009</v>
+        <v>41.20474780920427</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>42.79632495722808</v>
+        <v>41.16649871507216</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>48.74583484905367</v>
+        <v>45.81733470798599</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>50.64279852120517</v>
+        <v>47.23680604690527</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>23.81695742651855</v>
+        <v>26.13868802826957</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>40.30008105720538</v>
+        <v>39.23216003528228</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>43.51155586652109</v>
+        <v>41.60142754541433</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>18.50756283931028</v>
+        <v>21.61905732207841</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.2714695901423</v>
+        <v>29.96154145331359</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.41099576597507</v>
+        <v>35.06300040313077</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>8.240206597768331</v>
+        <v>13.18427272718032</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.78637869020046</v>
+        <v>31.25095188134855</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.59593273644678</v>
+        <v>34.10135574519904</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.18764191238501</v>
+        <v>17.09575802463124</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>50.37455453583317</v>
+        <v>46.26179984011077</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>56.67594498511468</v>
+        <v>51.482975854648</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>47.15269613018408</v>
+        <v>44.31449381742227</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>50.99727186117089</v>
+        <v>47.2327490118156</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>54.54314408567086</v>
+        <v>49.41621922572189</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>17.24763872473507</v>
+        <v>20.77304137077476</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.25478886794878</v>
+        <v>35.606572998918</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>45.87455415489961</v>
+        <v>43.72001116802556</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>14.53341733544998</v>
+        <v>18.62187522423319</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.88447559952474</v>
+        <v>31.17401698499974</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.21116421515885</v>
+        <v>33.61053044636851</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>7.600697795069596</v>
+        <v>12.65007051430116</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>21.45287398400905</v>
+        <v>24.07760853570068</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.46627328256202</v>
+        <v>29.81431269786604</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>8.811973914768085</v>
+        <v>14.0531637087782</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.08232619702059</v>
+        <v>36.48587987893767</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>41.10075161537799</v>
+        <v>38.99322938537497</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.91669727728389</v>
+        <v>36.38072095203908</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>45.14544605373335</v>
+        <v>42.96189798035607</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.75247271971151</v>
+        <v>45.2030460518942</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>11.66137624651981</v>
+        <v>16.34422155440446</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.22971862354009</v>
+        <v>34.32728637968312</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.52589069554325</v>
+        <v>40.03107435759729</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>11.64903325482413</v>
+        <v>16.43877878669941</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.5023452546039</v>
+        <v>29.47998410764421</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.87625573431671</v>
+        <v>35.04967123585985</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>6.742557694118467</v>
+        <v>12.65077086202943</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>22.07761381995187</v>
+        <v>24.8403336964029</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>32.73869058353038</v>
+        <v>33.13770949736302</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>7.932919169660323</v>
+        <v>14.0369949261492</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.10658625976525</v>
+        <v>35.97826442077793</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>53.72022159998921</v>
+        <v>49.12609464231026</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>42.72012705835529</v>
+        <v>40.82350770399587</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>54.21049140801426</v>
+        <v>50.01097795080702</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>64.28451656287234</v>
+        <v>57.71333412379937</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>9.697672361705553</v>
+        <v>14.94058251794362</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>41.66054129994328</v>
+        <v>40.4243943407</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>52.71046777709225</v>
+        <v>48.79459566640166</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>13.6452648752352</v>
+        <v>18.43890728925632</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>21.97453889244777</v>
+        <v>24.45950426398431</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.03868976983912</v>
+        <v>34.49760959045007</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>7.634896133040105</v>
+        <v>12.65985644788985</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.60104922891831</v>
+        <v>37.30198081024536</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>43.24944355570319</v>
+        <v>40.7263622336645</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>11.1499189392249</v>
+        <v>16.09760342314269</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>57.3131003816447</v>
+        <v>52.00241157776226</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>59.17308304105173</v>
+        <v>53.34759891331721</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>45.35687255498674</v>
+        <v>42.32249100807206</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>45.13059491220592</v>
+        <v>42.22784345846352</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>46.47242000747089</v>
+        <v>43.26235442093123</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>13.1393299958762</v>
+        <v>18.61015225497457</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.76654375288746</v>
+        <v>30.76161044515675</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>58.75254669320249</v>
+        <v>53.63964063164458</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>17.98658895589938</v>
+        <v>21.38611735901596</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>32.06338845033628</v>
+        <v>32.18755772773368</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>34.60813131172171</v>
+        <v>34.17382328665341</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>7.86974568226098</v>
+        <v>12.78892114693708</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>24.54541990195732</v>
+        <v>26.43507136511727</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.93801882078506</v>
+        <v>28.82452122419032</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>9.325558608057207</v>
+        <v>14.85792425720515</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>37.72109335273196</v>
+        <v>36.77591580839753</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>40.90339621020794</v>
+        <v>39.3842491528669</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>36.04459019665597</v>
+        <v>35.94341376126928</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>43.49464127838547</v>
+        <v>41.58548828232749</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>47.48467285767445</v>
+        <v>44.47856039159678</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>13.44414822853157</v>
+        <v>18.05152206171366</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.4209650406546</v>
+        <v>34.59871408800006</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>40.24624998779673</v>
+        <v>38.94645053181986</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>14.82634108227602</v>
+        <v>19.09997370195784</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.62389006484987</v>
+        <v>30.37208356962665</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.64044330380468</v>
+        <v>35.92903378339052</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>7.667013134476612</v>
+        <v>12.65841621378949</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.61281158432194</v>
+        <v>28.8497605145762</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>32.82839741816739</v>
+        <v>32.79508966656117</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>9.601536244839931</v>
+        <v>14.21696329534852</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.97023038314335</v>
+        <v>40.82883754977109</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>54.48313408043593</v>
+        <v>49.8894757973939</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>48.72237177401379</v>
+        <v>45.80782931035272</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>57.7171156556515</v>
+        <v>52.23112987251019</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>64.07002420405755</v>
+        <v>57.16887531053113</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>11.17844401797619</v>
+        <v>16.36795168725537</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>43.87395178221784</v>
+        <v>42.03635491692519</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>53.8213910142985</v>
+        <v>49.59289105697864</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.98244790796727</v>
+        <v>24.50849126571595</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>23.59918707426917</v>
+        <v>25.77602407405401</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.1302893302604</v>
+        <v>35.25744257731558</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>13.42845171654842</v>
+        <v>17.36566721360495</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>45.39622765045974</v>
+        <v>42.96600489015652</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>49.20137965409947</v>
+        <v>45.68252477566822</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.54781360690207</v>
+        <v>19.49203446008354</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>56.96136743988815</v>
+        <v>51.6621820992402</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>60.9383236834759</v>
+        <v>54.42183849376887</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>42.71590249549683</v>
+        <v>40.60972013445123</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>43.50174407147091</v>
+        <v>41.29828230147289</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>43.94940665870669</v>
+        <v>41.57170606111384</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>21.78318139735041</v>
+        <v>25.51589652015215</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>24.1501350278285</v>
+        <v>27.13881569900342</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>43.05398050692215</v>
+        <v>41.60203976473019</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.03877333118784</v>
+        <v>25.9151782039246</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>32.49085948631966</v>
+        <v>32.44184872928415</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>37.18718536436266</v>
+        <v>36.09015850345365</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>36.20236974153519</v>
+        <v>35.32144888359749</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>45.603221141793</v>
+        <v>42.87592253522239</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.91289024269588</v>
+        <v>44.46074199570122</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>12.93750304870088</v>
+        <v>16.84112908365824</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>38.04811732923196</v>
+        <v>37.02695470794273</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>43.42614061118402</v>
+        <v>40.72901813849661</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>38.65586306548942</v>
+        <v>37.70350978398386</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>44.23844514949025</v>
+        <v>42.12353372465458</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>47.325632115036</v>
+        <v>44.30416992173586</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>23.04347824223533</v>
+        <v>25.24184671551427</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.51831028043301</v>
+        <v>35.2516920186576</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.76752250639463</v>
+        <v>39.94497644855554</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>22.52694075643468</v>
+        <v>24.87396218405094</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.20496051982559</v>
+        <v>30.57576098411038</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.5007390855157</v>
+        <v>36.35296142697573</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>36.87683517644123</v>
+        <v>35.84605286356612</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>49.86984232310749</v>
+        <v>45.67848963836266</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>50.25514651183463</v>
+        <v>46.34021892108844</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>14.21248608802606</v>
+        <v>17.79758577888392</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>46.40604059386051</v>
+        <v>43.05537657747037</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>56.57011372744324</v>
+        <v>51.31174306913046</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>51.07729508288555</v>
+        <v>47.6311488083551</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>59.07755287705385</v>
+        <v>53.5802482611513</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>65.00218785774197</v>
+        <v>58.10471291937866</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>22.84342101425918</v>
+        <v>25.31895467973063</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>44.73421746790213</v>
+        <v>42.27164623740315</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>54.66368249065917</v>
+        <v>50.33008772755824</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>10.42049102796558</v>
+        <v>15.28014315094378</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.09055934259613</v>
+        <v>26.60435278122976</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>33.43779696664705</v>
+        <v>33.29066059171355</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>6.854627453011215</v>
+        <v>12.62595444974795</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.05098406292026</v>
+        <v>26.07936651443916</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.57628788733836</v>
+        <v>27.28088939221921</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>8.52043235700668</v>
+        <v>14.19654352759071</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>43.09959532340699</v>
+        <v>41.14913978457786</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.95682653842311</v>
+        <v>45.10312213077685</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>44.39257093649719</v>
+        <v>42.13524336655071</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>45.01197658541729</v>
+        <v>43.26118687905048</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>47.10692083882012</v>
+        <v>44.38405703553989</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>7.434445055940472</v>
+        <v>13.97616670837001</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>30.53614377838654</v>
+        <v>32.0766831980921</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.28651143737893</v>
+        <v>36.45076863790286</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>12.27733885461373</v>
+        <v>17.11823085397386</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.69022400403016</v>
+        <v>30.28269129568125</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>30.83034669667355</v>
+        <v>31.09902312208807</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>6.92744532545748</v>
+        <v>12.64657702875998</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>22.65523744725903</v>
+        <v>24.95169500485522</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.73014760157155</v>
+        <v>27.18780834206701</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>8.618763047394328</v>
+        <v>13.92141828319618</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>33.44560648415536</v>
+        <v>33.60544555060238</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.43234487901661</v>
+        <v>36.79796398949061</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.44323866754359</v>
+        <v>34.54663742508129</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>41.65041492495457</v>
+        <v>39.98110842107536</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>44.8745557509536</v>
+        <v>41.77173589705112</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.506323126821442</v>
+        <v>14.84954310192881</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.39012442942889</v>
+        <v>34.48102694320248</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>38.88167358373408</v>
+        <v>37.97777703372022</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>10.82604474871947</v>
+        <v>15.88027443703556</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.00168974676633</v>
+        <v>29.06875937631909</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>35.56382763607554</v>
+        <v>34.30409349811432</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>6.898647909245945</v>
+        <v>12.64630337795122</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>23.0581360940253</v>
+        <v>25.52344048600827</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.16987352889757</v>
+        <v>29.23210643679297</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>8.190349552937363</v>
+        <v>14.17078508986765</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>35.35378662822444</v>
+        <v>35.44596413679223</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>48.30988709804507</v>
+        <v>45.0591193986576</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>44.77558230247342</v>
+        <v>42.84728164626286</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>57.93171931321098</v>
+        <v>52.86306915401006</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>60.93833253913674</v>
+        <v>54.71925007487324</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>8.470220598584138</v>
+        <v>13.39435408468294</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>41.57240288216179</v>
+        <v>40.29412596064283</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>49.64808146703391</v>
+        <v>46.8350313551913</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>15.13397365717848</v>
+        <v>19.89257153836112</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.08746952163911</v>
+        <v>20.97235490837109</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>18.54203829878075</v>
+        <v>21.33419639776979</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>8.927647105510509</v>
+        <v>13.65338901242426</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>15.05245026442986</v>
+        <v>19.08028034886316</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.64279798958104</v>
+        <v>19.1047671928633</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.53245519718024</v>
+        <v>18.03662462431468</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.11182197033821</v>
+        <v>24.46208708110962</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.96482910717357</v>
+        <v>25.66654558806067</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>20.71063223744942</v>
+        <v>23.7977552107212</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.49078157929504</v>
+        <v>26.05528143246769</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.33740740633816</v>
+        <v>27.56666339803648</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>14.82428907416732</v>
+        <v>18.94784605422863</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>16.14165270077161</v>
+        <v>20.41133253122717</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>19.83729711785013</v>
+        <v>22.54020580357271</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>12.13398006164637</v>
+        <v>16.95154613993851</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>22.8594997906954</v>
+        <v>25.55664705953392</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.10527099755433</v>
+        <v>29.87746830376695</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>6.219287816786515</v>
+        <v>12.74198952712256</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>12.57712812693908</v>
+        <v>17.40373507559742</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>20.83341227687023</v>
+        <v>23.51177157897724</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>7.589264027963576</v>
+        <v>13.42035796797271</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>19.49410642578741</v>
+        <v>23.2693355301459</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>33.84844853408769</v>
+        <v>33.9338377006656</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>24.80087895421781</v>
+        <v>27.25662501243285</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>32.93696442613605</v>
+        <v>33.52870901322577</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>39.88550192672339</v>
+        <v>38.54491947077658</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>7.72820795437152</v>
+        <v>13.92412803312044</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.39690648867872</v>
+        <v>27.34796037059541</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>32.69765375744244</v>
+        <v>32.5865068014942</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>16.08256790079147</v>
+        <v>20.73685979508296</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.17040727592807</v>
+        <v>29.85646895135338</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>32.68864447270522</v>
+        <v>32.38102340222412</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>6.839363915036202</v>
+        <v>12.84239274388015</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>19.57202027435443</v>
+        <v>22.871662030465</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.43366713333499</v>
+        <v>27.09499769357327</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>9.962540090342106</v>
+        <v>15.31016206859036</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>30.27012836977184</v>
+        <v>31.68021508681913</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>42.07565044527676</v>
+        <v>40.46075714685373</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.77457823847721</v>
+        <v>36.53709406178275</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>43.98330549717823</v>
+        <v>42.22506858886656</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>46.84857927016845</v>
+        <v>44.33180212112041</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>8.352771635186333</v>
+        <v>14.57290120382387</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>31.83362504907971</v>
+        <v>33.08734775543842</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>43.83212081572756</v>
+        <v>41.98148708226135</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>16.85054211698263</v>
+        <v>19.81180583360234</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>20.45162290727853</v>
+        <v>22.42591135271162</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>23.63487073588</v>
+        <v>24.80939479097665</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>7.938901366229654</v>
+        <v>13.12280572286548</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>23.21945005945736</v>
+        <v>24.40475460605373</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>23.0803388649252</v>
+        <v>24.31354435468608</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>16.13765893917071</v>
+        <v>19.08645292163747</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>35.99282235284524</v>
+        <v>34.08718411893845</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>36.5911622150047</v>
+        <v>34.67241670675722</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.61530633713178</v>
+        <v>28.0177332662942</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.71977244529605</v>
+        <v>30.69059593542186</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>34.1612924688372</v>
+        <v>34.19004729764524</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>14.59780374730554</v>
+        <v>18.25329021424635</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.34994141622828</v>
+        <v>28.76761909467837</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>33.18679643253992</v>
+        <v>32.13968280846917</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>10.13433170059166</v>
+        <v>15.11479509900666</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>22.70070695428571</v>
+        <v>24.54472311069309</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>33.64530253617769</v>
+        <v>32.89752724687072</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>7.673813657656609</v>
+        <v>12.64651000144919</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>14.68667832558319</v>
+        <v>18.44598728006429</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.10246479977352</v>
+        <v>29.94065874347927</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>9.660823560908671</v>
+        <v>13.9238259526739</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>23.79782401410654</v>
+        <v>25.85572610485454</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.42797790728511</v>
+        <v>35.74750791958299</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>23.55863447737495</v>
+        <v>25.58236418642545</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>34.71681253589166</v>
+        <v>34.56457916091998</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>45.79067688904756</v>
+        <v>43.05934915332845</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>8.329408136673834</v>
+        <v>13.25221479364288</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>26.43907703926436</v>
+        <v>27.83486262076798</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>32.26634805807284</v>
+        <v>32.2933977866548</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.43357452012254</v>
+        <v>16.91899648656072</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>22.17267748472727</v>
+        <v>23.91994993619165</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.74499706269696</v>
+        <v>31.4260266637604</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>7.100815261310824</v>
+        <v>12.65385373983332</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>20.32354557156597</v>
+        <v>22.76542178259805</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.05953303421128</v>
+        <v>26.80792146888988</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>9.55379333052365</v>
+        <v>14.07193496231479</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>31.15197875096215</v>
+        <v>31.7735246522635</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>36.06954370312346</v>
+        <v>35.27063512656623</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.52955774200285</v>
+        <v>37.99511412455558</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>43.10202023296019</v>
+        <v>41.56145127114842</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>50.70110258875883</v>
+        <v>47.31021609452561</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>7.421559786074358</v>
+        <v>12.87506473767347</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>24.46702194571711</v>
+        <v>27.09537674305908</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.79725436177778</v>
+        <v>36.63118769712126</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>20.5112836853179</v>
+        <v>23.32717241279118</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>24.24518231238096</v>
+        <v>26.41660991653304</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>34.31569274778371</v>
+        <v>33.89011526686134</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>8.28879820543624</v>
+        <v>13.20079485981209</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>39.37984210678876</v>
+        <v>37.93194781749339</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>41.61767635233571</v>
+        <v>39.3465533785866</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.69937488858557</v>
+        <v>19.07551498710023</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>57.73926215926437</v>
+        <v>52.34833480230679</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>58.30015398704251</v>
+        <v>52.68142538502279</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>43.84558103142557</v>
+        <v>41.14718203815166</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.89798135996791</v>
+        <v>41.5572149480489</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>46.20501420429166</v>
+        <v>43.26939059087704</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>21.97891025640325</v>
+        <v>25.33343603565238</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>22.41378906922862</v>
+        <v>26.05434398715321</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>58.23098240528093</v>
+        <v>52.92571543906638</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>24.32163128246355</v>
+        <v>26.61704668221723</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>32.68194481973786</v>
+        <v>32.61696555913672</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>34.06652138432963</v>
+        <v>33.4413965770017</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>8.870387023700001</v>
+        <v>13.59730835828966</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>26.42771315777799</v>
+        <v>27.81806914721459</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>30.34080640754686</v>
+        <v>31.0530114582933</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>12.89039043210233</v>
+        <v>17.04095073853945</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>41.09185956438974</v>
+        <v>39.43973775801638</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>45.03371759163585</v>
+        <v>42.38834226304172</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>40.35807671982929</v>
+        <v>39.03006429800434</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>47.79010055284978</v>
+        <v>44.61785443629316</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>47.87590667145405</v>
+        <v>44.40446196106691</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>21.73464180645366</v>
+        <v>24.26806068804246</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>40.32712761205505</v>
+        <v>38.48776348459339</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>45.12773437340968</v>
+        <v>42.06541633492388</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>24.88988182269284</v>
+        <v>26.54805716968418</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>33.10783988587893</v>
+        <v>32.63797454328592</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>37.39734243911192</v>
+        <v>35.96354750638194</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>8.026942643888582</v>
+        <v>13.56344575341696</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>28.22851586318459</v>
+        <v>29.15594753395086</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>31.93124798082022</v>
+        <v>32.03340186572705</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>12.35822404981241</v>
+        <v>16.96515265458812</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>45.80414259119664</v>
+        <v>43.2739977905659</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>56.07269330663712</v>
+        <v>50.54582235774627</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>49.05400901168471</v>
+        <v>46.05051503656964</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>56.90713877062839</v>
+        <v>51.59929114499742</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>62.35840337303532</v>
+        <v>56.08705557881046</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>17.96079513718988</v>
+        <v>21.73421341037234</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>45.07265601525361</v>
+        <v>43.00020187120961</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>52.75905180489852</v>
+        <v>48.85592938392585</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>10.59683645368224</v>
+        <v>15.4095870078991</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>22.79458332982632</v>
+        <v>25.22911674684197</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>31.00591038555384</v>
+        <v>30.93661488869537</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>6.872817201170566</v>
+        <v>12.57541754913277</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>24.30034116636666</v>
+        <v>26.30697097205562</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>24.82263624030926</v>
+        <v>26.62890654012767</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>8.991498285574586</v>
+        <v>14.27173367644229</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>38.78805434788586</v>
+        <v>37.7924300079528</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>43.877983968814</v>
+        <v>41.65042004400965</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>42.47897986677104</v>
+        <v>40.56136425528013</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>47.221445120973</v>
+        <v>44.98772220419779</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>44.88839921133258</v>
+        <v>42.19054053981336</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>7.3291371775451</v>
+        <v>13.88657846300324</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>29.83529096877492</v>
+        <v>31.72614918073962</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>33.7405717738355</v>
+        <v>34.5206945383355</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>13.02568353712662</v>
+        <v>17.71326523923769</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.76812906851211</v>
+        <v>31.47653774339076</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.14339555418764</v>
+        <v>30.47849528577064</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>7.400016737905197</v>
+        <v>12.64906430087798</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>22.3864816832847</v>
+        <v>24.69329889949275</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>27.07915992392877</v>
+        <v>28.40890359192085</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>9.74006134842864</v>
+        <v>14.1686585569112</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.78176424027026</v>
+        <v>36.10369398919423</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>44.8799462735799</v>
+        <v>42.26583880971606</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.99875152994296</v>
+        <v>36.45947108733729</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>44.20020795283761</v>
+        <v>42.18778320880122</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>46.96889648899573</v>
+        <v>43.96810651607801</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>9.541473878153933</v>
+        <v>14.87816270822277</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.28710106928238</v>
+        <v>36.53051842839864</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>42.24440590591483</v>
+        <v>39.92772869541458</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>12.02203910687101</v>
+        <v>16.73993222827095</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>30.26485100792212</v>
+        <v>30.80669028786741</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.99470028194444</v>
+        <v>35.9743263448846</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>6.870205199108248</v>
+        <v>12.65040334033807</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>22.52158578427217</v>
+        <v>25.16986128872784</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.65207080960984</v>
+        <v>27.23936857432057</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>8.146594917960535</v>
+        <v>13.93619748295741</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>35.63481328570462</v>
+        <v>35.62183844220738</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>46.74911991207124</v>
+        <v>43.92484541668427</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>45.05636635377252</v>
+        <v>43.04695232338834</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>53.73771988802373</v>
+        <v>49.64503779651011</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>59.27611705243511</v>
+        <v>53.82826810658509</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>8.750590380208315</v>
+        <v>14.11407727314761</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>37.4984471609847</v>
+        <v>37.18613401941893</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>49.44396333044264</v>
+        <v>46.3223131072931</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.446</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.933</v>
+        <v>16.561</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.621</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.473</v>
+        <v>14.512</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.018</v>
+        <v>4.016</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.58269868348905</v>
+        <v>9.528602984297848</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.50548585108007</v>
+        <v>13.51212713065577</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.0951962919124</v>
+        <v>18.04596152603912</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12.51796052350805</v>
+        <v>1.557325329798886</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.32382876520032</v>
+        <v>14.59596015881328</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18.57689811398577</v>
+        <v>16.45655431768495</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>15.13352330933593</v>
+        <v>5.553388658548322</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.87951648522176</v>
+        <v>22.53238821432326</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.32893555096576</v>
+        <v>24.9641722773781</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.63938688499806</v>
+        <v>18.51739818784707</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.28402210076936</v>
+        <v>22.31610135011826</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.01073793434302</v>
+        <v>26.32541771994196</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.360948843115</v>
+        <v>5.876982221306886</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>19.99197033358499</v>
+        <v>12.89516703226959</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>21.29760429034838</v>
+        <v>20.19744162989434</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.82336120578427</v>
+        <v>12.93157320164097</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.19073522040807</v>
+        <v>27.06251751309729</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.38867962824927</v>
+        <v>35.72366085877104</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.51193154147875</v>
+        <v>1.692511996832337</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.55956491728783</v>
+        <v>15.13440768874817</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.34731303313484</v>
+        <v>24.62262997576137</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.83639086556417</v>
+        <v>1.211067278301933</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.09520557436127</v>
+        <v>23.81787168574278</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>41.40432906627969</v>
+        <v>42.31496156803799</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.19159848906404</v>
+        <v>27.95160703286728</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42.57275876490265</v>
+        <v>44.58408367640421</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>54.22553852446524</v>
+        <v>58.75844795207321</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>14.7085473793687</v>
+        <v>6.412341578897262</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.8132580633478</v>
+        <v>34.5061138922926</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43.67252045582704</v>
+        <v>46.77072144386234</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>19.95541938183609</v>
+        <v>14.63777998501786</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.51714887709952</v>
+        <v>30.33449693272996</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>37.60523325959315</v>
+        <v>37.99685556903652</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>13.10002859153773</v>
+        <v>3.284315913720672</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>23.76516906177598</v>
+        <v>20.21061035932088</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.10557905558337</v>
+        <v>28.53424430187864</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>13.36547531970756</v>
+        <v>5.272105290445385</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>34.84430248744797</v>
+        <v>37.13506402656454</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>42.04109786184121</v>
+        <v>45.75218648592577</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.87167200528157</v>
+        <v>42.25227357462965</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>50.74884169842991</v>
+        <v>53.19162405210054</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>56.04925531213248</v>
+        <v>64.10043578682075</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>20.70099484234518</v>
+        <v>11.68408452447714</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.69837069470647</v>
+        <v>42.90933130460931</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>45.3686347534368</v>
+        <v>48.70888349204363</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>13.59142391956681</v>
+        <v>6.258374695037414</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.37258059663815</v>
+        <v>30.32545058881091</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.65650063117646</v>
+        <v>35.07825373596231</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>12.6463414416632</v>
+        <v>7.908754897095527</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.48162797742688</v>
+        <v>33.9481742520366</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.15750228056796</v>
+        <v>37.10679163111682</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>13.20814945134643</v>
+        <v>9.549845143685737</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>48.20956320764567</v>
+        <v>55.4813833507326</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>52.98635817749788</v>
+        <v>61.08789740701626</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>45.28991959177282</v>
+        <v>49.8160213869612</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>50.72739063548116</v>
+        <v>58.74703789425803</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>47.42832288493704</v>
+        <v>53.55652698883085</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.06021754312493</v>
+        <v>6.445301552715335</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>36.4372770269248</v>
+        <v>37.53346519264699</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>42.71954471076997</v>
+        <v>49.90325306941807</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>15.26862750070076</v>
+        <v>9.38115632905847</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>34.210929312166</v>
+        <v>31.6480359707293</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>37.70463621751082</v>
+        <v>36.60256765486893</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12.64622640523049</v>
+        <v>5.542039676967057</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.21887056694202</v>
+        <v>21.90151293604086</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.24132690474275</v>
+        <v>30.27367410787617</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12.86534982891244</v>
+        <v>4.824854253096877</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.76359377039563</v>
+        <v>39.8533607459517</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.19826919214945</v>
+        <v>49.52929120100778</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>38.41577465776579</v>
+        <v>42.77127178705708</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>50.24473081687494</v>
+        <v>53.19721363339193</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>54.75709729617651</v>
+        <v>59.92237477834404</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>13.87050653454649</v>
+        <v>4.510845655749545</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>41.69325438999323</v>
+        <v>44.28979266097762</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>45.18747440012434</v>
+        <v>50.96071297579152</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>15.05110687596679</v>
+        <v>9.395871532315503</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>35.04915172251513</v>
+        <v>35.68526138370522</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>39.61058712874604</v>
+        <v>41.25594452559949</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>12.64638531133606</v>
+        <v>5.100710981911107</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.68018014048812</v>
+        <v>29.25286916822395</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>34.45263426134568</v>
+        <v>36.56518160946211</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.81803529951741</v>
+        <v>7.002604565028392</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>45.40874765273671</v>
+        <v>52.45844765531361</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>57.14144618264703</v>
+        <v>67.56593854992613</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>46.45536710963437</v>
+        <v>54.2091719093429</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>59.57311817008102</v>
+        <v>66.20011351401425</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>62.26938004863564</v>
+        <v>73.13139635681378</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>13.50212114318291</v>
+        <v>3.328868290727691</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>48.55690166387117</v>
+        <v>53.79953894435734</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>52.86579531910409</v>
+        <v>61.20167009334783</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22.66114645409597</v>
+        <v>19.9558795348185</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.14907282893952</v>
+        <v>27.72599356628158</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>33.99967392646354</v>
+        <v>34.21747827238627</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>13.02815773793859</v>
+        <v>5.12275951893119</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>30.16600384292131</v>
+        <v>28.85399379968534</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.70065866919646</v>
+        <v>31.14558444118583</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.43606917393984</v>
+        <v>8.811614423800521</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>48.5087958620564</v>
+        <v>51.19654458473148</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>48.21267072462365</v>
+        <v>51.75173215131078</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>38.04019336785593</v>
+        <v>39.42637283321424</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>43.72434652069349</v>
+        <v>47.61593160181041</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>42.2305706271392</v>
+        <v>46.01007035463236</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.20661240220277</v>
+        <v>14.71387476668483</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.49068399267989</v>
+        <v>31.98791996568364</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>34.38561297326552</v>
+        <v>36.96529054951392</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.57631967738154</v>
+        <v>18.77385855608447</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.0464525762909</v>
+        <v>36.03306890028341</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.36002981068221</v>
+        <v>38.49931620669535</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>13.03734490953353</v>
+        <v>6.662794140098953</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.89679283800916</v>
+        <v>26.47995784951637</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.99858326626372</v>
+        <v>32.03945441367522</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>14.35694417301301</v>
+        <v>7.358961634560664</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>43.7650482930127</v>
+        <v>45.36645636711931</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46.24794912911352</v>
+        <v>53.4008676278404</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>42.79741854642685</v>
+        <v>46.2707647400901</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>51.63004494394449</v>
+        <v>56.9494814372126</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>54.49939810873014</v>
+        <v>59.56686014791318</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.24524550213091</v>
+        <v>19.22257583752502</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>41.99224999181647</v>
+        <v>44.83218083429139</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.12427290598433</v>
+        <v>50.0907175388488</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.90155810230802</v>
+        <v>23.61216576453621</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.16523688645782</v>
+        <v>37.63846153201561</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.10280523521164</v>
+        <v>43.79057027737653</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>13.08460377027795</v>
+        <v>5.109630358971202</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>30.29239489596415</v>
+        <v>29.97917830522205</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>33.89996538946055</v>
+        <v>35.69591978515436</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>13.96160315429002</v>
+        <v>7.422988625199128</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>47.467416070519</v>
+        <v>50.97714829829515</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>55.89799787892751</v>
+        <v>65.58989414373255</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>48.47151008137197</v>
+        <v>54.27608983621666</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>55.94683860374849</v>
+        <v>64.49799538868439</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>61.47490388866766</v>
+        <v>71.66649712770065</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>24.03246166159847</v>
+        <v>21.30362759028357</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>47.92979031392056</v>
+        <v>51.74894503568188</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>52.14330766242878</v>
+        <v>59.17541123293663</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>18.37398118981143</v>
+        <v>10.55650406811982</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.26073918701675</v>
+        <v>14.04572509689562</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>21.04352102993479</v>
+        <v>19.38460717994693</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>13.43152633055662</v>
+        <v>2.382803362025751</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17.36623550314337</v>
+        <v>14.3259246904261</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>17.93002260986788</v>
+        <v>15.40451753463916</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>15.86299137628711</v>
+        <v>6.652679984037658</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.64716555309242</v>
+        <v>24.20079954162457</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.83033690812711</v>
+        <v>25.58022063674727</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>23.76458305207676</v>
+        <v>19.58546986038995</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.21246214672469</v>
+        <v>21.78144496199953</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.84565128291445</v>
+        <v>27.00411525323245</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>50.2105582989423</v>
+        <v>53.28743534684975</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>52.19213755631854</v>
+        <v>56.18835585352173</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>51.05428455139426</v>
+        <v>55.09940283169125</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>17.48359297052754</v>
+        <v>11.02335145549158</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.70435751831975</v>
+        <v>27.06327307132516</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.44534688412091</v>
+        <v>35.68879898901854</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>11.78525279666168</v>
+        <v>-0.5839133781983996</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16.78677474729798</v>
+        <v>11.75130060208329</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>23.83704627974383</v>
+        <v>22.08573797266155</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>12.74307056761909</v>
+        <v>4.186655440359278</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.57473905579841</v>
+        <v>24.87615936797346</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>39.14781306420429</v>
+        <v>40.52943950339427</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>27.79558552149981</v>
+        <v>25.92327208229053</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>40.36247920487209</v>
+        <v>42.17650080042014</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>49.3387034484769</v>
+        <v>52.71162993872585</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>14.75373984520538</v>
+        <v>6.202987672419955</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>33.0466779741724</v>
+        <v>31.15094149995727</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>38.07446315647854</v>
+        <v>39.73983591734135</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.74096729013283</v>
+        <v>18.27419263117913</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>31.57474738310635</v>
+        <v>30.16387159531541</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>36.41709331676799</v>
+        <v>37.65780385264887</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.89613601411928</v>
+        <v>0.8523344447702108</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>20.37797448010071</v>
+        <v>16.30490508134218</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>26.05396262242571</v>
+        <v>25.03200512755598</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>15.78583879812802</v>
+        <v>8.08195832749772</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>33.4712793513046</v>
+        <v>34.6781345900189</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>44.19956035285374</v>
+        <v>47.73886243350155</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>33.07464030760805</v>
+        <v>33.68950563717567</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>42.64801487103427</v>
+        <v>46.15211955589805</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>52.57632167559937</v>
+        <v>59.29123705029431</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>23.89958556009903</v>
+        <v>16.02215422872588</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.38786590546204</v>
+        <v>43.96002245353677</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>46.56644656555762</v>
+        <v>49.50048701943736</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>15.92574932826633</v>
+        <v>11.45507409359099</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>23.31793156251525</v>
+        <v>21.02723527859786</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.29536364317259</v>
+        <v>27.60540950249488</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>12.87142189325127</v>
+        <v>5.194521248483191</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.70334841765681</v>
+        <v>28.55398346336163</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>31.75589442522974</v>
+        <v>31.95741337605018</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>16.4100695061752</v>
+        <v>10.36721183541959</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>48.91615692717011</v>
+        <v>57.67676411595532</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>49.58805599679934</v>
+        <v>53.48465392518175</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>35.88277065058627</v>
+        <v>37.54100255204779</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>42.08275986549869</v>
+        <v>45.92607094360606</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>42.68448960587413</v>
+        <v>46.78583354587518</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.21584143555885</v>
+        <v>13.4612773517816</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.28952023575204</v>
+        <v>12.51987696195568</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>19.21029026287196</v>
+        <v>14.74669434987922</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.32322529967552</v>
+        <v>24.6401701275848</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>36.88034701934755</v>
+        <v>37.7396118554941</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.7833386851466</v>
+        <v>41.18463523088161</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>13.2483102635291</v>
+        <v>7.048258317689807</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.60454794480704</v>
+        <v>28.33772027540691</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>34.35440363774008</v>
+        <v>34.56271260961559</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.07230972403917</v>
+        <v>8.6710193187394</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>45.03576135690363</v>
+        <v>47.59419844440563</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>46.72674545402312</v>
+        <v>52.34837566813748</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>45.56155806128288</v>
+        <v>49.69625295136983</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>54.88314155041932</v>
+        <v>59.44556572472374</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>56.30480589581344</v>
+        <v>62.7620652283073</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.90632314833675</v>
+        <v>28.07863920077869</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>46.24445679094097</v>
+        <v>48.13942605846874</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>48.25500711843129</v>
+        <v>54.16873502646845</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>27.82999139181133</v>
+        <v>25.72178337071956</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>37.692264110749</v>
+        <v>38.317568891674</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>39.19611385150621</v>
+        <v>43.27477258415944</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>13.1519716467128</v>
+        <v>5.925922514424748</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>26.4923325208154</v>
+        <v>26.66359157113687</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>31.90520197868747</v>
+        <v>34.494841021497</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>16.46400877685615</v>
+        <v>10.31938449220042</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>44.67816452506209</v>
+        <v>47.95859239339646</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>53.14195280203734</v>
+        <v>61.21526269558979</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>47.76582492258449</v>
+        <v>52.11494938272722</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>55.5636915403564</v>
+        <v>63.17757657128789</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>58.48839752007798</v>
+        <v>68.97878474072346</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.18806245137193</v>
+        <v>28.95818436457621</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>48.75326985728299</v>
+        <v>53.55793976509104</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>54.2119197608623</v>
+        <v>60.46899813490393</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>15.04892716374251</v>
+        <v>10.17295510465113</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>22.85506363110477</v>
+        <v>21.12182986228609</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>31.29807067790103</v>
+        <v>30.13478330329822</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>12.79244888750263</v>
+        <v>7.477742393121545</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.20700911791138</v>
+        <v>31.41895890401719</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.03599851727819</v>
+        <v>34.8388446954299</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>16.03547211436345</v>
+        <v>12.97306454118775</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>51.46751979910291</v>
+        <v>58.52711903998447</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>52.75666821471074</v>
+        <v>57.95549438941993</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>36.97600336927667</v>
+        <v>39.23293066225393</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>43.71961907288026</v>
+        <v>48.74603965365787</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>44.33034890414346</v>
+        <v>49.63756713073582</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>17.17154880204827</v>
+        <v>11.74990288245089</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.60254363102571</v>
+        <v>10.91107769934719</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17.29193731655891</v>
+        <v>11.92320955104462</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>22.81656731669319</v>
+        <v>20.16136213108642</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>39.28366888254154</v>
+        <v>39.54826362086579</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>39.18393493419786</v>
+        <v>40.92627754476295</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>12.78542800742499</v>
+        <v>8.404772508297995</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.41718530670612</v>
+        <v>33.60727340424499</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>38.24138628227655</v>
+        <v>38.35933746530719</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>13.28218533002839</v>
+        <v>8.712492837670503</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>50.24642889390741</v>
+        <v>55.03862046813035</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>51.23112093589027</v>
+        <v>57.04627464556687</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>43.69036009506887</v>
+        <v>50.27734050335913</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>52.7311820507645</v>
+        <v>60.11640062304274</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>57.80629540382657</v>
+        <v>64.23560066584531</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>21.37860042493607</v>
+        <v>18.87948641832828</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>49.56476848407725</v>
+        <v>55.6558321875979</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>52.17903078265589</v>
+        <v>58.83067771788685</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>24.55964531993097</v>
+        <v>22.50579962057393</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.65760746591191</v>
+        <v>40.61871326290915</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>40.13383352917311</v>
+        <v>44.60935944940442</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>12.87709249101529</v>
+        <v>7.584532103604282</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>31.08042091861078</v>
+        <v>30.81132160871724</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>34.06975412865756</v>
+        <v>36.57130442992043</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>14.49728201859566</v>
+        <v>11.13401508496149</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>48.74839015936277</v>
+        <v>53.67808572350071</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>55.24794729596286</v>
+        <v>64.44391645475051</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>50.01848302903799</v>
+        <v>56.50595243493873</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>59.14808809650793</v>
+        <v>67.14549062716689</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>62.11082794238459</v>
+        <v>72.04657226607299</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>20.70630596291846</v>
+        <v>16.90490033253881</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>51.0927875853961</v>
+        <v>57.71905367166094</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>54.89862644198224</v>
+        <v>63.3905044035391</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>17.16049325655203</v>
+        <v>6.830426131000326</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>17.07183107674432</v>
+        <v>10.28415771672677</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>18.23776435863625</v>
+        <v>12.91689081008798</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>13.28043843449417</v>
+        <v>1.731393201667355</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.93622652779023</v>
+        <v>13.43083381263639</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>16.87568060858966</v>
+        <v>13.82212912048626</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>15.83321001302818</v>
+        <v>4.564931073777785</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.27267251652442</v>
+        <v>20.00225945642469</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.38822087983569</v>
+        <v>22.16776945455311</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.42432925800482</v>
+        <v>20.38630697323394</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.39019975103219</v>
+        <v>24.89617442226653</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.90972874770557</v>
+        <v>25.32736308214792</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.16727266468855</v>
+        <v>7.040892031207409</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>17.09676621113229</v>
+        <v>9.246705909400553</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>18.82663504451756</v>
+        <v>13.41501427476985</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.04344625713238</v>
+        <v>11.54116948849227</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.76943345370368</v>
+        <v>25.11653629681615</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>32.5380852865204</v>
+        <v>30.62931990582967</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>12.76335645778405</v>
+        <v>6.250377202371546</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>21.43932823857429</v>
+        <v>18.818043322638</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>27.93995366384604</v>
+        <v>25.48327606360588</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>15.17013703707885</v>
+        <v>6.612751677854511</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>32.46430047276012</v>
+        <v>27.77058071739755</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>40.02998075994239</v>
+        <v>40.82451457628247</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>32.28728437842108</v>
+        <v>31.52929937798489</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.98060769936316</v>
+        <v>41.18366784093966</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>44.13296296897873</v>
+        <v>45.60157909475994</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>16.82093882525383</v>
+        <v>10.00174043224972</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>34.80252724087504</v>
+        <v>32.53262013098865</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>40.23032757514616</v>
+        <v>39.30050392991674</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>17.74850645968467</v>
+        <v>11.56814625026412</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.42475699933231</v>
+        <v>27.71974920857876</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.2294191506783</v>
+        <v>34.03115486900528</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>12.73857852579006</v>
+        <v>3.79687138129119</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>24.63925949043465</v>
+        <v>23.61421597846495</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.50183913839539</v>
+        <v>29.08173503506515</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>15.1274021380794</v>
+        <v>7.204882073952845</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>36.82873353114999</v>
+        <v>37.69657870897201</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.00296477543944</v>
+        <v>47.33595151909415</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>43.41817903790469</v>
+        <v>46.87405436858221</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>53.24262397813902</v>
+        <v>57.45467657163597</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>53.3825052556989</v>
+        <v>61.40007224973782</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>17.74952002959365</v>
+        <v>12.14473866223548</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>41.83795503405667</v>
+        <v>44.29169354712818</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>48.54942502747713</v>
+        <v>54.06691593681632</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>13.87334629673835</v>
+        <v>5.270454207859594</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>17.71436691731467</v>
+        <v>8.456252348450466</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>19.03066231104687</v>
+        <v>13.80042861085947</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>12.53988591671491</v>
+        <v>1.343640497464563</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.80421300685143</v>
+        <v>12.00277001118876</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>20.0644209601016</v>
+        <v>13.66314659973396</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>13.17815441293896</v>
+        <v>3.245634718483785</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>20.0458359010694</v>
+        <v>17.79703457459683</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.87352657064343</v>
+        <v>15.82434235079469</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>18.47168113854261</v>
+        <v>13.14827987734369</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>19.83531754280579</v>
+        <v>14.74862409908133</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>20.21168537502746</v>
+        <v>15.31811213873773</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>15.19591897428256</v>
+        <v>7.756709618027088</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>19.10967919932244</v>
+        <v>11.67541454932677</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>19.43986439273779</v>
+        <v>14.50311764102374</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>12.33314267147643</v>
+        <v>6.25399696834215</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.94270532955327</v>
+        <v>11.76286336973677</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>22.7704097543143</v>
+        <v>19.17656704544977</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>12.63612001379882</v>
+        <v>2.081510161601855</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>13.70134904020403</v>
+        <v>7.105236150077875</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.78360248123322</v>
+        <v>14.15486229216841</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>13.08832471263585</v>
+        <v>3.415398781070984</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>15.36388422190854</v>
+        <v>8.84165550749109</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.06406898867211</v>
+        <v>25.00939825267462</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>16.8886080956959</v>
+        <v>8.203256671058568</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>27.23322977476538</v>
+        <v>24.56835620734504</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37.89664639468715</v>
+        <v>39.26899003729569</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>12.50401030680704</v>
+        <v>1.046455751992877</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>17.62447665762931</v>
+        <v>10.59209749658079</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>18.45537095987505</v>
+        <v>12.84775930962629</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>12.45579825770554</v>
+        <v>3.313091761054363</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>16.4646607481006</v>
+        <v>11.41218196715854</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>26.499945879938</v>
+        <v>22.66419958032014</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>12.64642378195165</v>
+        <v>0.03726212687202235</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>14.90473147212091</v>
+        <v>7.293600744581266</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22.95770939898199</v>
+        <v>17.94009419095389</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>12.50563448050533</v>
+        <v>1.335002707744287</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>17.90686669474739</v>
+        <v>10.33833655549254</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>34.91637499542114</v>
+        <v>35.24893536608671</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>20.50814751355157</v>
+        <v>11.53488644319757</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>40.72017561762033</v>
+        <v>43.17119449747989</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>49.37130567616987</v>
+        <v>53.8286012802055</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>11.4619935594184</v>
+        <v>-0.5462971405891501</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>17.80035013877233</v>
+        <v>10.16158846565793</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>22.40286724391463</v>
+        <v>18.66541445441482</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>20.19299559974714</v>
+        <v>10.88875212489966</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.66549627406733</v>
+        <v>17.55783844083712</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>34.51171904924851</v>
+        <v>32.87505354029554</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>13.03191176638982</v>
+        <v>6.922559794257864</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>37.79919690045813</v>
+        <v>36.89200715173187</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>38.42424916940765</v>
+        <v>39.25527878592652</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>16.27278075651198</v>
+        <v>10.58988618790971</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>50.37852955078272</v>
+        <v>54.61530752281577</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>52.73487697344886</v>
+        <v>59.80306015432085</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>40.06342141989094</v>
+        <v>42.9706813649988</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>43.11815983844765</v>
+        <v>47.62187152996338</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>44.00489739730101</v>
+        <v>48.36535866885175</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.71774749382866</v>
+        <v>26.19881512725612</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.70741961125992</v>
+        <v>35.97286713377179</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>55.70613066147943</v>
+        <v>60.80910506225268</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>17.5796542777168</v>
+        <v>12.05184416038979</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.06140692756818</v>
+        <v>29.83281636077285</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.39330130144771</v>
+        <v>32.77063281172322</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>12.92454941536196</v>
+        <v>6.651437752936502</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>27.90816363494655</v>
+        <v>25.63943608138316</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.40232303456462</v>
+        <v>28.93725171024749</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>15.08540113319283</v>
+        <v>7.743384208455346</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>39.9790316004724</v>
+        <v>39.98997113620244</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>41.70290071509308</v>
+        <v>45.92578687602513</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.78454717413217</v>
+        <v>38.90676351173704</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>43.43572200086133</v>
+        <v>47.06916937622393</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>45.73043080033501</v>
+        <v>50.95234763012292</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>23.44392182197277</v>
+        <v>20.29363606479365</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.49839401532209</v>
+        <v>41.4271853892037</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>41.99090036413143</v>
+        <v>46.77431666137297</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>20.95889627823982</v>
+        <v>16.43266673208162</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.26445139633591</v>
+        <v>31.00546302571647</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.99485679264657</v>
+        <v>38.890031308327</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>12.93956446498925</v>
+        <v>6.762382150932105</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>31.64926666911309</v>
+        <v>31.07283598683424</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>34.47344861636468</v>
+        <v>35.85945675174346</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>15.65205878523004</v>
+        <v>11.25318280750248</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.66984466821386</v>
+        <v>49.00233180138103</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>54.76859073000199</v>
+        <v>63.12295533223065</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>45.55056621322608</v>
+        <v>51.23537053050356</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>53.09738460897049</v>
+        <v>60.1324241052989</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>55.90708806638229</v>
+        <v>65.86236227045595</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>23.24110728022605</v>
+        <v>21.8474590985841</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>47.14311282867166</v>
+        <v>52.11016894533443</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>54.29649887772253</v>
+        <v>62.86238765071283</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>17.48889723301951</v>
+        <v>8.154246764707374</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>17.8801831948636</v>
+        <v>10.86315141012693</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>18.51471687588345</v>
+        <v>15.54041516426508</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>13.2621322940722</v>
+        <v>1.601838340368079</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.29601890623681</v>
+        <v>9.813536218777411</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.75487919915012</v>
+        <v>11.87949973526256</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>15.47685456970475</v>
+        <v>5.152070127717241</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.98783537783713</v>
+        <v>16.83513314119642</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.85089083876203</v>
+        <v>19.61499085782913</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>19.73950784689298</v>
+        <v>15.27524966391805</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.62965001040659</v>
+        <v>18.03870594065587</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>23.13966836025138</v>
+        <v>20.98151540840715</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>15.76167925695967</v>
+        <v>6.724085305842248</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.34039126925077</v>
+        <v>7.547949580546231</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>19.23324731915422</v>
+        <v>12.88799877765347</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>15.09405761343328</v>
+        <v>6.196479804164568</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>21.17619367871638</v>
+        <v>16.20578774850798</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.08579200205157</v>
+        <v>24.75188998953274</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>12.64649849824612</v>
+        <v>1.962585584070929</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>14.47598507176834</v>
+        <v>8.24370446039303</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.53725077129551</v>
+        <v>19.47367576372493</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>13.26367321616297</v>
+        <v>1.330271624644798</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>17.62283564153807</v>
+        <v>12.90522231471865</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.39445121328745</v>
+        <v>30.21430343821866</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>20.50072333906406</v>
+        <v>14.2564802189759</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>27.98452485356081</v>
+        <v>24.47852482942255</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>35.95427793906258</v>
+        <v>33.94057154323467</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>12.95281918805452</v>
+        <v>2.498359410607254</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>21.50967865959269</v>
+        <v>18.49771079935597</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>27.21057223889378</v>
+        <v>25.83337715612097</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>17.94652603626225</v>
+        <v>10.36363018068313</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>24.83756273684706</v>
+        <v>21.316420052349</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>31.89649795723385</v>
+        <v>31.46077495069411</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>12.98146326558959</v>
+        <v>2.862887327877946</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>18.90389087115431</v>
+        <v>12.19811282221435</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.36227427889834</v>
+        <v>21.99004801326356</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>17.4909631112994</v>
+        <v>7.413437252188736</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.35281673533398</v>
+        <v>21.17209924734036</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>37.69458403285982</v>
+        <v>39.05224854526623</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.07207687945398</v>
+        <v>23.48444572521534</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>32.88470542690028</v>
+        <v>33.82423514851607</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>45.54595002189788</v>
+        <v>49.72417079909753</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.4473383810351</v>
+        <v>13.32339736549</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.63367763958865</v>
+        <v>29.00367138375954</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>37.06824849282474</v>
+        <v>37.67122931164548</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.06448006692265</v>
+        <v>2.143194198471122</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>12.73563248756605</v>
+        <v>2.132845813982627</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>15.12756667770261</v>
+        <v>8.589015315542007</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.6019741583409</v>
+        <v>0.180263739983566</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.65499552453745</v>
+        <v>4.569484301444177</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.39325283247633</v>
+        <v>6.62875417876187</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>14.70342039045272</v>
+        <v>4.973335011063625</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.46774531625791</v>
+        <v>11.58784897335336</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>15.69235726502701</v>
+        <v>12.8968754240388</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.16660981985619</v>
+        <v>4.986999471330492</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>13.3458869860214</v>
+        <v>5.126705641585037</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>20.03044579365303</v>
+        <v>13.00250936971677</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>12.06434401423101</v>
+        <v>2.495239437166262</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>12.64656979915052</v>
+        <v>0.8453172239257114</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>12.65902368962943</v>
+        <v>3.522574280477802</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.50344769773557</v>
+        <v>16.96047645547374</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.73860605697519</v>
+        <v>30.82048517484716</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.07676504223969</v>
+        <v>34.03013539368002</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>12.90843585324351</v>
+        <v>7.743869607704919</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.09391424429088</v>
+        <v>22.74037897013254</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.58505549670609</v>
+        <v>29.01773162737443</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>15.53384665840026</v>
+        <v>10.30851134814233</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.68083306213671</v>
+        <v>41.67850102368632</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>43.97799887803566</v>
+        <v>47.06693507450481</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>37.52958280946639</v>
+        <v>39.20824243095957</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.57683476614217</v>
+        <v>46.87200808877829</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>43.44198853300224</v>
+        <v>49.61168307170537</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>21.75869166198818</v>
+        <v>15.89560906983363</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>38.08017549581295</v>
+        <v>38.48727003964648</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.49127252655759</v>
+        <v>42.74474572542558</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>23.44718539397853</v>
+        <v>20.5075098440937</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>33.19708425143839</v>
+        <v>34.29391896074248</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.67728501428026</v>
+        <v>42.52993741865545</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>12.92601447625046</v>
+        <v>4.673581121060458</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.08212416037057</v>
+        <v>27.46926366736181</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.76846015490322</v>
+        <v>33.84410838807124</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>15.58930315763046</v>
+        <v>8.718815879924179</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>43.03816470054343</v>
+        <v>46.8126922623247</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>50.99664902469038</v>
+        <v>56.73640240440123</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>46.32010267584169</v>
+        <v>51.13919150243339</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>53.8840405778961</v>
+        <v>59.22351556445591</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>56.23073879147256</v>
+        <v>65.41645031084988</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>19.47783266038636</v>
+        <v>13.97495074784678</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>44.88826574800581</v>
+        <v>48.87459147723848</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.77630425904832</v>
+        <v>54.69416915602756</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>18.84391532323755</v>
+        <v>12.22392279301219</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>20.17468688320603</v>
+        <v>15.39696023012262</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>20.5528800570233</v>
+        <v>18.66027470744901</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>13.87736594184327</v>
+        <v>4.220780453414196</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>19.94813842471291</v>
+        <v>14.78353400591315</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.61230647826058</v>
+        <v>16.03029145825345</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>18.90276376956702</v>
+        <v>12.40377038784765</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.61033029035514</v>
+        <v>25.38443505075452</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.91161705397813</v>
+        <v>23.26264867126781</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>23.7867331908165</v>
+        <v>20.48779027921805</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>26.90894582555372</v>
+        <v>23.92705935524298</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.17684703522781</v>
+        <v>27.66114026001148</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>20.75812960883935</v>
+        <v>12.77368926722816</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>19.5911025258947</v>
+        <v>13.82185814285403</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>21.6661656640547</v>
+        <v>20.20857114667389</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>13.69240597661719</v>
+        <v>6.039048255764683</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>17.82912517157554</v>
+        <v>13.8918318684975</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.63891213018432</v>
+        <v>19.48986120630266</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>12.64654766085857</v>
+        <v>0.1184415903014404</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>13.8567377276762</v>
+        <v>5.541999993802431</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>20.17772884196064</v>
+        <v>13.19139032214643</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>12.64651864692465</v>
+        <v>0.123414723081364</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>15.98142059562437</v>
+        <v>9.445153022571809</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.19533561993122</v>
+        <v>22.60916930594991</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>18.04958139747437</v>
+        <v>11.8432153688342</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>23.29330726797381</v>
+        <v>18.5936734449415</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>30.06175420391942</v>
+        <v>29.12767235165232</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>12.96845931953557</v>
+        <v>2.432482373565598</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>17.70696156471185</v>
+        <v>12.76371984322696</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>22.19684541711538</v>
+        <v>20.32125777500734</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.44212766022957</v>
+        <v>15.9308888503774</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.41900883837981</v>
+        <v>25.32511255512375</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.86709986203002</v>
+        <v>30.96033656648196</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>12.92448128150057</v>
+        <v>1.927880467124854</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>21.68229695137425</v>
+        <v>14.37452543102719</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>24.65157113838283</v>
+        <v>21.09013354683804</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>15.46688356033692</v>
+        <v>7.099102970279407</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>31.54367147108025</v>
+        <v>29.54740054776584</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>39.44244023607042</v>
+        <v>40.99334067762283</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>32.78339589293679</v>
+        <v>30.04784639461979</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>36.67021514271511</v>
+        <v>38.4508767142219</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>43.92093263813456</v>
+        <v>48.18747389474136</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>18.72139265166378</v>
+        <v>15.43800754006457</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>32.09893286081715</v>
+        <v>30.07243223228537</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>35.33942050251905</v>
+        <v>34.77957866858689</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>13.17321401447943</v>
+        <v>4.414824655168911</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.38635921558095</v>
+        <v>6.630718077622589</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>13.86396746794491</v>
+        <v>8.560670982362613</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.64981750774465</v>
+        <v>1.032979049615111</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.64447924805497</v>
+        <v>6.443428570900561</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.51685107943337</v>
+        <v>7.369152737940141</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>14.86426889766983</v>
+        <v>6.952876163282781</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>16.07884708344945</v>
+        <v>11.44988160716948</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>15.64444362330606</v>
+        <v>11.49835416198441</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>13.97628561922262</v>
+        <v>6.97264601732876</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>13.40003282508717</v>
+        <v>5.435265339027872</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>16.26011586110306</v>
+        <v>11.83812551923283</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>12.66019937397418</v>
+        <v>6.99828431399775</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>14.03797917101955</v>
+        <v>4.069235518626741</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>14.54830414852469</v>
+        <v>7.460733807697867</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>13.0685306937584</v>
+        <v>3.317897124515284</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>13.43205908491194</v>
+        <v>8.439936051987953</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>13.93066545063191</v>
+        <v>9.270127000445665</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>12.64140980956134</v>
+        <v>0.6954177674269211</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.84270803882016</v>
+        <v>1.293385981402256</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>13.8520828722229</v>
+        <v>5.463519222101024</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>12.5431195419279</v>
+        <v>0.9549942629336421</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>13.72412001232737</v>
+        <v>2.733798607430323</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.64901898943794</v>
+        <v>6.732467844434886</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>12.66740681101541</v>
+        <v>4.680140782262921</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>13.60937590154186</v>
+        <v>7.616466950902957</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>13.9597195413606</v>
+        <v>8.234097051413084</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>12.64646466453743</v>
+        <v>0.05861957314198563</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>13.17539322370637</v>
+        <v>4.121672423069867</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>13.47118858942685</v>
+        <v>5.08908613795538</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.87948478172252</v>
+        <v>15.95105103699728</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.48948298463712</v>
+        <v>21.87229896872642</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.19739633875982</v>
+        <v>25.0568567331081</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>13.03199822426425</v>
+        <v>2.710126371624778</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>18.71007242711202</v>
+        <v>11.4651230402611</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.24923154382835</v>
+        <v>14.40812216085826</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>17.3838192692287</v>
+        <v>9.82398938225418</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.35168891900276</v>
+        <v>22.71041196088954</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.24872480931365</v>
+        <v>28.25546823887983</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.26850010030478</v>
+        <v>25.10990977505149</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.58373393576848</v>
+        <v>27.72705976046728</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.3101285965846</v>
+        <v>32.6201916730467</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>22.07906163123571</v>
+        <v>17.70075443239486</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.096406207809</v>
+        <v>21.26410392563475</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.30751703030575</v>
+        <v>25.55024652770646</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.10252016417782</v>
+        <v>16.87107787947541</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.06465352599947</v>
+        <v>27.67942293298666</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>35.105004414077</v>
+        <v>33.06995306452924</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>13.08782865353015</v>
+        <v>5.877541661482592</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.53072387947204</v>
+        <v>19.80066096583966</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.01183331462615</v>
+        <v>24.95742979215149</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>17.44624395999887</v>
+        <v>12.4047090202161</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.3650820149246</v>
+        <v>39.51416074300658</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>39.76512985160306</v>
+        <v>40.60751401885946</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.23556551245144</v>
+        <v>35.10600125576002</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>38.4745209793886</v>
+        <v>40.66275553335561</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>39.87198972711841</v>
+        <v>41.96391845758849</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.55855726519531</v>
+        <v>24.83871380608482</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>39.47029635714349</v>
+        <v>41.60763929352989</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.65164439865516</v>
+        <v>46.75803545760751</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>21.11983495228788</v>
+        <v>12.8200728294781</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>27.72071419600208</v>
+        <v>23.05391524780288</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.33006114127676</v>
+        <v>28.17325417741078</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>12.6415403060209</v>
+        <v>1.688988948197888</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.74655369115784</v>
+        <v>9.348296721704433</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>18.75431160650799</v>
+        <v>12.40691059360841</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>15.58429884526673</v>
+        <v>5.312654763799003</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.14551791640202</v>
+        <v>20.37983678145184</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.42507887097379</v>
+        <v>26.46540752014932</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.19150962335119</v>
+        <v>22.43999573143063</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.19405434507576</v>
+        <v>28.56863794551742</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.80193659765267</v>
+        <v>33.21509087485117</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.52319297311298</v>
+        <v>13.48814589465825</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.94498247192284</v>
+        <v>25.36564712396171</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>32.06431291839316</v>
+        <v>30.95043649377196</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.49993968442254</v>
+        <v>18.60044160993848</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>31.21197578163172</v>
+        <v>30.12894522041121</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>38.43964812672215</v>
+        <v>39.2438263699718</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>12.8727354128338</v>
+        <v>4.761122338742162</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>22.12460699700122</v>
+        <v>19.14650051095471</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.9623485149277</v>
+        <v>23.42859454415024</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>17.73833273701456</v>
+        <v>9.636461981014552</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>35.22691764980094</v>
+        <v>34.90152245620706</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>41.20474780920427</v>
+        <v>44.56275895227615</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>41.16649871507216</v>
+        <v>43.38988295356286</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>45.81733470798599</v>
+        <v>50.06723702136399</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>47.23680604690527</v>
+        <v>53.30198161038372</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.13868802826957</v>
+        <v>22.40080600922839</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>39.23216003528228</v>
+        <v>40.36699917853686</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>41.60142754541433</v>
+        <v>45.21131051305387</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>21.61905732207841</v>
+        <v>15.63921684065431</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.96154145331359</v>
+        <v>28.99474882631118</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.06300040313077</v>
+        <v>35.02011152570693</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>13.18427272718032</v>
+        <v>9.126107728808272</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>31.25095188134855</v>
+        <v>30.9225401300529</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>34.10135574519904</v>
+        <v>33.46617200849217</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>17.09575802463124</v>
+        <v>14.71527706070227</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>46.26179984011077</v>
+        <v>52.29712414887296</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>51.482975854648</v>
+        <v>55.90991019565283</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>44.31449381742227</v>
+        <v>47.94422863526627</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>47.2327490118156</v>
+        <v>50.07476897641054</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>49.41621922572189</v>
+        <v>54.74928209091482</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>20.77304137077476</v>
+        <v>15.70241200296897</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.606572998918</v>
+        <v>38.69330655018245</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>43.72001116802556</v>
+        <v>47.16508478583174</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>18.62187522423319</v>
+        <v>12.55155514942856</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.17401698499974</v>
+        <v>27.79873225767793</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.61053044636851</v>
+        <v>32.18724503898937</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>12.65007051430116</v>
+        <v>6.31652106742558</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.07760853570068</v>
+        <v>20.31788152645305</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.81431269786604</v>
+        <v>27.07888899699345</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>14.0531637087782</v>
+        <v>6.66206070098503</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.48587987893767</v>
+        <v>34.12491835482734</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.99322938537497</v>
+        <v>42.56044764372416</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.38072095203908</v>
+        <v>37.01819578983121</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.96189798035607</v>
+        <v>44.2740577068393</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.2030460518942</v>
+        <v>48.79195948258332</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>16.34422155440446</v>
+        <v>9.569049180373593</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.32728637968312</v>
+        <v>34.59676807198348</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>40.03107435759729</v>
+        <v>42.40071283239663</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>16.43877878669941</v>
+        <v>12.1124120826084</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.47998410764421</v>
+        <v>29.59312816901625</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.04967123585985</v>
+        <v>36.9614720888199</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>12.65077086202943</v>
+        <v>4.07228065307897</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.8403336964029</v>
+        <v>24.39135742620302</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.13770949736302</v>
+        <v>31.59102918405274</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>14.0369949261492</v>
+        <v>5.567691599781391</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>35.97826442077793</v>
+        <v>38.59748551130046</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>49.12609464231026</v>
+        <v>54.81982700349975</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>40.82350770399587</v>
+        <v>44.64159547896803</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.01097795080702</v>
+        <v>54.35473230979113</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>57.71333412379937</v>
+        <v>65.99242381165195</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>14.94058251794362</v>
+        <v>7.671715821550574</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>40.4243943407</v>
+        <v>42.30865671841401</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>48.79459566640166</v>
+        <v>52.43664163392471</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>18.43890728925632</v>
+        <v>12.48593951420366</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>24.45950426398431</v>
+        <v>24.03810930685597</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>34.49760959045007</v>
+        <v>33.93004101149832</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>12.65985644788985</v>
+        <v>7.659969178931071</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>37.30198081024536</v>
+        <v>36.6263951258631</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>40.7263622336645</v>
+        <v>41.82221190036351</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>16.09760342314269</v>
+        <v>11.34390170359217</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>52.00241157776226</v>
+        <v>60.19867888702507</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>53.34759891331721</v>
+        <v>60.44649072474915</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>42.32249100807206</v>
+        <v>46.81378999167297</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>42.22784345846352</v>
+        <v>46.48306794944882</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>43.26235442093123</v>
+        <v>47.99849228625528</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>18.61015225497457</v>
+        <v>13.6770793877009</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>30.76161044515675</v>
+        <v>31.22240632797406</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>53.63964063164458</v>
+        <v>61.66584317671099</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>21.38611735901596</v>
+        <v>17.71772540027312</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>32.18755772773368</v>
+        <v>31.57689865785895</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>34.17382328665341</v>
+        <v>35.79873770147418</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>12.78892114693708</v>
+        <v>4.286656651711436</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.43507136511727</v>
+        <v>22.0176481676282</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.82452122419032</v>
+        <v>25.1264390463832</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>14.85792425720515</v>
+        <v>4.261738394200759</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>36.77591580839753</v>
+        <v>36.85757802348957</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>39.3842491528669</v>
+        <v>42.68272295143495</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>35.94341376126928</v>
+        <v>35.85031337574473</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>41.58548828232749</v>
+        <v>45.7989968429094</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>44.47856039159678</v>
+        <v>50.92965641298332</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>18.05152206171366</v>
+        <v>12.23801600134792</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.59871408800006</v>
+        <v>34.90758849989365</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.94645053181986</v>
+        <v>44.79604259571687</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>19.09997370195784</v>
+        <v>16.34374533551862</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.37208356962665</v>
+        <v>31.51364268733716</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.92903378339052</v>
+        <v>38.56235616604381</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>12.65841621378949</v>
+        <v>5.808431583662653</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.8497605145762</v>
+        <v>27.03843519155219</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>32.79508966656117</v>
+        <v>33.25163997018924</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>14.21696329534852</v>
+        <v>7.22558285322599</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>40.82883754977109</v>
+        <v>44.16266869044865</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>49.8894757973939</v>
+        <v>56.75431807947047</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>45.80782931035272</v>
+        <v>49.98225447009277</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>52.23112987251019</v>
+        <v>58.11435324007553</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>57.16887531053113</v>
+        <v>67.14255237337541</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>16.36795168725537</v>
+        <v>9.278586814028479</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>42.03635491692519</v>
+        <v>41.54352292520113</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>49.59289105697864</v>
+        <v>52.768313980703</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>24.50849126571595</v>
+        <v>19.28344004978191</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.77602407405401</v>
+        <v>26.09133091322697</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>35.25744257731558</v>
+        <v>35.85207687507292</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.36566721360495</v>
+        <v>13.01160171880593</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>42.96600489015652</v>
+        <v>45.35763273729532</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>45.68252477566822</v>
+        <v>47.58879199051883</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.49203446008354</v>
+        <v>18.21643268902663</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>51.6621820992402</v>
+        <v>59.92436366020419</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>54.42183849376887</v>
+        <v>63.71193110774006</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>40.60972013445123</v>
+        <v>43.53197240922434</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>41.29828230147289</v>
+        <v>44.34059564496343</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.57170606111384</v>
+        <v>44.91296150166195</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.51589652015215</v>
+        <v>19.53664850793746</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>27.13881569900342</v>
+        <v>25.9646393104488</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>41.60203976473019</v>
+        <v>47.49989551286176</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.9151782039246</v>
+        <v>24.27771497463842</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>32.44184872928415</v>
+        <v>33.33306283855546</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.09015850345365</v>
+        <v>39.09013722884767</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>35.32144888359749</v>
+        <v>33.51736426008198</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>42.87592253522239</v>
+        <v>43.73062573148981</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>44.46074199570122</v>
+        <v>47.10552642072079</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.84112908365824</v>
+        <v>14.6309773762871</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.02695470794273</v>
+        <v>38.57137366170937</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>40.72901813849661</v>
+        <v>48.1710116717926</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.70350978398386</v>
+        <v>38.65875899168668</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>42.12353372465458</v>
+        <v>46.75540953536203</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>44.30416992173586</v>
+        <v>51.24273561749979</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>25.24184671551427</v>
+        <v>22.03477474071215</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.2516920186576</v>
+        <v>36.25963296403116</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.94497644855554</v>
+        <v>46.33708480016148</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>24.87396218405094</v>
+        <v>21.79006137914622</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.57576098411038</v>
+        <v>33.85922716180181</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.35296142697573</v>
+        <v>39.67322831891611</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>35.84605286356612</v>
+        <v>34.16353732756776</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.67848963836266</v>
+        <v>49.54225319939836</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>46.34021892108844</v>
+        <v>50.28832947496718</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>17.79758577888392</v>
+        <v>15.0698571899341</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>43.05537657747037</v>
+        <v>47.75607959007715</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>51.31174306913046</v>
+        <v>59.20430825971397</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>47.6311488083551</v>
+        <v>52.57364872730768</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>53.5802482611513</v>
+        <v>60.4718314086541</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>58.10471291937866</v>
+        <v>68.33205253642845</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.31895467973063</v>
+        <v>21.4945923629641</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.27164623740315</v>
+        <v>43.56723728957538</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>50.33008772755824</v>
+        <v>54.52755740295112</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>15.28014315094378</v>
+        <v>11.10790780785725</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.60435278122976</v>
+        <v>23.71999434389404</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>33.29066059171355</v>
+        <v>33.38092442250498</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>12.62595444974795</v>
+        <v>3.758203564583418</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.07936651443916</v>
+        <v>24.11996720664962</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.28088939221921</v>
+        <v>25.21287317402543</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>14.19654352759071</v>
+        <v>6.44062475734496</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.14913978457786</v>
+        <v>43.49026160864432</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>45.10312213077685</v>
+        <v>47.71561120199706</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>42.13524336655071</v>
+        <v>45.0239089220434</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.26118687905048</v>
+        <v>43.32410630068139</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>44.38405703553989</v>
+        <v>47.02170851982206</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>13.97616670837001</v>
+        <v>3.090560969581677</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>32.0766831980921</v>
+        <v>33.26962966638872</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.45076863790286</v>
+        <v>39.8131098647134</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>17.11823085397386</v>
+        <v>11.86876685062413</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.28269129568125</v>
+        <v>27.26952863214816</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.09902312208807</v>
+        <v>31.25043844378995</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>12.64657702875998</v>
+        <v>4.959278695628811</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.95169500485522</v>
+        <v>21.08466440566809</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.18780834206701</v>
+        <v>24.06625975311612</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>13.92141828319618</v>
+        <v>4.77992360337873</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>33.60544555060238</v>
+        <v>32.8651065041491</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.79796398949061</v>
+        <v>40.99872062993555</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.54663742508129</v>
+        <v>35.36451422090506</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>39.98110842107536</v>
+        <v>42.1522699200216</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>41.77173589705112</v>
+        <v>46.69066893318426</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>14.84954310192881</v>
+        <v>6.811515773962615</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.48102694320248</v>
+        <v>33.77398850741292</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>37.97777703372022</v>
+        <v>39.44427477355062</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>15.88027443703556</v>
+        <v>11.23285244892124</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.06875937631909</v>
+        <v>28.52484700954201</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.30409349811432</v>
+        <v>35.77633202909924</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>12.64630337795122</v>
+        <v>3.055397066812557</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.52344048600827</v>
+        <v>24.39041068675778</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.23210643679297</v>
+        <v>27.64385244766816</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>14.17078508986765</v>
+        <v>4.868030659526106</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>35.44596413679223</v>
+        <v>38.44243991147653</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>45.0591193986576</v>
+        <v>51.06735979335438</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>42.84728164626286</v>
+        <v>47.49805918859724</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>52.86306915401006</v>
+        <v>56.99594940933528</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>54.71925007487324</v>
+        <v>62.47099610942179</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>13.39435408468294</v>
+        <v>2.926119767093489</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>40.29412596064283</v>
+        <v>42.0753812793337</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>46.8350313551913</v>
+        <v>49.83081665770266</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>19.89257153836112</v>
+        <v>10.60187269976127</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.97235490837109</v>
+        <v>14.59672403660013</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>21.33419639776979</v>
+        <v>19.22844597172327</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>13.65338901242426</v>
+        <v>3.664483862617413</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.08028034886316</v>
+        <v>15.21498405243548</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>19.1047671928633</v>
+        <v>16.99991194174403</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>18.03662462431468</v>
+        <v>9.694768759475831</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>24.46208708110962</v>
+        <v>24.47782726369971</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.66654558806067</v>
+        <v>26.70407368100128</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>23.7977552107212</v>
+        <v>19.53124927707312</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.05528143246769</v>
+        <v>22.51437656355346</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>27.56666339803648</v>
+        <v>24.67565446502975</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>18.94784605422863</v>
+        <v>8.986741826231004</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>20.41133253122717</v>
+        <v>14.2635985146412</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.54020580357271</v>
+        <v>21.9056668372004</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>16.95154613993851</v>
+        <v>9.958112987725045</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.55664705953392</v>
+        <v>21.63616208958549</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.87746830376695</v>
+        <v>27.52364816913971</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>12.74198952712256</v>
+        <v>2.890801046448168</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>17.40373507559742</v>
+        <v>13.67601109494751</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>23.51177157897724</v>
+        <v>20.51536151722356</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>13.42035796797271</v>
+        <v>2.505466615327492</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>23.2693355301459</v>
+        <v>21.08117339221876</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>33.9338377006656</v>
+        <v>33.83565898243996</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.25662501243285</v>
+        <v>27.16563014954455</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>33.52870901322577</v>
+        <v>33.8830978078451</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>38.54491947077658</v>
+        <v>40.43922901553299</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>13.92412803312044</v>
+        <v>4.036263641870647</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>27.34796037059541</v>
+        <v>24.84336633170642</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>32.5865068014942</v>
+        <v>32.80739459224365</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>20.73685979508296</v>
+        <v>12.89757903909667</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.85646895135338</v>
+        <v>25.96978038481685</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>32.38102340222412</v>
+        <v>32.21112608714164</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>12.84239274388015</v>
+        <v>3.204643448227738</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>22.871662030465</v>
+        <v>20.60199991120073</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>27.09499769357327</v>
+        <v>25.35537330956192</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>15.31016206859036</v>
+        <v>7.125769983873763</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>31.68021508681913</v>
+        <v>32.37417666370621</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>40.46075714685373</v>
+        <v>42.45852124039695</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.53709406178275</v>
+        <v>37.88833102504321</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>42.22506858886656</v>
+        <v>44.17072038108482</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>44.33180212112041</v>
+        <v>48.22841150340065</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>14.57290120382387</v>
+        <v>4.963684372053702</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>33.08734775543842</v>
+        <v>34.39833073485295</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>41.98148708226135</v>
+        <v>44.5189679499241</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>19.81180583360234</v>
+        <v>13.2322337850657</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>22.42591135271162</v>
+        <v>16.82031124813889</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>24.80939479097665</v>
+        <v>23.00854181643078</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>13.12280572286548</v>
+        <v>5.881895976625735</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.40475460605373</v>
+        <v>20.51054456180355</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>24.31354435468608</v>
+        <v>21.36455757728582</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>19.08645292163747</v>
+        <v>14.81937984596559</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.08718411893845</v>
+        <v>37.19318692599726</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>34.67241670675722</v>
+        <v>37.75281211258417</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.0177332662942</v>
+        <v>26.23669935846586</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>30.69059593542186</v>
+        <v>30.65312191665707</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>34.19004729764524</v>
+        <v>37.3513322717488</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>18.25329021424635</v>
+        <v>10.23101636431701</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.76761909467837</v>
+        <v>24.79705376476849</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>32.13968280846917</v>
+        <v>33.85550502120272</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>15.11479509900666</v>
+        <v>10.39079872293024</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>24.54472311069309</v>
+        <v>19.52608644267056</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>32.89752724687072</v>
+        <v>31.5319114238039</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>12.64651000144919</v>
+        <v>5.564849284682609</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>18.44598728006429</v>
+        <v>9.50472281506665</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.94065874347927</v>
+        <v>28.46209753292626</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>13.9238259526739</v>
+        <v>4.760630761097044</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.85572610485454</v>
+        <v>19.50481675266195</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.74750791958299</v>
+        <v>35.64208080175114</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.58236418642545</v>
+        <v>20.90776597140056</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>34.56457916091998</v>
+        <v>34.61444015732175</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>43.05934915332845</v>
+        <v>44.07996558191194</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.25221479364288</v>
+        <v>4.896911030637007</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.83486262076798</v>
+        <v>23.27356429906344</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>32.2933977866548</v>
+        <v>34.65356265454899</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.91899648656072</v>
+        <v>12.47739579932456</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>23.91994993619165</v>
+        <v>22.71420298534663</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>31.4260266637604</v>
+        <v>29.51428496204983</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>12.65385373983332</v>
+        <v>5.108773718992762</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>22.76542178259805</v>
+        <v>15.78365954253701</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>26.80792146888988</v>
+        <v>25.49113294388036</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>14.07193496231479</v>
+        <v>6.009799744003438</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>31.7735246522635</v>
+        <v>29.52729834467688</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>35.27063512656623</v>
+        <v>37.61281355776177</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>37.99511412455558</v>
+        <v>38.61937571831891</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>41.56145127114842</v>
+        <v>44.33150929073506</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>47.31021609452561</v>
+        <v>53.14639498789597</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>12.87506473767347</v>
+        <v>4.324641227779267</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>27.09537674305908</v>
+        <v>24.51197753861869</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.63118769712126</v>
+        <v>36.9760102019275</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.32717241279118</v>
+        <v>18.49167285080569</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>26.41660991653304</v>
+        <v>26.92225612102476</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.89011526686134</v>
+        <v>35.07833027368966</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>13.20079485981209</v>
+        <v>8.639054562884322</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>37.93194781749339</v>
+        <v>36.62232395537568</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>39.3465533785866</v>
+        <v>41.218392758626</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>19.07551498710023</v>
+        <v>17.36372853823275</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>52.34833480230679</v>
+        <v>57.1082019289309</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>52.68142538502279</v>
+        <v>58.56451520765896</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>41.14718203815166</v>
+        <v>45.11829320842327</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>41.5572149480489</v>
+        <v>44.8202142639212</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>43.26939059087704</v>
+        <v>47.49753341207268</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.33343603565238</v>
+        <v>20.15661532805392</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.05434398715321</v>
+        <v>23.87138149922393</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>52.92571543906638</v>
+        <v>60.06030403872128</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>26.61704668221723</v>
+        <v>22.89353332574179</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>32.61696555913672</v>
+        <v>33.42507560291301</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>33.4413965770017</v>
+        <v>36.56474418767212</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>13.59730835828966</v>
+        <v>8.467667779145334</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>27.81806914721459</v>
+        <v>25.74961323193927</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>31.0530114582933</v>
+        <v>29.8693862106617</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>17.04095073853945</v>
+        <v>10.64023870654973</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>39.43973775801638</v>
+        <v>40.06557580505716</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>42.38834226304172</v>
+        <v>45.4094951398464</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.03006429800434</v>
+        <v>41.15549035102281</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>44.61785443629316</v>
+        <v>46.45785072707149</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>44.40446196106691</v>
+        <v>50.59856190210739</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>24.26806068804246</v>
+        <v>20.46906946106815</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>38.48776348459339</v>
+        <v>37.55057030017413</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>42.06541633492388</v>
+        <v>45.72314622988178</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>26.54805716968418</v>
+        <v>21.2425600244228</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.63797454328592</v>
+        <v>33.90572177844685</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>35.96354750638194</v>
+        <v>39.0965482439183</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>13.56344575341696</v>
+        <v>6.800783952087379</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.15594753395086</v>
+        <v>28.42163090621043</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>32.03340186572705</v>
+        <v>33.34799343191573</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>16.96515265458812</v>
+        <v>10.30179505386977</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>43.2739977905659</v>
+        <v>47.08526408104797</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>50.54582235774627</v>
+        <v>57.58344455953833</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>46.05051503656964</v>
+        <v>50.72375990950432</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>51.59929114499742</v>
+        <v>57.66492977657636</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>56.08705557881046</v>
+        <v>66.13619474828698</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>21.73421341037234</v>
+        <v>19.57323367778487</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>43.00020187120961</v>
+        <v>45.8475848539005</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>48.85592938392585</v>
+        <v>55.02935206371622</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>15.4095870078991</v>
+        <v>9.939854064578597</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.22911674684197</v>
+        <v>21.16575816050452</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>30.93661488869537</v>
+        <v>29.71425077953072</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>12.57541754913277</v>
+        <v>3.920172383282221</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>26.30697097205562</v>
+        <v>23.67245592305158</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>26.62890654012767</v>
+        <v>24.3202049024423</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>14.27173367644229</v>
+        <v>5.692736010922481</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>37.7924300079528</v>
+        <v>39.46467401047955</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>41.65042004400965</v>
+        <v>45.23970906268035</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>40.56136425528013</v>
+        <v>41.13012588115848</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>44.98772220419779</v>
+        <v>45.26777570904233</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>42.19054053981336</v>
+        <v>44.67371193563184</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>13.88657846300324</v>
+        <v>1.572830715764368</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>31.72614918073962</v>
+        <v>30.79188704416327</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>34.5206945383355</v>
+        <v>36.91120546224775</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>17.71326523923769</v>
+        <v>12.52017522499679</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>31.47653774339076</v>
+        <v>28.27953184561302</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>30.47849528577064</v>
+        <v>31.35205684220699</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>12.64906430087798</v>
+        <v>6.348794341566919</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>24.69329889949275</v>
+        <v>21.18861531036415</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.40890359192085</v>
+        <v>25.41728947412636</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>14.1686585569112</v>
+        <v>7.236800854452976</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.10369398919423</v>
+        <v>36.18454036484928</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>42.26583880971606</v>
+        <v>44.90091631709448</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.45947108733729</v>
+        <v>37.69188562002519</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>42.18778320880122</v>
+        <v>44.1445740116044</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>43.96810651607801</v>
+        <v>48.27091101835346</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>14.87816270822277</v>
+        <v>7.464560813164294</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.53051842839864</v>
+        <v>34.63072843145241</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>39.92772869541458</v>
+        <v>41.54778226303908</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>16.73993222827095</v>
+        <v>11.13261476386134</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>30.80669028786741</v>
+        <v>28.05345432210301</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.9743263448846</v>
+        <v>35.01502710552807</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>12.65040334033807</v>
+        <v>3.594853796152194</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>25.16986128872784</v>
+        <v>24.62771590450722</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>27.23936857432057</v>
+        <v>26.38515335523457</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>13.93619748295741</v>
+        <v>5.231672506029447</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>35.62183844220738</v>
+        <v>37.79556938972774</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>43.92484541668427</v>
+        <v>50.11580882753758</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>43.04695232338834</v>
+        <v>45.60629916709973</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>49.64503779651011</v>
+        <v>54.25025115974852</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>53.82826810658509</v>
+        <v>60.92783232735565</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>14.11407727314761</v>
+        <v>4.781299998446876</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>37.18613401941893</v>
+        <v>40.01005356983558</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>46.3223131072931</v>
+        <v>49.80101825810658</v>
       </c>
     </row>
   </sheetData>
